--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.82</v>
+        <v>3.02</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.35</v>
+        <v>2.73</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.92</v>
+        <v>3.61</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.64</v>
+        <v>3.51</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.94</v>
+        <v>2.23</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.11</v>
+        <v>2.7</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:23</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-mainz/0vVKTshq/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.74</v>
+        <v>3.92</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.68</v>
+        <v>3.64</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.7</v>
+        <v>3.94</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.26</v>
+        <v>3.11</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.56</v>
+        <v>1.92</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.58</v>
+        <v>2.25</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:07</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.59</v>
+        <v>3.74</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.97</v>
+        <v>3.68</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:28</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.74</v>
+        <v>3.7</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.62</v>
+        <v>3.26</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:12</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-wolfsburg/fchhYNqS/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.02</v>
+        <v>2.56</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:07</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.61</v>
+        <v>3.59</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.51</v>
+        <v>3.97</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:28</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.23</v>
+        <v>2.74</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:23</t>
+          <t>02/09/2023 15:12</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-mainz/0vVKTshq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-wolfsburg/fchhYNqS/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Hoffenheim</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>3</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:17</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.86</v>
+        <v>3.35</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.68</v>
+        <v>3.33</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.19</v>
+        <v>3.63</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:20</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-union-berlin/fcENm3qF/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.62</v>
+        <v>1.2</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.97</v>
+        <v>1.27</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.92</v>
+        <v>7.5</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.82</v>
+        <v>6.75</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:19</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.9</v>
+        <v>13.58</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.36</v>
+        <v>10.25</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:28</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-augsburg/l0BFkPE2/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>2.62</v>
+        <v>2.03</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.71</v>
+        <v>2.22</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:17</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.54</v>
+        <v>3.86</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.79</v>
+        <v>3.68</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.71</v>
+        <v>3.19</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:20</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-vfb-stuttgart/WMyiWzEs/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>1.2</v>
+        <v>3.62</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.27</v>
+        <v>2.97</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>7.5</v>
+        <v>3.92</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>6.75</v>
+        <v>3.82</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:19</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>13.58</v>
+        <v>1.9</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>10.25</v>
+        <v>2.36</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:28</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-augsburg/l0BFkPE2/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>2.19</v>
+        <v>2.62</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,48 +3540,48 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.23</v>
+        <v>2.71</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>16/09/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>28/08/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
           <t>16/09/2023 15:27</t>
         </is>
       </c>
-      <c r="N34" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O34" t="inlineStr">
+      <c r="R34" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S34" t="inlineStr">
         <is>
           <t>28/08/2023 16:01</t>
         </is>
       </c>
-      <c r="P34" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q34" t="inlineStr">
+      <c r="T34" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U34" t="inlineStr">
         <is>
           <t>16/09/2023 15:27</t>
         </is>
       </c>
-      <c r="R34" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>28/08/2023 16:01</t>
-        </is>
-      </c>
-      <c r="T34" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:29</t>
-        </is>
-      </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-union-berlin/fcENm3qF/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-vfb-stuttgart/WMyiWzEs/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>1</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Wolfsburg</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
       <c r="J40" t="n">
-        <v>1.47</v>
+        <v>4.05</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.74</v>
+        <v>4.91</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:20</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>5.02</v>
+        <v>4.16</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.42</v>
+        <v>4.55</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>5.4</v>
+        <v>1.83</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.48</v>
+        <v>1.66</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>7</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>RB Leipzig</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
       <c r="J41" t="n">
-        <v>4.05</v>
+        <v>1.07</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4.91</v>
+        <v>1.12</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.16</v>
+        <v>20.79</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.55</v>
+        <v>10.5</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>1.83</v>
+        <v>29.26</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.66</v>
+        <v>21</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.6</v>
+        <v>1.47</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.56</v>
+        <v>1.74</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:20</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.57</v>
+        <v>5.02</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.52</v>
+        <v>4.42</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.81</v>
+        <v>5.4</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.88</v>
+        <v>4.48</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.07</v>
+        <v>2.6</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.12</v>
+        <v>2.56</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>20.79</v>
+        <v>3.57</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>10.5</v>
+        <v>3.52</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 15:05</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>29.26</v>
+        <v>2.81</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>21</v>
+        <v>2.88</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>2</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Eintracht Frankfurt</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
       <c r="J48" t="n">
-        <v>2.04</v>
+        <v>2.49</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.21</v>
+        <v>2.86</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.76</v>
+        <v>3.59</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.5</v>
+        <v>3.58</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:22</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.59</v>
+        <v>2.92</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.52</v>
+        <v>2.55</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>2.49</v>
+        <v>2.17</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.86</v>
+        <v>2.27</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.59</v>
+        <v>3.91</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.58</v>
+        <v>3.77</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.92</v>
+        <v>3.27</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.55</v>
+        <v>3.15</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:26</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.17</v>
+        <v>3.34</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.27</v>
+        <v>3.18</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:25</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.91</v>
+        <v>3.52</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.77</v>
+        <v>3.53</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.27</v>
+        <v>2.12</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.15</v>
+        <v>2.33</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:26</t>
+          <t>30/09/2023 15:15</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-union-berlin/x2JKfBda/</t>
         </is>
       </c>
     </row>
@@ -5081,30 +5081,30 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>3.34</v>
+        <v>3.49</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.18</v>
+        <v>5.25</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5112,15 +5112,15 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.52</v>
+        <v>3.67</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.53</v>
+        <v>4.52</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5128,24 +5128,24 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.33</v>
+        <v>1.63</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:15</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-union-berlin/x2JKfBda/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayer-leverkusen/p4vt2g4P/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Bayer Leverkusen</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>3</v>
-      </c>
       <c r="J52" t="n">
-        <v>3.49</v>
+        <v>2.04</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>5.25</v>
+        <v>2.21</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.67</v>
+        <v>3.76</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.52</v>
+        <v>3.5</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:22</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.1</v>
+        <v>3.59</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>1.63</v>
+        <v>3.52</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayer-leverkusen/p4vt2g4P/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
         </is>
       </c>
     </row>
@@ -5514,6 +5514,98 @@
       <c r="V55" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-augsburg/WOdgvjCI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45205.85416666666</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>B. Monchengladbach</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:07</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:07</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:07</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-mainz/YqHsAjdn/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>2.03</v>
+        <v>3.62</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.22</v>
+        <v>2.97</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>16/09/2023 15:17</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.7</v>
+        <v>3.92</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.86</v>
+        <v>3.82</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.68</v>
+        <v>1.9</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.19</v>
+        <v>2.36</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>16/09/2023 15:20</t>
+          <t>16/09/2023 15:28</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>3.62</v>
+        <v>2.03</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.97</v>
+        <v>2.22</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:17</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.92</v>
+        <v>3.7</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.82</v>
+        <v>3.86</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>1.9</v>
+        <v>3.68</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.36</v>
+        <v>3.19</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:28</t>
+          <t>16/09/2023 15:20</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>RB Leipzig</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
       <c r="J40" t="n">
-        <v>4.05</v>
+        <v>1.47</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,48 +4092,48 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4.91</v>
+        <v>1.74</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
+          <t>23/09/2023 15:20</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
           <t>23/09/2023 15:28</t>
         </is>
       </c>
-      <c r="N40" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="O40" t="inlineStr">
+      <c r="R40" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="S40" t="inlineStr">
         <is>
           <t>05/09/2023 12:01</t>
         </is>
       </c>
-      <c r="P40" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="Q40" t="inlineStr">
+      <c r="T40" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="U40" t="inlineStr">
         <is>
           <t>23/09/2023 15:28</t>
         </is>
       </c>
-      <c r="R40" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>05/09/2023 12:01</t>
-        </is>
-      </c>
-      <c r="T40" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:28</t>
-        </is>
-      </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.07</v>
+        <v>2.6</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.12</v>
+        <v>2.56</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>20.79</v>
+        <v>3.57</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>10.5</v>
+        <v>3.52</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 15:05</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>29.26</v>
+        <v>2.81</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>21</v>
+        <v>2.88</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.47</v>
+        <v>1.07</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.74</v>
+        <v>1.12</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:20</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>5.02</v>
+        <v>20.79</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.42</v>
+        <v>10.5</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>5.4</v>
+        <v>29.26</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.48</v>
+        <v>21</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.6</v>
+        <v>4.05</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.56</v>
+        <v>4.91</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.57</v>
+        <v>4.16</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.52</v>
+        <v>4.55</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.81</v>
+        <v>1.83</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.88</v>
+        <v>1.66</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
         </is>
       </c>
     </row>
@@ -5606,6 +5606,374 @@
       <c r="V56" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-mainz/YqHsAjdn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45206.64583333334</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>4</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45206.64583333334</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:02</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:20</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:02</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:02</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45206.64583333334</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>28/09/2023 14:20</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:01</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>28/09/2023 14:20</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>28/09/2023 14:20</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45206.64583333334</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:02</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:02</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:02</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.6</v>
+        <v>1.07</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.56</v>
+        <v>1.12</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.57</v>
+        <v>20.79</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.52</v>
+        <v>10.5</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.81</v>
+        <v>29.26</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.88</v>
+        <v>21</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.07</v>
+        <v>4.05</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.12</v>
+        <v>4.91</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>20.79</v>
+        <v>4.16</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>10.5</v>
+        <v>4.55</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>29.26</v>
+        <v>1.83</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>21</v>
+        <v>1.66</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>4.05</v>
+        <v>2.6</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4.91</v>
+        <v>2.56</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.16</v>
+        <v>3.57</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.55</v>
+        <v>3.52</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:05</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.83</v>
+        <v>2.81</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.66</v>
+        <v>2.88</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>2.49</v>
+        <v>3.49</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.86</v>
+        <v>5.25</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:25</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.59</v>
+        <v>3.67</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.58</v>
+        <v>4.52</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.92</v>
+        <v>2.1</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.55</v>
+        <v>1.63</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayer-leverkusen/p4vt2g4P/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.17</v>
+        <v>2.04</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.27</v>
+        <v>2.21</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.91</v>
+        <v>3.76</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,32 +4936,32 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.77</v>
+        <v>3.5</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
+          <t>30/09/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:01</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
           <t>30/09/2023 15:27</t>
         </is>
       </c>
-      <c r="R49" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:01</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:26</t>
-        </is>
-      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>3.34</v>
+        <v>2.49</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.18</v>
+        <v>2.86</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.52</v>
+        <v>3.59</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.53</v>
+        <v>3.58</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.12</v>
+        <v>2.92</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.33</v>
+        <v>2.55</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:15</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-union-berlin/x2JKfBda/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>3.49</v>
+        <v>2.17</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>5.25</v>
+        <v>2.27</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.67</v>
+        <v>3.91</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>4.52</v>
+        <v>3.77</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.1</v>
+        <v>3.27</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.63</v>
+        <v>3.15</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:26</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayer-leverkusen/p4vt2g4P/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.04</v>
+        <v>3.34</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.21</v>
+        <v>3.18</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:25</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.76</v>
+        <v>3.52</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:22</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.59</v>
+        <v>2.12</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.52</v>
+        <v>2.33</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:15</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-union-berlin/x2JKfBda/</t>
         </is>
       </c>
     </row>
@@ -5633,62 +5633,62 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.52</v>
+        <v>1.31</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.71</v>
+        <v>1.26</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:25</t>
+          <t>07/10/2023 15:20</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.52</v>
+        <v>5.99</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.17</v>
+        <v>6.66</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:27</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>6.35</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.97</v>
+        <v>11.62</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1.31</v>
+        <v>1.96</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.26</v>
+        <v>1.88</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>07/10/2023 15:20</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>5.99</v>
+        <v>3.8</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>6.66</v>
+        <v>3.97</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="R58" t="n">
-        <v>9.130000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>11.62</v>
+        <v>4.16</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,163 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45206.77083333334</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
         <v>3</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Wolfsburg</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="K60" t="inlineStr">
+      <c r="J61" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>23/09/2023 21:02</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O60" t="inlineStr">
+      <c r="L61" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:27</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O61" t="inlineStr">
         <is>
           <t>23/09/2023 21:02</t>
         </is>
       </c>
-      <c r="P60" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
-      <c r="R60" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="S60" t="inlineStr">
+      <c r="P61" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:27</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S61" t="inlineStr">
         <is>
           <t>23/09/2023 21:02</t>
         </is>
       </c>
-      <c r="T60" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
+      <c r="T61" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-hoffenheim/G86n9ABh/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>3.62</v>
+        <v>2.62</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.97</v>
+        <v>2.71</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.92</v>
+        <v>3.4</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.82</v>
+        <v>3.54</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>1.9</v>
+        <v>2.79</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.36</v>
+        <v>2.71</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>16/09/2023 15:28</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-vfb-stuttgart/WMyiWzEs/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>2.03</v>
+        <v>3.62</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.22</v>
+        <v>2.97</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:17</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.7</v>
+        <v>3.92</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.86</v>
+        <v>3.82</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.68</v>
+        <v>1.9</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.19</v>
+        <v>2.36</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:20</t>
+          <t>16/09/2023 15:28</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>2.62</v>
+        <v>2.03</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.71</v>
+        <v>2.22</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:17</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.54</v>
+        <v>3.86</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.79</v>
+        <v>3.68</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.71</v>
+        <v>3.19</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:20</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-vfb-stuttgart/WMyiWzEs/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
         </is>
       </c>
     </row>
@@ -5633,46 +5633,46 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.31</v>
+        <v>1.8</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.26</v>
+        <v>1.85</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:20</t>
+          <t>07/10/2023 15:01</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>5.99</v>
+        <v>3.89</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>6.66</v>
+        <v>3.75</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>9.130000000000001</v>
+        <v>4.06</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>11.62</v>
+        <v>4.66</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:29</t>
+          <t>07/10/2023 15:28</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>1.96</v>
+        <v>1.52</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>23/09/2023 19:02</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
+          <t>07/10/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
           <t>07/10/2023 15:29</t>
         </is>
       </c>
-      <c r="N58" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>23/09/2023 21:02</t>
-        </is>
-      </c>
-      <c r="P58" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
-      <c r="R58" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>23/09/2023 21:02</t>
-        </is>
-      </c>
-      <c r="T58" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
         </is>
       </c>
     </row>
@@ -5817,46 +5817,46 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.8</v>
+        <v>1.31</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.85</v>
+        <v>1.26</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>07/10/2023 15:01</t>
+          <t>07/10/2023 15:20</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.89</v>
+        <v>5.99</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.75</v>
+        <v>6.66</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5864,24 +5864,24 @@
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.06</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.66</v>
+        <v>11.62</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>07/10/2023 15:28</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
         </is>
       </c>
     </row>
@@ -5909,62 +5909,62 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.52</v>
+        <v>1.96</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>07/10/2023 15:25</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.52</v>
+        <v>3.8</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.17</v>
+        <v>3.97</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>07/10/2023 15:27</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>6.35</v>
+        <v>3.8</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.97</v>
+        <v>4.16</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
         </is>
       </c>
     </row>
@@ -6066,6 +6066,98 @@
       <c r="V61" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-hoffenheim/G86n9ABh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45207.64583333334</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>FC Koln</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:02</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:23</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:02</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:02</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-1-fc-koln/rLyYkmBU/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>3</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Augsburg</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>1.2</v>
+        <v>2.62</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.27</v>
+        <v>2.71</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>6.75</v>
+        <v>3.54</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:19</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>13.58</v>
+        <v>2.79</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>10.25</v>
+        <v>2.71</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-augsburg/l0BFkPE2/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-vfb-stuttgart/WMyiWzEs/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.62</v>
+        <v>1.2</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.71</v>
+        <v>1.27</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.54</v>
+        <v>6.75</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:19</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.79</v>
+        <v>13.58</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.71</v>
+        <v>10.25</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-vfb-stuttgart/WMyiWzEs/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-augsburg/l0BFkPE2/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>3.62</v>
+        <v>2.03</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.97</v>
+        <v>2.22</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:17</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.92</v>
+        <v>3.7</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.82</v>
+        <v>3.86</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>1.9</v>
+        <v>3.68</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.36</v>
+        <v>3.19</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:28</t>
+          <t>16/09/2023 15:20</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>2.03</v>
+        <v>3.62</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.22</v>
+        <v>2.97</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>16/09/2023 15:17</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.7</v>
+        <v>3.92</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.86</v>
+        <v>3.82</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.68</v>
+        <v>1.9</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.19</v>
+        <v>2.36</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>16/09/2023 15:20</t>
+          <t>16/09/2023 15:28</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,14 +3985,14 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.85</v>
+        <v>4.05</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.13</v>
+        <v>4.91</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.93</v>
+        <v>4.16</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.72</v>
+        <v>4.55</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:20</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.38</v>
+        <v>1.83</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.51</v>
+        <v>1.66</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:26</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1.47</v>
+        <v>1.85</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,48 +4092,48 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.74</v>
+        <v>2.13</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
+          <t>23/09/2023 15:05</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
           <t>23/09/2023 15:20</t>
         </is>
       </c>
-      <c r="N40" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="O40" t="inlineStr">
+      <c r="R40" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="S40" t="inlineStr">
         <is>
           <t>05/09/2023 12:01</t>
         </is>
       </c>
-      <c r="P40" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:28</t>
-        </is>
-      </c>
-      <c r="R40" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>05/09/2023 12:01</t>
-        </is>
-      </c>
       <c r="T40" t="n">
-        <v>4.48</v>
+        <v>3.51</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:26</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.07</v>
+        <v>1.47</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.12</v>
+        <v>1.74</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:20</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>20.79</v>
+        <v>5.02</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>10.5</v>
+        <v>4.42</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>29.26</v>
+        <v>5.4</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>21</v>
+        <v>4.48</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>4.05</v>
+        <v>2.6</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>4.91</v>
+        <v>2.56</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>4.16</v>
+        <v>3.57</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.55</v>
+        <v>3.52</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:05</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>1.83</v>
+        <v>2.81</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>1.66</v>
+        <v>2.88</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.6</v>
+        <v>1.07</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.56</v>
+        <v>1.12</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.57</v>
+        <v>20.79</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.52</v>
+        <v>10.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.81</v>
+        <v>29.26</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.88</v>
+        <v>21</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.04</v>
+        <v>3.34</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.21</v>
+        <v>3.18</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:25</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.76</v>
+        <v>3.52</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:22</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.59</v>
+        <v>2.12</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.52</v>
+        <v>2.33</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:15</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-union-berlin/x2JKfBda/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Stuttgart</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
       <c r="J50" t="n">
-        <v>2.49</v>
+        <v>2.04</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,48 +5012,48 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.86</v>
+        <v>2.21</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N50" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:01</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
         <v>3.59</v>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>17/09/2023 09:01</t>
         </is>
       </c>
-      <c r="P50" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:20</t>
-        </is>
-      </c>
-      <c r="R50" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:01</t>
-        </is>
-      </c>
       <c r="T50" t="n">
-        <v>2.55</v>
+        <v>3.52</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>2.17</v>
+        <v>2.49</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.27</v>
+        <v>2.86</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.91</v>
+        <v>3.59</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.77</v>
+        <v>3.58</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.27</v>
+        <v>2.92</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.15</v>
+        <v>2.55</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:26</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,63 +5181,63 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>3.34</v>
+        <v>2.17</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.18</v>
+        <v>2.27</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.52</v>
+        <v>3.91</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.53</v>
+        <v>3.77</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.12</v>
+        <v>3.27</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.33</v>
+        <v>3.15</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:15</t>
+          <t>30/09/2023 15:26</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-union-berlin/x2JKfBda/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
         </is>
       </c>
     </row>
@@ -6158,6 +6158,190 @@
       <c r="V62" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-1-fc-koln/rLyYkmBU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45207.72916666666</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>3</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:02</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:22</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:02</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:22</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:02</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>21</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:22</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-freiburg/pSMShkRB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45207.8125</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>28/09/2023 14:24</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>08/10/2023 19:27</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>28/09/2023 14:24</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>08/10/2023 19:28</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>28/09/2023 14:24</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>08/10/2023 19:29</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/eintracht-frankfurt-heidenheim/KtDwBWtt/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>2.03</v>
+        <v>3.62</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.22</v>
+        <v>2.97</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:17</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.7</v>
+        <v>3.92</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.86</v>
+        <v>3.82</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.68</v>
+        <v>1.9</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.19</v>
+        <v>2.36</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:20</t>
+          <t>16/09/2023 15:28</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>3.62</v>
+        <v>2.03</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.97</v>
+        <v>2.22</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:17</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.92</v>
+        <v>3.7</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.82</v>
+        <v>3.86</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>1.9</v>
+        <v>3.68</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.36</v>
+        <v>3.19</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>16/09/2023 15:28</t>
+          <t>16/09/2023 15:20</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,14 +3985,14 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>4.05</v>
+        <v>1.85</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>4.91</v>
+        <v>2.13</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:05</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4.16</v>
+        <v>3.93</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.55</v>
+        <v>3.72</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:20</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>1.83</v>
+        <v>4.38</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>1.66</v>
+        <v>3.51</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:26</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Hoffenheim</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>2</v>
-      </c>
       <c r="J40" t="n">
-        <v>1.85</v>
+        <v>1.47</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.13</v>
+        <v>1.74</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 15:20</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.93</v>
+        <v>5.02</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.72</v>
+        <v>4.42</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:20</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.38</v>
+        <v>5.4</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.51</v>
+        <v>4.48</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:26</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.47</v>
+        <v>1.07</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.74</v>
+        <v>1.12</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:20</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>5.02</v>
+        <v>20.79</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.42</v>
+        <v>10.5</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>5.4</v>
+        <v>29.26</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.48</v>
+        <v>21</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.6</v>
+        <v>4.05</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.56</v>
+        <v>4.91</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.57</v>
+        <v>4.16</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.52</v>
+        <v>4.55</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.81</v>
+        <v>1.83</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.88</v>
+        <v>1.66</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.07</v>
+        <v>2.6</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.12</v>
+        <v>2.56</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>20.79</v>
+        <v>3.57</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>10.5</v>
+        <v>3.52</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 15:05</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>29.26</v>
+        <v>2.81</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>21</v>
+        <v>2.88</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>2</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Eintracht Frankfurt</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
       <c r="J50" t="n">
-        <v>2.04</v>
+        <v>2.49</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.21</v>
+        <v>2.86</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.76</v>
+        <v>3.59</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.5</v>
+        <v>3.58</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:22</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.59</v>
+        <v>2.92</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.52</v>
+        <v>2.55</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>2.49</v>
+        <v>2.17</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.86</v>
+        <v>2.27</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.59</v>
+        <v>3.91</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.58</v>
+        <v>3.77</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.92</v>
+        <v>3.27</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.55</v>
+        <v>3.15</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:26</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.17</v>
+        <v>2.04</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.27</v>
+        <v>2.21</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.91</v>
+        <v>3.76</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,32 +5212,32 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.77</v>
+        <v>3.5</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
+          <t>30/09/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:01</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
           <t>30/09/2023 15:27</t>
         </is>
       </c>
-      <c r="R52" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:01</t>
-        </is>
-      </c>
-      <c r="T52" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:26</t>
-        </is>
-      </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
         </is>
       </c>
     </row>
@@ -6342,6 +6342,98 @@
       <c r="V64" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/eintracht-frankfurt-heidenheim/KtDwBWtt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45219.85416666666</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:08</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-werder-bremen/2P8b68eB/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.02</v>
+        <v>1.92</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.73</v>
+        <v>2.25</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.61</v>
+        <v>3.74</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.51</v>
+        <v>3.68</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.23</v>
+        <v>3.7</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.7</v>
+        <v>3.26</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:23</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-mainz/0vVKTshq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.35</v>
+        <v>1.22</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.92</v>
+        <v>4.92</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.64</v>
+        <v>7.25</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.94</v>
+        <v>6.76</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.11</v>
+        <v>13</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-darmstadt/8tjtyQa9/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.4</v>
+        <v>2.56</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.22</v>
+        <v>2.58</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:07</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4.92</v>
+        <v>3.59</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>7.25</v>
+        <v>3.97</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:28</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>6.76</v>
+        <v>2.74</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>13</v>
+        <v>2.62</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:12</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-darmstadt/8tjtyQa9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-wolfsburg/fchhYNqS/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.74</v>
+        <v>3.92</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.68</v>
+        <v>3.64</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.7</v>
+        <v>3.94</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.26</v>
+        <v>3.11</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.56</v>
+        <v>3.02</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.58</v>
+        <v>2.73</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:07</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.59</v>
+        <v>3.61</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.97</v>
+        <v>3.51</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:28</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.74</v>
+        <v>2.23</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:12</t>
+          <t>02/09/2023 15:23</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-wolfsburg/fchhYNqS/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-mainz/0vVKTshq/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,48 +3172,48 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>16/09/2023 15:17</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>28/08/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
           <t>16/09/2023 15:27</t>
         </is>
       </c>
-      <c r="N30" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O30" t="inlineStr">
+      <c r="R30" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S30" t="inlineStr">
         <is>
           <t>28/08/2023 16:01</t>
         </is>
       </c>
-      <c r="P30" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:27</t>
-        </is>
-      </c>
-      <c r="R30" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>28/08/2023 16:01</t>
-        </is>
-      </c>
       <c r="T30" t="n">
-        <v>3.63</v>
+        <v>3.19</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:20</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-union-berlin/fcENm3qF/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>2.62</v>
+        <v>3.62</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.71</v>
+        <v>2.97</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.4</v>
+        <v>3.92</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.54</v>
+        <v>3.82</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.79</v>
+        <v>1.9</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.71</v>
+        <v>2.36</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:28</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-vfb-stuttgart/WMyiWzEs/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>3</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Augsburg</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>1.2</v>
+        <v>2.62</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.27</v>
+        <v>2.71</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>6.75</v>
+        <v>3.54</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>16/09/2023 15:19</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>13.58</v>
+        <v>2.79</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>10.25</v>
+        <v>2.71</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-augsburg/l0BFkPE2/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-vfb-stuttgart/WMyiWzEs/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3.62</v>
+        <v>1.2</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.97</v>
+        <v>1.27</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.92</v>
+        <v>7.5</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.82</v>
+        <v>6.75</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:19</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>1.9</v>
+        <v>13.58</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.36</v>
+        <v>10.25</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:28</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-augsburg/l0BFkPE2/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Hoffenheim</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
       <c r="J34" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>16/09/2023 15:17</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.86</v>
+        <v>3.35</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.68</v>
+        <v>3.33</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.19</v>
+        <v>3.63</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>16/09/2023 15:20</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-union-berlin/fcENm3qF/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,48 +4000,48 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.13</v>
+        <v>2.56</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
+          <t>23/09/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
           <t>23/09/2023 15:05</t>
         </is>
       </c>
-      <c r="N39" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="O39" t="inlineStr">
+      <c r="R39" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S39" t="inlineStr">
         <is>
           <t>05/09/2023 12:01</t>
         </is>
       </c>
-      <c r="P39" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:20</t>
-        </is>
-      </c>
-      <c r="R39" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>05/09/2023 12:01</t>
-        </is>
-      </c>
       <c r="T39" t="n">
-        <v>3.51</v>
+        <v>2.88</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:26</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.47</v>
+        <v>1.07</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.74</v>
+        <v>1.12</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:20</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>5.02</v>
+        <v>20.79</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.42</v>
+        <v>10.5</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>5.4</v>
+        <v>29.26</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.48</v>
+        <v>21</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.07</v>
+        <v>4.05</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.12</v>
+        <v>4.91</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>20.79</v>
+        <v>4.16</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>10.5</v>
+        <v>4.55</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>29.26</v>
+        <v>1.83</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>21</v>
+        <v>1.66</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>RB Leipzig</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
       <c r="J42" t="n">
-        <v>4.05</v>
+        <v>1.47</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,48 +4276,48 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>4.91</v>
+        <v>1.74</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>23/09/2023 15:20</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
           <t>23/09/2023 15:28</t>
         </is>
       </c>
-      <c r="N42" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="O42" t="inlineStr">
+      <c r="R42" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="S42" t="inlineStr">
         <is>
           <t>05/09/2023 12:01</t>
         </is>
       </c>
-      <c r="P42" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="Q42" t="inlineStr">
+      <c r="T42" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="U42" t="inlineStr">
         <is>
           <t>23/09/2023 15:28</t>
         </is>
       </c>
-      <c r="R42" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>05/09/2023 12:01</t>
-        </is>
-      </c>
-      <c r="T42" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:28</t>
-        </is>
-      </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>2</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Mainz</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
       <c r="J43" t="n">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.56</v>
+        <v>2.13</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:05</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.57</v>
+        <v>3.93</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.52</v>
+        <v>3.72</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 15:20</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.81</v>
+        <v>4.38</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.88</v>
+        <v>3.51</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:26</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Stuttgart</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
       <c r="J50" t="n">
-        <v>2.49</v>
+        <v>2.04</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,48 +5012,48 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.86</v>
+        <v>2.21</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N50" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:01</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
         <v>3.59</v>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>17/09/2023 09:01</t>
         </is>
       </c>
-      <c r="P50" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:20</t>
-        </is>
-      </c>
-      <c r="R50" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:01</t>
-        </is>
-      </c>
       <c r="T50" t="n">
-        <v>2.55</v>
+        <v>3.52</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>2.17</v>
+        <v>2.49</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.27</v>
+        <v>2.86</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.91</v>
+        <v>3.59</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.77</v>
+        <v>3.58</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.27</v>
+        <v>2.92</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.15</v>
+        <v>2.55</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:26</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>2.04</v>
+        <v>2.17</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.76</v>
+        <v>3.91</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.5</v>
+        <v>3.77</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:22</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.59</v>
+        <v>3.27</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.52</v>
+        <v>3.15</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:26</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
         </is>
       </c>
     </row>
@@ -5633,46 +5633,46 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.8</v>
+        <v>1.31</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.85</v>
+        <v>1.26</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:01</t>
+          <t>07/10/2023 15:20</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.89</v>
+        <v>5.99</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.75</v>
+        <v>6.66</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.06</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.66</v>
+        <v>11.62</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:28</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
         </is>
       </c>
     </row>
@@ -5725,62 +5725,62 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1.52</v>
+        <v>1.96</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>07/10/2023 15:25</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.52</v>
+        <v>3.8</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.17</v>
+        <v>3.97</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>07/10/2023 15:27</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>6.35</v>
+        <v>3.8</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.97</v>
+        <v>4.16</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
         </is>
       </c>
     </row>
@@ -5817,46 +5817,46 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>1.31</v>
+        <v>1.8</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.26</v>
+        <v>1.85</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>07/10/2023 15:20</t>
+          <t>07/10/2023 15:01</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>5.99</v>
+        <v>3.89</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>6.66</v>
+        <v>3.75</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5864,24 +5864,24 @@
         </is>
       </c>
       <c r="R59" t="n">
-        <v>9.130000000000001</v>
+        <v>4.06</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>11.62</v>
+        <v>4.66</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>07/10/2023 15:29</t>
+          <t>07/10/2023 15:28</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.96</v>
+        <v>1.52</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>23/09/2023 19:02</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
+          <t>07/10/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
           <t>07/10/2023 15:29</t>
         </is>
       </c>
-      <c r="N60" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>23/09/2023 21:02</t>
-        </is>
-      </c>
-      <c r="P60" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
-      <c r="R60" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>23/09/2023 21:02</t>
-        </is>
-      </c>
-      <c r="T60" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
         </is>
       </c>
     </row>
@@ -6434,6 +6434,466 @@
       <c r="V65" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-werder-bremen/2P8b68eB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45220.64583333334</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>3</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-vfb-stuttgart/plb35SAH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45220.64583333334</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>02/10/2023 08:32</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>02/10/2023 08:32</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>02/10/2023 08:32</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45220.64583333334</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:24</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:26</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45220.64583333334</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>3</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-eintracht-frankfurt/fDpPMTuh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45220.64583333334</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:00</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:00</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayer-leverkusen/xdGA36uU/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5633,46 +5633,46 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.31</v>
+        <v>1.8</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.26</v>
+        <v>1.85</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:20</t>
+          <t>07/10/2023 15:01</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>5.99</v>
+        <v>3.89</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>6.66</v>
+        <v>3.75</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>9.130000000000001</v>
+        <v>4.06</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>11.62</v>
+        <v>4.66</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:29</t>
+          <t>07/10/2023 15:28</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>1.96</v>
+        <v>1.52</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>23/09/2023 19:02</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
+          <t>07/10/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
           <t>07/10/2023 15:29</t>
         </is>
       </c>
-      <c r="N58" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>23/09/2023 21:02</t>
-        </is>
-      </c>
-      <c r="P58" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
-      <c r="R58" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>23/09/2023 21:02</t>
-        </is>
-      </c>
-      <c r="T58" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
         </is>
       </c>
     </row>
@@ -5817,46 +5817,46 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.8</v>
+        <v>1.31</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.85</v>
+        <v>1.26</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>07/10/2023 15:01</t>
+          <t>07/10/2023 15:20</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.89</v>
+        <v>5.99</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.75</v>
+        <v>6.66</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5864,24 +5864,24 @@
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.06</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.66</v>
+        <v>11.62</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>07/10/2023 15:28</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
         </is>
       </c>
     </row>
@@ -5909,62 +5909,62 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.52</v>
+        <v>1.96</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>07/10/2023 15:25</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.52</v>
+        <v>3.8</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.17</v>
+        <v>3.97</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>07/10/2023 15:27</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>6.35</v>
+        <v>3.8</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.97</v>
+        <v>4.16</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
         </is>
       </c>
     </row>
@@ -6461,30 +6461,30 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.61</v>
+        <v>6.59</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6492,40 +6492,40 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.46</v>
+        <v>5.15</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.37</v>
+        <v>5.1</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
+          <t>21/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>02/10/2023 08:32</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
           <t>21/10/2023 15:28</t>
         </is>
       </c>
-      <c r="R66" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>01/10/2023 23:01</t>
-        </is>
-      </c>
-      <c r="T66" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:29</t>
-        </is>
-      </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-vfb-stuttgart/plb35SAH/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
         </is>
       </c>
     </row>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>1</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>RB Leipzig</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>3</v>
-      </c>
       <c r="J67" t="n">
-        <v>6.5</v>
+        <v>1.56</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>6.59</v>
+        <v>1.81</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>5.15</v>
+        <v>4.28</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>5.1</v>
+        <v>3.91</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>1.4</v>
+        <v>5.28</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>1.47</v>
+        <v>4.61</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>21/10/2023 15:28</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>1.56</v>
+        <v>2.39</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4.28</v>
+        <v>3.56</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.91</v>
+        <v>3.65</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>5.28</v>
+        <v>2.98</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.61</v>
+        <v>3.79</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-eintracht-frankfurt/fDpPMTuh/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>2.39</v>
+        <v>2.3</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,48 +6760,48 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.06</v>
+        <v>2.61</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
+          <t>21/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
           <t>21/10/2023 15:28</t>
         </is>
       </c>
-      <c r="N69" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="O69" t="inlineStr">
+      <c r="R69" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S69" t="inlineStr">
         <is>
           <t>01/10/2023 23:01</t>
         </is>
       </c>
-      <c r="P69" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:26</t>
-        </is>
-      </c>
-      <c r="R69" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>01/10/2023 23:01</t>
-        </is>
-      </c>
       <c r="T69" t="n">
-        <v>3.79</v>
+        <v>2.92</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:28</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-eintracht-frankfurt/fDpPMTuh/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-vfb-stuttgart/plb35SAH/</t>
         </is>
       </c>
     </row>
@@ -6894,6 +6894,98 @@
       <c r="V70" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayer-leverkusen/xdGA36uU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45220.77083333334</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>3</v>
+      </c>
+      <c r="J71" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayern-munich/v52xaQmo/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.63</v>
+        <v>3.03</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.66</v>
+        <v>2.92</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19/08/2023 15:14</t>
+          <t>19/08/2023 15:19</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4.13</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>4.42</v>
+        <v>3.72</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>19/08/2023 15:25</t>
+          <t>19/08/2023 14:37</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.88</v>
+        <v>2.23</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>5.16</v>
+        <v>2.43</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>19/08/2023 14:58</t>
+          <t>19/08/2023 15:28</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-heidenheim/KMEgdUWA/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-b-monchengladbach/hzD1f81N/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.68</v>
+        <v>2.59</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>01/07/2023 10:27</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.78</v>
+        <v>2.48</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19/08/2023 15:25</t>
+          <t>19/08/2023 15:08</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.01</v>
+        <v>3.38</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>01/07/2023 10:27</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4.16</v>
+        <v>3.63</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>19/08/2023 15:26</t>
+          <t>19/08/2023 15:29</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.61</v>
+        <v>2.68</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>01/07/2023 10:27</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>4.52</v>
+        <v>2.98</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>19/08/2023 15:28</t>
+          <t>19/08/2023 15:29</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-bochum/AB76gSGT/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-rb-leipzig/QNLpbj2b/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.59</v>
+        <v>1.68</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:27</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.48</v>
+        <v>1.78</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>19/08/2023 15:08</t>
+          <t>19/08/2023 15:25</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.38</v>
+        <v>4.01</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:27</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.63</v>
+        <v>4.16</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>19/08/2023 15:29</t>
+          <t>19/08/2023 15:26</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.68</v>
+        <v>4.61</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:27</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.98</v>
+        <v>4.52</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>19/08/2023 15:29</t>
+          <t>19/08/2023 15:28</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-rb-leipzig/QNLpbj2b/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-bochum/AB76gSGT/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.03</v>
+        <v>1.63</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.92</v>
+        <v>1.66</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>19/08/2023 15:19</t>
+          <t>19/08/2023 15:14</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.6</v>
+        <v>4.13</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.72</v>
+        <v>4.42</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>19/08/2023 14:37</t>
+          <t>19/08/2023 15:25</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.23</v>
+        <v>4.88</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.43</v>
+        <v>5.16</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>19/08/2023 15:28</t>
+          <t>19/08/2023 14:58</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-b-monchengladbach/hzD1f81N/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-heidenheim/KMEgdUWA/</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1593,14 +1593,14 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.71</v>
+        <v>4.97</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.77</v>
+        <v>5.62</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>26/08/2023 14:50</t>
+          <t>26/08/2023 15:27</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.99</v>
+        <v>4.68</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.1</v>
+        <v>4.72</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>26/08/2023 14:50</t>
+          <t>26/08/2023 15:29</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.99</v>
+        <v>1.61</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>4.67</v>
+        <v>1.57</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>26/08/2023 15:03</t>
+          <t>26/08/2023 15:26</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-werder-bremen/nBD9N6V9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-dortmund/v9hlGONq/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>4.97</v>
+        <v>1.71</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5.62</v>
+        <v>1.77</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:27</t>
+          <t>26/08/2023 14:50</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4.68</v>
+        <v>3.99</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.72</v>
+        <v>4.1</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:29</t>
+          <t>26/08/2023 14:50</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.61</v>
+        <v>4.99</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.57</v>
+        <v>4.67</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:26</t>
+          <t>26/08/2023 15:03</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-dortmund/v9hlGONq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-werder-bremen/nBD9N6V9/</t>
         </is>
       </c>
     </row>
@@ -6986,6 +6986,190 @@
       <c r="V71" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayern-munich/v52xaQmo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45221.64583333334</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>FC Koln</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>3</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>B. Monchengladbach</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:17</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-b-monchengladbach/GMoLN9Qo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45221.72916666666</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>02/10/2023 08:33</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>02/10/2023 08:33</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>02/10/2023 08:33</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-augsburg/lzpTLmeb/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.03</v>
+        <v>2.59</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>01/07/2023 10:29</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19/08/2023 15:19</t>
+          <t>19/08/2023 15:08</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>3.38</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>01/07/2023 10:29</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.72</v>
+        <v>3.63</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>19/08/2023 14:37</t>
+          <t>19/08/2023 15:29</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.23</v>
+        <v>2.68</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>01/07/2023 10:29</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.43</v>
+        <v>2.98</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>19/08/2023 15:28</t>
+          <t>19/08/2023 15:29</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-b-monchengladbach/hzD1f81N/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-rb-leipzig/QNLpbj2b/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.59</v>
+        <v>1.63</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:29</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.48</v>
+        <v>1.66</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19/08/2023 15:08</t>
+          <t>19/08/2023 15:14</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.38</v>
+        <v>4.13</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:29</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.63</v>
+        <v>4.42</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>19/08/2023 15:29</t>
+          <t>19/08/2023 15:25</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.68</v>
+        <v>4.88</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:29</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.98</v>
+        <v>5.16</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>19/08/2023 15:29</t>
+          <t>19/08/2023 14:58</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-rb-leipzig/QNLpbj2b/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-heidenheim/KMEgdUWA/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.44</v>
+        <v>1.68</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>01/07/2023 10:29</t>
+          <t>01/07/2023 10:27</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.2</v>
+        <v>1.78</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19/08/2023 15:29</t>
+          <t>19/08/2023 15:25</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.48</v>
+        <v>4.01</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>01/07/2023 10:29</t>
+          <t>01/07/2023 10:27</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.74</v>
+        <v>4.16</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>19/08/2023 15:22</t>
+          <t>19/08/2023 15:26</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.8</v>
+        <v>4.61</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>01/07/2023 10:29</t>
+          <t>01/07/2023 10:27</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.32</v>
+        <v>4.52</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>19/08/2023 15:29</t>
+          <t>19/08/2023 15:28</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-freiburg/EqEcelnH/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-bochum/AB76gSGT/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.68</v>
+        <v>2.44</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>01/07/2023 10:27</t>
+          <t>01/07/2023 10:29</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>19/08/2023 15:25</t>
+          <t>19/08/2023 15:29</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.01</v>
+        <v>3.48</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>01/07/2023 10:27</t>
+          <t>01/07/2023 10:29</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.16</v>
+        <v>3.74</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>19/08/2023 15:26</t>
+          <t>19/08/2023 15:22</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.61</v>
+        <v>2.8</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>01/07/2023 10:27</t>
+          <t>01/07/2023 10:29</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>4.52</v>
+        <v>3.32</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>19/08/2023 15:28</t>
+          <t>19/08/2023 15:29</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-bochum/AB76gSGT/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-freiburg/EqEcelnH/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.63</v>
+        <v>3.03</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.66</v>
+        <v>2.92</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>19/08/2023 15:14</t>
+          <t>19/08/2023 15:19</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.13</v>
+        <v>3.6</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>4.42</v>
+        <v>3.72</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>19/08/2023 15:25</t>
+          <t>19/08/2023 14:37</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.88</v>
+        <v>2.23</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>5.16</v>
+        <v>2.43</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>19/08/2023 14:58</t>
+          <t>19/08/2023 15:28</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-heidenheim/KMEgdUWA/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-b-monchengladbach/hzD1f81N/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>4.97</v>
+        <v>3.33</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:55</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5.62</v>
+        <v>3.15</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>26/08/2023 15:27</t>
+          <t>26/08/2023 15:28</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.68</v>
+        <v>3.58</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:55</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.72</v>
+        <v>3.83</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
+          <t>26/08/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>07/08/2023 12:55</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
           <t>26/08/2023 15:29</t>
         </is>
       </c>
-      <c r="R13" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>04/08/2023 16:02</t>
-        </is>
-      </c>
-      <c r="T13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>26/08/2023 15:26</t>
-        </is>
-      </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-dortmund/v9hlGONq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-hoffenheim/MXsgFrwj/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>1.71</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>07/08/2023 12:56</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4.17</v>
+        <v>1.77</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>26/08/2023 15:29</t>
+          <t>26/08/2023 14:50</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.42</v>
+        <v>3.99</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>07/08/2023 12:56</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.42</v>
+        <v>4.1</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 14:50</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.15</v>
+        <v>4.99</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>07/08/2023 12:56</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.04</v>
+        <v>4.67</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:03</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-union-berlin/zyncE2hd/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-werder-bremen/nBD9N6V9/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>1.71</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:56</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.77</v>
+        <v>4.17</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>26/08/2023 14:50</t>
+          <t>26/08/2023 15:29</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.99</v>
+        <v>3.42</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:56</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.1</v>
+        <v>3.42</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>26/08/2023 14:50</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.99</v>
+        <v>2.15</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:56</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.67</v>
+        <v>2.04</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:03</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-werder-bremen/nBD9N6V9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-union-berlin/zyncE2hd/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.33</v>
+        <v>4.97</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>07/08/2023 12:55</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.15</v>
+        <v>5.62</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:28</t>
+          <t>26/08/2023 15:27</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.58</v>
+        <v>4.68</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>07/08/2023 12:55</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.83</v>
+        <v>4.72</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:28</t>
+          <t>26/08/2023 15:29</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.1</v>
+        <v>1.61</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>07/08/2023 12:55</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.26</v>
+        <v>1.57</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:29</t>
+          <t>26/08/2023 15:26</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-hoffenheim/MXsgFrwj/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-dortmund/v9hlGONq/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.92</v>
+        <v>3.02</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.25</v>
+        <v>2.73</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.74</v>
+        <v>3.61</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.68</v>
+        <v>3.51</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.7</v>
+        <v>2.23</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.26</v>
+        <v>2.7</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:23</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-mainz/0vVKTshq/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.22</v>
+        <v>2.35</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>4.92</v>
+        <v>3.92</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>7.25</v>
+        <v>3.64</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>6.76</v>
+        <v>3.94</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>13</v>
+        <v>3.11</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-darmstadt/8tjtyQa9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.56</v>
+        <v>1.92</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.58</v>
+        <v>2.25</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:07</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.59</v>
+        <v>3.74</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.97</v>
+        <v>3.68</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:28</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.74</v>
+        <v>3.7</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.62</v>
+        <v>3.26</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:12</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-wolfsburg/fchhYNqS/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,63 +2605,63 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.35</v>
+        <v>1.22</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.92</v>
+        <v>4.92</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.64</v>
+        <v>7.25</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.94</v>
+        <v>6.76</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.11</v>
+        <v>13</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-darmstadt/8tjtyQa9/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.02</v>
+        <v>2.56</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:07</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.61</v>
+        <v>3.59</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.51</v>
+        <v>3.97</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:28</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.23</v>
+        <v>2.74</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:23</t>
+          <t>02/09/2023 15:12</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-mainz/0vVKTshq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-wolfsburg/fchhYNqS/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Hoffenheim</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>3</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:17</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.86</v>
+        <v>3.35</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.68</v>
+        <v>3.33</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.19</v>
+        <v>3.63</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:20</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-union-berlin/fcENm3qF/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.62</v>
+        <v>1.2</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.97</v>
+        <v>1.27</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.92</v>
+        <v>7.5</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.82</v>
+        <v>6.75</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:19</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.9</v>
+        <v>13.58</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.36</v>
+        <v>10.25</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:28</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-augsburg/l0BFkPE2/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
         <v>3</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Augsburg</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>1.2</v>
+        <v>2.03</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.27</v>
+        <v>2.22</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:17</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>7.5</v>
+        <v>3.7</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>6.75</v>
+        <v>3.86</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:19</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>13.58</v>
+        <v>3.68</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>10.25</v>
+        <v>3.19</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:20</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-augsburg/l0BFkPE2/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>2.19</v>
+        <v>3.62</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,48 +3540,48 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.23</v>
+        <v>2.97</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>16/09/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>28/08/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
           <t>16/09/2023 15:27</t>
         </is>
       </c>
-      <c r="N34" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O34" t="inlineStr">
+      <c r="R34" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S34" t="inlineStr">
         <is>
           <t>28/08/2023 16:01</t>
         </is>
       </c>
-      <c r="P34" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:27</t>
-        </is>
-      </c>
-      <c r="R34" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>28/08/2023 16:01</t>
-        </is>
-      </c>
       <c r="T34" t="n">
-        <v>3.63</v>
+        <v>2.36</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:28</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-union-berlin/fcENm3qF/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.6</v>
+        <v>1.47</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.56</v>
+        <v>1.74</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:20</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.57</v>
+        <v>5.02</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.52</v>
+        <v>4.42</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.81</v>
+        <v>5.4</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.88</v>
+        <v>4.48</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1.07</v>
+        <v>1.85</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.12</v>
+        <v>2.13</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:05</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>20.79</v>
+        <v>3.93</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>10.5</v>
+        <v>3.72</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 15:20</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>29.26</v>
+        <v>4.38</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>21</v>
+        <v>3.51</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:26</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.47</v>
+        <v>1.07</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.74</v>
+        <v>1.12</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:20</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>5.02</v>
+        <v>20.79</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.42</v>
+        <v>10.5</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>5.4</v>
+        <v>29.26</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.48</v>
+        <v>21</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,48 +4368,48 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.13</v>
+        <v>2.56</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
+          <t>23/09/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
           <t>23/09/2023 15:05</t>
         </is>
       </c>
-      <c r="N43" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="O43" t="inlineStr">
+      <c r="R43" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S43" t="inlineStr">
         <is>
           <t>05/09/2023 12:01</t>
         </is>
       </c>
-      <c r="P43" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:20</t>
-        </is>
-      </c>
-      <c r="R43" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>05/09/2023 12:01</t>
-        </is>
-      </c>
       <c r="T43" t="n">
-        <v>3.51</v>
+        <v>2.88</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:26</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Bayer Leverkusen</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>3</v>
-      </c>
       <c r="J48" t="n">
-        <v>3.49</v>
+        <v>2.04</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>5.25</v>
+        <v>2.21</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.67</v>
+        <v>3.76</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.52</v>
+        <v>3.5</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:22</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.1</v>
+        <v>3.59</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.63</v>
+        <v>3.52</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayer-leverkusen/p4vt2g4P/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>2.04</v>
+        <v>3.49</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.21</v>
+        <v>5.25</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:25</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.76</v>
+        <v>3.67</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.5</v>
+        <v>4.52</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:22</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.59</v>
+        <v>2.1</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.52</v>
+        <v>1.63</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayer-leverkusen/p4vt2g4P/</t>
         </is>
       </c>
     </row>
@@ -5633,46 +5633,46 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>1</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Darmstadt</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>2</v>
-      </c>
       <c r="J57" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:01</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.89</v>
+        <v>3.8</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.75</v>
+        <v>3.97</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.06</v>
+        <v>3.8</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.66</v>
+        <v>4.16</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:28</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>07/10/2023 15:25</t>
+          <t>07/10/2023 15:01</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.52</v>
+        <v>3.89</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.17</v>
+        <v>3.75</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>07/10/2023 15:27</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>6.35</v>
+        <v>4.06</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.97</v>
+        <v>4.66</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>07/10/2023 15:29</t>
+          <t>07/10/2023 15:28</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>23/09/2023 19:02</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.26</v>
+        <v>1.71</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>07/10/2023 15:20</t>
+          <t>07/10/2023 15:25</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>5.99</v>
+        <v>4.52</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>23/09/2023 19:02</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>6.66</v>
+        <v>4.17</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
+          <t>07/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
           <t>07/10/2023 15:29</t>
         </is>
       </c>
-      <c r="R59" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>23/09/2023 21:02</t>
-        </is>
-      </c>
-      <c r="T59" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.96</v>
+        <v>1.31</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,48 +5932,48 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.88</v>
+        <v>1.26</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
+          <t>07/10/2023 15:20</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:02</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
           <t>07/10/2023 15:29</t>
         </is>
       </c>
-      <c r="N60" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O60" t="inlineStr">
+      <c r="R60" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="S60" t="inlineStr">
         <is>
           <t>23/09/2023 21:02</t>
         </is>
       </c>
-      <c r="P60" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="Q60" t="inlineStr">
+      <c r="T60" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="U60" t="inlineStr">
         <is>
           <t>07/10/2023 15:29</t>
         </is>
       </c>
-      <c r="R60" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>23/09/2023 21:02</t>
-        </is>
-      </c>
-      <c r="T60" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
         </is>
       </c>
     </row>
@@ -7170,6 +7170,834 @@
       <c r="V73" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-augsburg/lzpTLmeb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45226.85416666666</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-mainz/IDt4N0W2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45227.64583333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45227.64583333334</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>8</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:25</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:16</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:25</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>19.15</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:25</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>32.15</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-darmstadt/p2wxKRPA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45227.64583333334</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>B. Monchengladbach</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:28</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:28</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:28</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-heidenheim/j7lIacvd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45227.64583333334</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>3</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-hoffenheim/EuzDLv1F/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45227.64583333334</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:01</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:50</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:01</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-union-berlin/4AhMbHg2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45227.77083333334</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>6</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>FC Koln</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:16</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-1-fc-koln/OhxtJouH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45228.64583333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>3</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/eintracht-frankfurt-dortmund/8raD0wPk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45228.72916666666</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:02</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-freiburg/Ui091J9q/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
+          <t>07/10/2023 15:01</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>28/09/2023 14:20</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
           <t>07/10/2023 15:29</t>
         </is>
       </c>
-      <c r="N57" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>23/09/2023 21:02</t>
-        </is>
-      </c>
-      <c r="P57" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
       <c r="R57" t="n">
-        <v>3.8</v>
+        <v>4.06</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.16</v>
+        <v>4.66</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:29</t>
+          <t>07/10/2023 15:28</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 19:02</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>07/10/2023 15:01</t>
+          <t>07/10/2023 15:25</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.89</v>
+        <v>4.52</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 19:02</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.75</v>
+        <v>4.17</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
+          <t>07/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
           <t>07/10/2023 15:29</t>
         </is>
       </c>
-      <c r="R58" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>28/09/2023 14:20</t>
-        </is>
-      </c>
-      <c r="T58" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:28</t>
-        </is>
-      </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
         </is>
       </c>
     </row>
@@ -5817,62 +5817,62 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.52</v>
+        <v>1.31</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.71</v>
+        <v>1.26</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>07/10/2023 15:25</t>
+          <t>07/10/2023 15:20</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4.52</v>
+        <v>5.99</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.17</v>
+        <v>6.66</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>07/10/2023 15:27</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>6.35</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.97</v>
+        <v>11.62</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.31</v>
+        <v>1.96</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.26</v>
+        <v>1.88</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>07/10/2023 15:20</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>5.99</v>
+        <v>3.8</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>6.66</v>
+        <v>3.97</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="R60" t="n">
-        <v>9.130000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>11.62</v>
+        <v>4.16</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
         </is>
       </c>
     </row>
@@ -7998,6 +7998,98 @@
       <c r="V82" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-freiburg/Ui091J9q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45233.85416666666</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>2</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:57</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:44</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:00</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-bochum/82olJ6dE/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Wolfsburg</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
       <c r="J39" t="n">
-        <v>1.47</v>
+        <v>4.05</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.74</v>
+        <v>4.91</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:20</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>5.02</v>
+        <v>4.16</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.42</v>
+        <v>4.55</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="R39" t="n">
-        <v>5.4</v>
+        <v>1.83</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.48</v>
+        <v>1.66</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Hoffenheim</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>2</v>
-      </c>
       <c r="J40" t="n">
-        <v>1.85</v>
+        <v>1.47</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.13</v>
+        <v>1.74</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 15:20</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.93</v>
+        <v>5.02</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.72</v>
+        <v>4.42</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:20</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.38</v>
+        <v>5.4</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.51</v>
+        <v>4.48</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:26</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>7</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>RB Leipzig</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
       <c r="J41" t="n">
-        <v>4.05</v>
+        <v>1.07</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4.91</v>
+        <v>1.12</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.16</v>
+        <v>20.79</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.55</v>
+        <v>10.5</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>1.83</v>
+        <v>29.26</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.66</v>
+        <v>21</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.07</v>
+        <v>1.85</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.12</v>
+        <v>2.13</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:05</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>20.79</v>
+        <v>3.93</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>10.5</v>
+        <v>3.72</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 15:20</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>29.26</v>
+        <v>4.38</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>21</v>
+        <v>3.51</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:26</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>2</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Eintracht Frankfurt</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
       <c r="J48" t="n">
-        <v>2.04</v>
+        <v>2.49</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.21</v>
+        <v>2.86</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.76</v>
+        <v>3.59</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.5</v>
+        <v>3.58</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:22</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.59</v>
+        <v>2.92</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.52</v>
+        <v>2.55</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,63 +4905,63 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>3.34</v>
+        <v>2.17</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.18</v>
+        <v>2.27</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.52</v>
+        <v>3.91</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.53</v>
+        <v>3.77</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.12</v>
+        <v>3.27</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.33</v>
+        <v>3.15</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:15</t>
+          <t>30/09/2023 15:26</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-union-berlin/x2JKfBda/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
         </is>
       </c>
     </row>
@@ -4989,30 +4989,30 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Bayer Leverkusen</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
       <c r="J50" t="n">
-        <v>3.49</v>
+        <v>3.34</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>5.25</v>
+        <v>3.18</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,15 +5020,15 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.67</v>
+        <v>3.52</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.52</v>
+        <v>3.53</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,24 +5036,24 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.63</v>
+        <v>2.33</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:15</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayer-leverkusen/p4vt2g4P/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-union-berlin/x2JKfBda/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>2.49</v>
+        <v>3.49</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.86</v>
+        <v>5.25</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:25</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.59</v>
+        <v>3.67</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.58</v>
+        <v>4.52</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.92</v>
+        <v>2.1</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.55</v>
+        <v>1.63</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayer-leverkusen/p4vt2g4P/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.17</v>
+        <v>2.04</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.27</v>
+        <v>2.21</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.91</v>
+        <v>3.76</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,32 +5212,32 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.77</v>
+        <v>3.5</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
+          <t>30/09/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:01</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
           <t>30/09/2023 15:27</t>
         </is>
       </c>
-      <c r="R52" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:01</t>
-        </is>
-      </c>
-      <c r="T52" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:26</t>
-        </is>
-      </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
         </is>
       </c>
     </row>
@@ -5633,46 +5633,46 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>1</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Darmstadt</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>2</v>
-      </c>
       <c r="J57" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:01</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.89</v>
+        <v>3.8</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.75</v>
+        <v>3.97</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.06</v>
+        <v>3.8</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.66</v>
+        <v>4.16</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:28</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
         </is>
       </c>
     </row>
@@ -5725,62 +5725,62 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.52</v>
+        <v>1.31</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.71</v>
+        <v>1.26</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>07/10/2023 15:25</t>
+          <t>07/10/2023 15:20</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.52</v>
+        <v>5.99</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.17</v>
+        <v>6.66</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>07/10/2023 15:27</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>6.35</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.97</v>
+        <v>11.62</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
         </is>
       </c>
     </row>
@@ -5817,46 +5817,46 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>1.31</v>
+        <v>1.8</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.26</v>
+        <v>1.85</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>07/10/2023 15:20</t>
+          <t>07/10/2023 15:01</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>5.99</v>
+        <v>3.89</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>6.66</v>
+        <v>3.75</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5864,24 +5864,24 @@
         </is>
       </c>
       <c r="R59" t="n">
-        <v>9.130000000000001</v>
+        <v>4.06</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>11.62</v>
+        <v>4.66</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>07/10/2023 15:29</t>
+          <t>07/10/2023 15:28</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.96</v>
+        <v>1.52</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>23/09/2023 19:02</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
+          <t>07/10/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
           <t>07/10/2023 15:29</t>
         </is>
       </c>
-      <c r="N60" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>23/09/2023 21:02</t>
-        </is>
-      </c>
-      <c r="P60" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
-      <c r="R60" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>23/09/2023 21:02</t>
-        </is>
-      </c>
-      <c r="T60" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,63 +6469,63 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>6.5</v>
+        <v>2.83</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>6.59</v>
+        <v>4.47</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:00</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>5.15</v>
+        <v>3.69</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>5.1</v>
+        <v>4.11</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>1.4</v>
+        <v>2.52</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>1.47</v>
+        <v>1.79</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>21/10/2023 15:28</t>
+          <t>21/10/2023 15:00</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayer-leverkusen/xdGA36uU/</t>
         </is>
       </c>
     </row>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>1.56</v>
+        <v>2.3</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.81</v>
+        <v>2.61</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>4.28</v>
+        <v>3.46</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.91</v>
+        <v>3.37</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>5.28</v>
+        <v>3.34</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.61</v>
+        <v>2.92</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-vfb-stuttgart/plb35SAH/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,63 +6653,63 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>2.39</v>
+        <v>6.5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.06</v>
+        <v>6.59</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
+          <t>21/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>02/10/2023 08:32</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>02/10/2023 08:32</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
           <t>21/10/2023 15:28</t>
         </is>
       </c>
-      <c r="N68" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>01/10/2023 23:01</t>
-        </is>
-      </c>
-      <c r="P68" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:26</t>
-        </is>
-      </c>
-      <c r="R68" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>01/10/2023 23:01</t>
-        </is>
-      </c>
-      <c r="T68" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:28</t>
-        </is>
-      </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-eintracht-frankfurt/fDpPMTuh/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.3</v>
+        <v>1.56</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.61</v>
+        <v>1.81</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.46</v>
+        <v>4.28</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.37</v>
+        <v>3.91</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:28</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.34</v>
+        <v>5.28</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.92</v>
+        <v>4.61</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-vfb-stuttgart/plb35SAH/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>2.83</v>
+        <v>2.39</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4.47</v>
+        <v>2.06</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:00</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.69</v>
+        <v>3.56</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4.11</v>
+        <v>3.65</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.52</v>
+        <v>2.98</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1.79</v>
+        <v>3.79</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:00</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayer-leverkusen/xdGA36uU/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-eintracht-frankfurt/fDpPMTuh/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.72</v>
+        <v>2.73</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.54</v>
+        <v>2.86</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:01</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.62</v>
+        <v>3.33</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.62</v>
+        <v>3.53</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 14:50</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.44</v>
+        <v>2.73</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.8</v>
+        <v>2.53</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:01</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-union-berlin/4AhMbHg2/</t>
         </is>
       </c>
     </row>
@@ -7381,46 +7381,46 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>1.07</v>
+        <v>1.77</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.06</v>
+        <v>1.67</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/10/2023 15:16</t>
+          <t>28/10/2023 15:27</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>12.93</v>
+        <v>4.11</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>17.61</v>
+        <v>4.43</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,15 +7428,15 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>19.15</v>
+        <v>4.38</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>32.15</v>
+        <v>4.84</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-darmstadt/p2wxKRPA/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-hoffenheim/EuzDLv1F/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>2</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Heidenheim</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
       <c r="J77" t="n">
-        <v>1.93</v>
+        <v>2.72</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.69</v>
+        <v>2.54</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:28</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.9</v>
+        <v>3.62</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.44</v>
+        <v>3.62</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:29</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.55</v>
+        <v>2.44</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:29</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-heidenheim/j7lIacvd/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
         </is>
       </c>
     </row>
@@ -7565,46 +7565,46 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.77</v>
+        <v>1.07</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.67</v>
+        <v>1.06</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:27</t>
+          <t>28/10/2023 15:16</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4.11</v>
+        <v>12.93</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.43</v>
+        <v>17.61</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -7612,15 +7612,15 @@
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.38</v>
+        <v>19.15</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.84</v>
+        <v>32.15</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-hoffenheim/EuzDLv1F/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-darmstadt/p2wxKRPA/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,63 +7665,63 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.73</v>
+        <v>1.93</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.86</v>
+        <v>1.69</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:01</t>
+          <t>28/10/2023 15:28</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.33</v>
+        <v>3.9</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.53</v>
+        <v>4.44</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/10/2023 14:50</t>
+          <t>28/10/2023 15:29</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.73</v>
+        <v>3.55</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.53</v>
+        <v>4.7</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:01</t>
+          <t>28/10/2023 15:29</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-union-berlin/4AhMbHg2/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-heidenheim/j7lIacvd/</t>
         </is>
       </c>
     </row>
@@ -8090,6 +8090,558 @@
       <c r="V83" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-bochum/82olJ6dE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45234.64583333334</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-rb-leipzig/r1DeDG8e/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45234.64583333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>FC Koln</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-augsburg/CzIaCzO1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45234.64583333334</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>3</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>B. Monchengladbach</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>3</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:19</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:19</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:19</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-b-monchengladbach/MoPnFxvq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45234.64583333334</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>3</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-bayer-leverkusen/jRG3Bfw8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45234.64583333334</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:23</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-eintracht-frankfurt/ngYKJIVR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45234.77083333334</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-bayern-munich/hWYGKbGL/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.92</v>
+        <v>1.4</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.25</v>
+        <v>1.22</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.74</v>
+        <v>4.92</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.68</v>
+        <v>7.25</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.7</v>
+        <v>6.76</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.26</v>
+        <v>13</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-darmstadt/8tjtyQa9/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>1.4</v>
+        <v>1.92</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.22</v>
+        <v>2.25</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.92</v>
+        <v>3.74</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>7.25</v>
+        <v>3.68</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>6.76</v>
+        <v>3.7</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>13</v>
+        <v>3.26</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-darmstadt/8tjtyQa9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.19</v>
+        <v>1.2</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.23</v>
+        <v>1.27</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.35</v>
+        <v>7.5</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.35</v>
+        <v>6.75</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:19</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.33</v>
+        <v>13.58</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.63</v>
+        <v>10.25</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-union-berlin/fcENm3qF/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-augsburg/l0BFkPE2/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>3</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Augsburg</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>1.2</v>
+        <v>2.03</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.27</v>
+        <v>2.22</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:17</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>7.5</v>
+        <v>3.7</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>6.75</v>
+        <v>3.86</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:19</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>13.58</v>
+        <v>3.68</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>10.25</v>
+        <v>3.19</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:20</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-augsburg/l0BFkPE2/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>2.62</v>
+        <v>3.62</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.71</v>
+        <v>2.97</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.4</v>
+        <v>3.92</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.54</v>
+        <v>3.82</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.79</v>
+        <v>1.9</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.71</v>
+        <v>2.36</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:28</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-vfb-stuttgart/WMyiWzEs/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,14 +3433,14 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>2.03</v>
+        <v>2.62</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.22</v>
+        <v>2.71</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:17</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.86</v>
+        <v>3.54</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.68</v>
+        <v>2.79</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.19</v>
+        <v>2.71</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:20</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-vfb-stuttgart/WMyiWzEs/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>3.62</v>
+        <v>2.19</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,48 +3540,48 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.97</v>
+        <v>2.23</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>16/09/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>28/08/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>16/09/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>28/08/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
           <t>16/09/2023 15:29</t>
         </is>
       </c>
-      <c r="N34" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>28/08/2023 16:01</t>
-        </is>
-      </c>
-      <c r="P34" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:27</t>
-        </is>
-      </c>
-      <c r="R34" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>28/08/2023 16:01</t>
-        </is>
-      </c>
-      <c r="T34" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:28</t>
-        </is>
-      </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-union-berlin/fcENm3qF/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>4.05</v>
+        <v>2.6</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>4.91</v>
+        <v>2.56</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4.16</v>
+        <v>3.57</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.55</v>
+        <v>3.52</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:05</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>1.83</v>
+        <v>2.81</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>1.66</v>
+        <v>2.88</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.47</v>
+        <v>1.07</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.74</v>
+        <v>1.12</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:20</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>5.02</v>
+        <v>20.79</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.42</v>
+        <v>10.5</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>5.4</v>
+        <v>29.26</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.48</v>
+        <v>21</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>1.07</v>
+        <v>1.85</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.12</v>
+        <v>2.13</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:05</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>20.79</v>
+        <v>3.93</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>10.5</v>
+        <v>3.72</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 15:20</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>29.26</v>
+        <v>4.38</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>21</v>
+        <v>3.51</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:26</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Hoffenheim</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.85</v>
+        <v>1.47</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.13</v>
+        <v>1.74</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 15:20</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.93</v>
+        <v>5.02</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.72</v>
+        <v>4.42</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:20</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.38</v>
+        <v>5.4</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.51</v>
+        <v>4.48</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:26</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.6</v>
+        <v>4.05</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.56</v>
+        <v>4.91</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.57</v>
+        <v>4.16</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.52</v>
+        <v>4.55</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.81</v>
+        <v>1.83</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.88</v>
+        <v>1.66</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.96</v>
+        <v>1.52</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>23/09/2023 19:02</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
+          <t>07/10/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
           <t>07/10/2023 15:29</t>
         </is>
       </c>
-      <c r="N57" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>23/09/2023 21:02</t>
-        </is>
-      </c>
-      <c r="P57" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
-      <c r="R57" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>23/09/2023 21:02</t>
-        </is>
-      </c>
-      <c r="T57" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
         </is>
       </c>
     </row>
@@ -5817,46 +5817,46 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>1</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Darmstadt</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
       <c r="J59" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>07/10/2023 15:01</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.89</v>
+        <v>3.8</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.75</v>
+        <v>3.97</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5864,24 +5864,24 @@
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.06</v>
+        <v>3.8</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.66</v>
+        <v>4.16</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>07/10/2023 15:28</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>07/10/2023 15:25</t>
+          <t>07/10/2023 15:01</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.52</v>
+        <v>3.89</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.17</v>
+        <v>3.75</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>07/10/2023 15:27</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>6.35</v>
+        <v>4.06</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.97</v>
+        <v>4.66</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>07/10/2023 15:29</t>
+          <t>07/10/2023 15:28</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,54 +6653,54 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>6.5</v>
+        <v>2.39</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6.59</v>
+        <v>2.06</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>5.15</v>
+        <v>3.56</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>5.1</v>
+        <v>3.65</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>1.4</v>
+        <v>2.98</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.47</v>
+        <v>3.79</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-eintracht-frankfurt/fDpPMTuh/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>1.56</v>
+        <v>6.5</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.81</v>
+        <v>6.59</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.28</v>
+        <v>5.15</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.91</v>
+        <v>5.1</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>5.28</v>
+        <v>1.4</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.61</v>
+        <v>1.47</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
         <v>1</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Eintracht Frankfurt</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
       <c r="J70" t="n">
-        <v>2.39</v>
+        <v>1.56</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:28</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.56</v>
+        <v>4.28</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.65</v>
+        <v>3.91</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
+          <t>21/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
           <t>21/10/2023 15:26</t>
         </is>
       </c>
-      <c r="R70" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>01/10/2023 23:01</t>
-        </is>
-      </c>
-      <c r="T70" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:28</t>
-        </is>
-      </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-eintracht-frankfurt/fDpPMTuh/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,38 +7389,38 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/10/2023 15:27</t>
+          <t>28/10/2023 15:28</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>4.11</v>
+        <v>3.9</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,15 +7428,15 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.38</v>
+        <v>3.55</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>4.84</v>
+        <v>4.7</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-hoffenheim/EuzDLv1F/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-heidenheim/j7lIacvd/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>3</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Wolfsburg</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
       <c r="J77" t="n">
-        <v>2.72</v>
+        <v>1.77</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.54</v>
+        <v>1.67</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:27</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.62</v>
+        <v>4.11</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.62</v>
+        <v>4.43</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:29</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.44</v>
+        <v>4.38</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.8</v>
+        <v>4.84</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:29</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-hoffenheim/EuzDLv1F/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>1.07</v>
+        <v>2.72</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.06</v>
+        <v>2.54</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:16</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>12.93</v>
+        <v>3.62</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>17.61</v>
+        <v>3.62</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:29</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>19.15</v>
+        <v>2.44</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>32.15</v>
+        <v>2.8</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:29</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-darmstadt/p2wxKRPA/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
         </is>
       </c>
     </row>
@@ -7657,46 +7657,46 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.93</v>
+        <v>1.07</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.69</v>
+        <v>1.06</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:28</t>
+          <t>28/10/2023 15:16</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.9</v>
+        <v>12.93</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4.44</v>
+        <v>17.61</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -7704,15 +7704,15 @@
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.55</v>
+        <v>19.15</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>4.7</v>
+        <v>32.15</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-heidenheim/j7lIacvd/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-darmstadt/p2wxKRPA/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>3.62</v>
+        <v>1.9</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>4.57</v>
+        <v>2.05</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:28</t>
+          <t>04/11/2023 15:29</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.78</v>
+        <v>3.73</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.04</v>
+        <v>3.89</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:28</t>
+          <t>04/11/2023 15:29</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>1.93</v>
+        <v>3.8</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1.78</v>
+        <v>3.52</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:28</t>
+          <t>04/11/2023 15:29</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-rb-leipzig/r1DeDG8e/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-augsburg/CzIaCzO1/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:29</t>
+          <t>04/11/2023 15:19</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.73</v>
+        <v>3.99</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.89</v>
+        <v>3.85</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:29</t>
+          <t>04/11/2023 15:19</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.8</v>
+        <v>4.55</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.52</v>
+        <v>3.64</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:29</t>
+          <t>04/11/2023 15:19</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-augsburg/CzIaCzO1/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-b-monchengladbach/MoPnFxvq/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>1.77</v>
+        <v>3.85</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.03</v>
+        <v>5.53</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>04/11/2023 15:19</t>
+          <t>04/11/2023 15:29</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.99</v>
+        <v>4.05</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.85</v>
+        <v>5.01</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>04/11/2023 15:19</t>
+          <t>04/11/2023 15:27</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.55</v>
+        <v>1.81</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.64</v>
+        <v>1.53</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>04/11/2023 15:19</t>
+          <t>04/11/2023 15:29</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-b-monchengladbach/MoPnFxvq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-bayer-leverkusen/jRG3Bfw8/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>3.85</v>
+        <v>3.62</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>5.53</v>
+        <v>4.57</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:29</t>
+          <t>04/11/2023 15:28</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>4.05</v>
+        <v>3.78</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>5.01</v>
+        <v>4.04</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:27</t>
+          <t>04/11/2023 15:28</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:29</t>
+          <t>04/11/2023 15:28</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-bayer-leverkusen/jRG3Bfw8/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-rb-leipzig/r1DeDG8e/</t>
         </is>
       </c>
     </row>
@@ -8642,6 +8642,190 @@
       <c r="V89" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-bayern-munich/hWYGKbGL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45235.64583333334</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-werder-bremen/4AEiEdgk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45235.72916666666</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:28</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:28</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:28</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-vfb-stuttgart/faspKns8/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:29</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.48</v>
+        <v>2.2</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19/08/2023 15:08</t>
+          <t>19/08/2023 15:29</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.38</v>
+        <v>3.48</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:29</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.63</v>
+        <v>3.74</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
+          <t>19/08/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>01/07/2023 10:29</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>19/08/2023 15:29</t>
         </is>
       </c>
-      <c r="R3" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>01/07/2023 10:31</t>
-        </is>
-      </c>
-      <c r="T3" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>19/08/2023 15:29</t>
-        </is>
-      </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-rb-leipzig/QNLpbj2b/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-freiburg/EqEcelnH/</t>
         </is>
       </c>
     </row>
@@ -941,62 +941,62 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.44</v>
+        <v>2.59</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>01/07/2023 10:29</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.2</v>
+        <v>2.48</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>19/08/2023 15:08</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>01/07/2023 10:31</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>19/08/2023 15:29</t>
         </is>
       </c>
-      <c r="N6" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>01/07/2023 10:29</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>19/08/2023 15:22</t>
-        </is>
-      </c>
       <c r="R6" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>01/07/2023 10:29</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.32</v>
+        <v>2.98</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-freiburg/EqEcelnH/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-rb-leipzig/QNLpbj2b/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3.33</v>
+        <v>1.71</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>07/08/2023 12:55</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3.15</v>
+        <v>1.77</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>26/08/2023 15:28</t>
+          <t>26/08/2023 14:50</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.58</v>
+        <v>3.99</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>07/08/2023 12:55</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.83</v>
+        <v>4.1</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>26/08/2023 15:28</t>
+          <t>26/08/2023 14:50</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.1</v>
+        <v>4.99</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>07/08/2023 12:55</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.26</v>
+        <v>4.67</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>26/08/2023 15:29</t>
+          <t>26/08/2023 15:03</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-hoffenheim/MXsgFrwj/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-werder-bremen/nBD9N6V9/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.71</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:56</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.77</v>
+        <v>4.17</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>26/08/2023 14:50</t>
+          <t>26/08/2023 15:29</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.99</v>
+        <v>3.42</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:56</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.1</v>
+        <v>3.42</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>26/08/2023 14:50</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.99</v>
+        <v>2.15</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:56</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>4.67</v>
+        <v>2.04</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>26/08/2023 15:03</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-werder-bremen/nBD9N6V9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-union-berlin/zyncE2hd/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>4.97</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>07/08/2023 12:56</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4.17</v>
+        <v>5.62</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
+          <t>26/08/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>04/08/2023 16:02</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
           <t>26/08/2023 15:29</t>
         </is>
       </c>
-      <c r="N15" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>07/08/2023 12:56</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>26/08/2023 15:23</t>
-        </is>
-      </c>
       <c r="R15" t="n">
-        <v>2.15</v>
+        <v>1.61</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>07/08/2023 12:56</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.04</v>
+        <v>1.57</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:26</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-union-berlin/zyncE2hd/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-dortmund/v9hlGONq/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>4.97</v>
+        <v>3.33</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:55</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5.62</v>
+        <v>3.15</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:27</t>
+          <t>26/08/2023 15:28</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>4.68</v>
+        <v>3.58</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:55</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4.72</v>
+        <v>3.83</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
+          <t>26/08/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>07/08/2023 12:55</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
           <t>26/08/2023 15:29</t>
         </is>
       </c>
-      <c r="R16" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>04/08/2023 16:02</t>
-        </is>
-      </c>
-      <c r="T16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>26/08/2023 15:26</t>
-        </is>
-      </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-dortmund/v9hlGONq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-hoffenheim/MXsgFrwj/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.02</v>
+        <v>1.92</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.73</v>
+        <v>2.25</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.61</v>
+        <v>3.74</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.51</v>
+        <v>3.68</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.23</v>
+        <v>3.7</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.7</v>
+        <v>3.26</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:23</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-mainz/0vVKTshq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.35</v>
+        <v>1.22</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.92</v>
+        <v>4.92</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.64</v>
+        <v>7.25</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.94</v>
+        <v>6.76</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.11</v>
+        <v>13</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-darmstadt/8tjtyQa9/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.4</v>
+        <v>2.56</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.22</v>
+        <v>2.58</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:07</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4.92</v>
+        <v>3.59</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>7.25</v>
+        <v>3.97</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:28</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>6.76</v>
+        <v>2.74</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>13</v>
+        <v>2.62</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:12</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-darmstadt/8tjtyQa9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-wolfsburg/fchhYNqS/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.74</v>
+        <v>3.92</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.68</v>
+        <v>3.64</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.7</v>
+        <v>3.94</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.26</v>
+        <v>3.11</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.56</v>
+        <v>3.02</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.58</v>
+        <v>2.73</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:07</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.59</v>
+        <v>3.61</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.97</v>
+        <v>3.51</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:28</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.74</v>
+        <v>2.23</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:12</t>
+          <t>02/09/2023 15:23</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-wolfsburg/fchhYNqS/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-mainz/0vVKTshq/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>3</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Augsburg</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>1.2</v>
+        <v>2.03</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.27</v>
+        <v>2.22</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:17</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>7.5</v>
+        <v>3.7</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>6.75</v>
+        <v>3.86</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:19</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>13.58</v>
+        <v>3.68</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>10.25</v>
+        <v>3.19</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:20</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-augsburg/l0BFkPE2/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>2.03</v>
+        <v>3.62</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.22</v>
+        <v>2.97</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:17</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.7</v>
+        <v>3.92</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.86</v>
+        <v>3.82</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.68</v>
+        <v>1.9</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.19</v>
+        <v>2.36</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:20</t>
+          <t>16/09/2023 15:28</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>3.62</v>
+        <v>2.62</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.97</v>
+        <v>2.71</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.92</v>
+        <v>3.4</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.82</v>
+        <v>3.54</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>1.9</v>
+        <v>2.79</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.36</v>
+        <v>2.71</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>16/09/2023 15:28</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-vfb-stuttgart/WMyiWzEs/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.62</v>
+        <v>1.2</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.71</v>
+        <v>1.27</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.54</v>
+        <v>6.75</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:19</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.79</v>
+        <v>13.58</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.71</v>
+        <v>10.25</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-vfb-stuttgart/WMyiWzEs/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-augsburg/l0BFkPE2/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>2</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Mainz</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
       <c r="J39" t="n">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.56</v>
+        <v>2.13</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:05</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.57</v>
+        <v>3.93</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.52</v>
+        <v>3.72</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 15:20</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.81</v>
+        <v>4.38</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.88</v>
+        <v>3.51</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:26</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.07</v>
+        <v>1.47</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.12</v>
+        <v>1.74</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:20</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>20.79</v>
+        <v>5.02</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>10.5</v>
+        <v>4.42</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>29.26</v>
+        <v>5.4</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>21</v>
+        <v>4.48</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.85</v>
+        <v>4.05</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.13</v>
+        <v>4.91</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.93</v>
+        <v>4.16</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.72</v>
+        <v>4.55</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:20</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>4.38</v>
+        <v>1.83</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.51</v>
+        <v>1.66</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:26</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Wolfsburg</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.47</v>
+        <v>2.6</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.74</v>
+        <v>2.56</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:20</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>5.02</v>
+        <v>3.57</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.42</v>
+        <v>3.52</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:05</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>5.4</v>
+        <v>2.81</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.48</v>
+        <v>2.88</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>7</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>RB Leipzig</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
       <c r="J43" t="n">
-        <v>4.05</v>
+        <v>1.07</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4.91</v>
+        <v>1.12</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.16</v>
+        <v>20.79</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.55</v>
+        <v>10.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.83</v>
+        <v>29.26</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.66</v>
+        <v>21</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>2.49</v>
+        <v>3.49</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.86</v>
+        <v>5.25</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:25</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.59</v>
+        <v>3.67</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.58</v>
+        <v>4.52</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.92</v>
+        <v>2.1</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.55</v>
+        <v>1.63</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayer-leverkusen/p4vt2g4P/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.17</v>
+        <v>2.04</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.27</v>
+        <v>2.21</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.91</v>
+        <v>3.76</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,32 +4936,32 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.77</v>
+        <v>3.5</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
+          <t>30/09/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:01</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
           <t>30/09/2023 15:27</t>
         </is>
       </c>
-      <c r="R49" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:01</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:26</t>
-        </is>
-      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>3.34</v>
+        <v>2.49</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.18</v>
+        <v>2.86</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.52</v>
+        <v>3.59</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.53</v>
+        <v>3.58</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.12</v>
+        <v>2.92</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.33</v>
+        <v>2.55</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:15</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-union-berlin/x2JKfBda/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>3.49</v>
+        <v>2.17</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>5.25</v>
+        <v>2.27</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.67</v>
+        <v>3.91</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>4.52</v>
+        <v>3.77</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.1</v>
+        <v>3.27</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.63</v>
+        <v>3.15</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:26</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayer-leverkusen/p4vt2g4P/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.04</v>
+        <v>3.34</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.21</v>
+        <v>3.18</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:25</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.76</v>
+        <v>3.52</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:22</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.59</v>
+        <v>2.12</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.52</v>
+        <v>2.33</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:15</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-union-berlin/x2JKfBda/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:25</t>
+          <t>07/10/2023 15:01</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.52</v>
+        <v>3.89</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.17</v>
+        <v>3.75</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:27</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>6.35</v>
+        <v>4.06</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.97</v>
+        <v>4.66</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:29</t>
+          <t>07/10/2023 15:28</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>23/09/2023 19:02</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.26</v>
+        <v>1.71</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>07/10/2023 15:20</t>
+          <t>07/10/2023 15:25</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>5.99</v>
+        <v>4.52</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>23/09/2023 19:02</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>6.66</v>
+        <v>4.17</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
+          <t>07/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
           <t>07/10/2023 15:29</t>
         </is>
       </c>
-      <c r="R58" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>23/09/2023 21:02</t>
-        </is>
-      </c>
-      <c r="T58" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.96</v>
+        <v>1.31</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,48 +5840,48 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.88</v>
+        <v>1.26</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
+          <t>07/10/2023 15:20</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:02</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
           <t>07/10/2023 15:29</t>
         </is>
       </c>
-      <c r="N59" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O59" t="inlineStr">
+      <c r="R59" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="S59" t="inlineStr">
         <is>
           <t>23/09/2023 21:02</t>
         </is>
       </c>
-      <c r="P59" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="Q59" t="inlineStr">
+      <c r="T59" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="U59" t="inlineStr">
         <is>
           <t>07/10/2023 15:29</t>
         </is>
       </c>
-      <c r="R59" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>23/09/2023 21:02</t>
-        </is>
-      </c>
-      <c r="T59" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
         </is>
       </c>
     </row>
@@ -5909,46 +5909,46 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
         <v>1</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Darmstadt</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
       <c r="J60" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>07/10/2023 15:01</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.89</v>
+        <v>3.8</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.75</v>
+        <v>3.97</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5956,24 +5956,24 @@
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.06</v>
+        <v>3.8</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.66</v>
+        <v>4.16</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>07/10/2023 15:28</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,63 +6469,63 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>2.83</v>
+        <v>6.5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4.47</v>
+        <v>6.59</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>21/10/2023 15:00</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.69</v>
+        <v>5.15</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.11</v>
+        <v>5.1</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.52</v>
+        <v>1.4</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>1.79</v>
+        <v>1.47</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>21/10/2023 15:00</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayer-leverkusen/xdGA36uU/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
         </is>
       </c>
     </row>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.3</v>
+        <v>1.56</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.61</v>
+        <v>1.81</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.46</v>
+        <v>4.28</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.37</v>
+        <v>3.91</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>21/10/2023 15:28</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.34</v>
+        <v>5.28</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.92</v>
+        <v>4.61</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-vfb-stuttgart/plb35SAH/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
         </is>
       </c>
     </row>
@@ -6737,30 +6737,30 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>6.59</v>
+        <v>2.61</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6768,40 +6768,40 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>5.15</v>
+        <v>3.46</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>5.1</v>
+        <v>3.37</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
+          <t>21/10/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
           <t>21/10/2023 15:29</t>
         </is>
       </c>
-      <c r="R69" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>02/10/2023 08:32</t>
-        </is>
-      </c>
-      <c r="T69" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:28</t>
-        </is>
-      </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-vfb-stuttgart/plb35SAH/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
         <v>2</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Bochum</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
       <c r="J70" t="n">
-        <v>1.56</v>
+        <v>2.83</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.81</v>
+        <v>4.47</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:00</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>4.28</v>
+        <v>3.69</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.91</v>
+        <v>4.11</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>5.28</v>
+        <v>2.52</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.61</v>
+        <v>1.79</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:00</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayer-leverkusen/xdGA36uU/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>2</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Union Berlin</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
       <c r="J75" t="n">
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.86</v>
+        <v>2.54</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>28/10/2023 15:01</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.33</v>
+        <v>3.62</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.53</v>
+        <v>3.62</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>28/10/2023 14:50</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.73</v>
+        <v>2.44</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.53</v>
+        <v>2.8</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>28/10/2023 15:01</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-union-berlin/4AhMbHg2/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
         </is>
       </c>
     </row>
@@ -7381,46 +7381,46 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.93</v>
+        <v>1.07</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.69</v>
+        <v>1.06</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/10/2023 15:28</t>
+          <t>28/10/2023 15:16</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.9</v>
+        <v>12.93</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4.44</v>
+        <v>17.61</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,15 +7428,15 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.55</v>
+        <v>19.15</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>4.7</v>
+        <v>32.15</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-heidenheim/j7lIacvd/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-darmstadt/p2wxKRPA/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,38 +7481,38 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:27</t>
+          <t>28/10/2023 15:28</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.11</v>
+        <v>3.9</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,15 +7520,15 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.38</v>
+        <v>3.55</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>4.84</v>
+        <v>4.7</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-hoffenheim/EuzDLv1F/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-heidenheim/j7lIacvd/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
         <v>3</v>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Wolfsburg</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>2</v>
-      </c>
       <c r="J78" t="n">
-        <v>2.72</v>
+        <v>1.77</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.54</v>
+        <v>1.67</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:27</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.62</v>
+        <v>4.11</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.62</v>
+        <v>4.43</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:29</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.44</v>
+        <v>4.38</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.8</v>
+        <v>4.84</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:29</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-hoffenheim/EuzDLv1F/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.07</v>
+        <v>2.73</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.06</v>
+        <v>2.86</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:16</t>
+          <t>28/10/2023 15:01</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>12.93</v>
+        <v>3.33</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>17.61</v>
+        <v>3.53</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:29</t>
+          <t>28/10/2023 14:50</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>19.15</v>
+        <v>2.73</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>32.15</v>
+        <v>2.53</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:29</t>
+          <t>28/10/2023 15:01</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-darmstadt/p2wxKRPA/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-union-berlin/4AhMbHg2/</t>
         </is>
       </c>
     </row>
@@ -8826,6 +8826,98 @@
       <c r="V91" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-vfb-stuttgart/faspKns8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45240.85416666666</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>B. Monchengladbach</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>4</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>10/11/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>10/11/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>10/11/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-wolfsburg/Ao2KBOll/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V92"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.92</v>
+        <v>3.02</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.25</v>
+        <v>2.73</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.74</v>
+        <v>3.61</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.68</v>
+        <v>3.51</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.7</v>
+        <v>2.23</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.26</v>
+        <v>2.7</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:23</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-mainz/0vVKTshq/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.4</v>
+        <v>1.92</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.22</v>
+        <v>2.25</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>4.92</v>
+        <v>3.74</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>7.25</v>
+        <v>3.68</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>6.76</v>
+        <v>3.7</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>13</v>
+        <v>3.26</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-darmstadt/8tjtyQa9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.56</v>
+        <v>1.4</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.58</v>
+        <v>1.22</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:07</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.59</v>
+        <v>4.92</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.97</v>
+        <v>7.25</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:28</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.74</v>
+        <v>6.76</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.62</v>
+        <v>13</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:12</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-wolfsburg/fchhYNqS/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-darmstadt/8tjtyQa9/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.82</v>
+        <v>2.56</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.35</v>
+        <v>2.58</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:07</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.92</v>
+        <v>3.59</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.64</v>
+        <v>3.97</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:28</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.94</v>
+        <v>2.74</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.11</v>
+        <v>2.62</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:12</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-wolfsburg/fchhYNqS/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.02</v>
+        <v>1.82</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.73</v>
+        <v>2.35</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.61</v>
+        <v>3.92</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.51</v>
+        <v>3.64</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.23</v>
+        <v>3.94</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.7</v>
+        <v>3.11</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:23</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-mainz/0vVKTshq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,14 +3985,14 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.85</v>
+        <v>4.05</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.13</v>
+        <v>4.91</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.93</v>
+        <v>4.16</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.72</v>
+        <v>4.55</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:20</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.38</v>
+        <v>1.83</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.51</v>
+        <v>1.66</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:26</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1.47</v>
+        <v>1.85</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,48 +4092,48 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.74</v>
+        <v>2.13</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
+          <t>23/09/2023 15:05</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
           <t>23/09/2023 15:20</t>
         </is>
       </c>
-      <c r="N40" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="O40" t="inlineStr">
+      <c r="R40" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="S40" t="inlineStr">
         <is>
           <t>05/09/2023 12:01</t>
         </is>
       </c>
-      <c r="P40" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:28</t>
-        </is>
-      </c>
-      <c r="R40" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>05/09/2023 12:01</t>
-        </is>
-      </c>
       <c r="T40" t="n">
-        <v>4.48</v>
+        <v>3.51</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:26</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>4.05</v>
+        <v>2.6</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4.91</v>
+        <v>2.56</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.16</v>
+        <v>3.57</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.55</v>
+        <v>3.52</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:05</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>1.83</v>
+        <v>2.81</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.66</v>
+        <v>2.88</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.6</v>
+        <v>1.07</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.56</v>
+        <v>1.12</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.57</v>
+        <v>20.79</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.52</v>
+        <v>10.5</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.81</v>
+        <v>29.26</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.88</v>
+        <v>21</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.07</v>
+        <v>1.47</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.12</v>
+        <v>1.74</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:20</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>20.79</v>
+        <v>5.02</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>10.5</v>
+        <v>4.42</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>29.26</v>
+        <v>5.4</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>21</v>
+        <v>4.48</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Stuttgart</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
       <c r="J50" t="n">
-        <v>2.49</v>
+        <v>3.34</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.86</v>
+        <v>3.18</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:25</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.59</v>
+        <v>3.52</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.58</v>
+        <v>3.53</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.92</v>
+        <v>2.12</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:15</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-union-berlin/x2JKfBda/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>2.17</v>
+        <v>2.49</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.27</v>
+        <v>2.86</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.91</v>
+        <v>3.59</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.77</v>
+        <v>3.58</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.27</v>
+        <v>2.92</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.15</v>
+        <v>2.55</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:26</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,63 +5181,63 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>3.34</v>
+        <v>2.17</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.18</v>
+        <v>2.27</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.52</v>
+        <v>3.91</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.53</v>
+        <v>3.77</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.12</v>
+        <v>3.27</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.33</v>
+        <v>3.15</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:15</t>
+          <t>30/09/2023 15:26</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-union-berlin/x2JKfBda/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
         </is>
       </c>
     </row>
@@ -6461,30 +6461,30 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>6.59</v>
+        <v>2.61</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6492,40 +6492,40 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>5.15</v>
+        <v>3.46</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>5.1</v>
+        <v>3.37</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
+          <t>21/10/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
           <t>21/10/2023 15:29</t>
         </is>
       </c>
-      <c r="R66" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>02/10/2023 08:32</t>
-        </is>
-      </c>
-      <c r="T66" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:28</t>
-        </is>
-      </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-vfb-stuttgart/plb35SAH/</t>
         </is>
       </c>
     </row>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>1.56</v>
+        <v>2.39</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>4.28</v>
+        <v>3.56</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.91</v>
+        <v>3.65</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>5.28</v>
+        <v>2.98</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.61</v>
+        <v>3.79</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-eintracht-frankfurt/fDpPMTuh/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,63 +6653,63 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>2.39</v>
+        <v>6.5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.06</v>
+        <v>6.59</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
+          <t>21/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>02/10/2023 08:32</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>02/10/2023 08:32</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
           <t>21/10/2023 15:28</t>
         </is>
       </c>
-      <c r="N68" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>01/10/2023 23:01</t>
-        </is>
-      </c>
-      <c r="P68" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:26</t>
-        </is>
-      </c>
-      <c r="R68" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>01/10/2023 23:01</t>
-        </is>
-      </c>
-      <c r="T68" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:28</t>
-        </is>
-      </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-eintracht-frankfurt/fDpPMTuh/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>2.3</v>
+        <v>2.83</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.61</v>
+        <v>4.47</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:00</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.46</v>
+        <v>3.69</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.37</v>
+        <v>4.11</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:28</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.34</v>
+        <v>2.52</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.92</v>
+        <v>1.79</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:00</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-vfb-stuttgart/plb35SAH/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayer-leverkusen/xdGA36uU/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
         <v>1</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Bayer Leverkusen</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>2</v>
-      </c>
       <c r="J70" t="n">
-        <v>2.83</v>
+        <v>1.56</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4.47</v>
+        <v>1.81</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:00</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.69</v>
+        <v>4.28</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4.11</v>
+        <v>3.91</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.52</v>
+        <v>5.28</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1.79</v>
+        <v>4.61</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:00</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayer-leverkusen/xdGA36uU/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>3</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Wolfsburg</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>2</v>
-      </c>
       <c r="J75" t="n">
-        <v>2.72</v>
+        <v>1.77</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.54</v>
+        <v>1.67</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:27</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.62</v>
+        <v>4.11</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.62</v>
+        <v>4.43</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:29</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.44</v>
+        <v>4.38</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.8</v>
+        <v>4.84</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:29</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-hoffenheim/EuzDLv1F/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>1.07</v>
+        <v>2.72</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.06</v>
+        <v>2.54</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/10/2023 15:16</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>12.93</v>
+        <v>3.62</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>17.61</v>
+        <v>3.62</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>28/10/2023 15:29</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>19.15</v>
+        <v>2.44</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>32.15</v>
+        <v>2.8</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>28/10/2023 15:29</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-darmstadt/p2wxKRPA/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
         </is>
       </c>
     </row>
@@ -7473,46 +7473,46 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.93</v>
+        <v>1.07</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.69</v>
+        <v>1.06</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:28</t>
+          <t>28/10/2023 15:16</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.9</v>
+        <v>12.93</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.44</v>
+        <v>17.61</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,15 +7520,15 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.55</v>
+        <v>19.15</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>4.7</v>
+        <v>32.15</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-heidenheim/j7lIacvd/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-darmstadt/p2wxKRPA/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,38 +7573,38 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:27</t>
+          <t>28/10/2023 15:28</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4.11</v>
+        <v>3.9</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -7612,15 +7612,15 @@
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.38</v>
+        <v>3.55</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.84</v>
+        <v>4.7</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-hoffenheim/EuzDLv1F/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-heidenheim/j7lIacvd/</t>
         </is>
       </c>
     </row>
@@ -8918,6 +8918,466 @@
       <c r="V92" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-wolfsburg/Ao2KBOll/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45241.64583333334</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>4</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:21</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:21</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:21</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>19</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-heidenheim/2PphIQBK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45241.64583333334</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:21</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:21</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:21</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-mainz/StmJWPQD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45241.64583333334</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-hoffenheim/0zeX8MY6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45241.64583333334</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-dortmund/vRgy8tlD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45241.77083333334</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>FC Koln</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:25</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-1-fc-koln/IB5S92J0/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,62 +665,62 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.44</v>
+        <v>2.59</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>01/07/2023 10:29</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.2</v>
+        <v>2.48</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>19/08/2023 15:08</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>01/07/2023 10:31</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>19/08/2023 15:29</t>
         </is>
       </c>
-      <c r="N3" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>01/07/2023 10:29</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>19/08/2023 15:22</t>
-        </is>
-      </c>
       <c r="R3" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>01/07/2023 10:29</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.32</v>
+        <v>2.98</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-freiburg/EqEcelnH/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-rb-leipzig/QNLpbj2b/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:29</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.48</v>
+        <v>2.2</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>19/08/2023 15:08</t>
+          <t>19/08/2023 15:29</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.38</v>
+        <v>3.48</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:29</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.63</v>
+        <v>3.74</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
+          <t>19/08/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>01/07/2023 10:29</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>19/08/2023 15:29</t>
         </is>
       </c>
-      <c r="R6" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>01/07/2023 10:31</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>19/08/2023 15:29</t>
-        </is>
-      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-rb-leipzig/QNLpbj2b/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-freiburg/EqEcelnH/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>1.71</v>
+        <v>3.33</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:55</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.77</v>
+        <v>3.15</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>26/08/2023 14:50</t>
+          <t>26/08/2023 15:28</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.99</v>
+        <v>3.58</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:55</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.1</v>
+        <v>3.83</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>26/08/2023 14:50</t>
+          <t>26/08/2023 15:28</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.99</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:55</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>4.67</v>
+        <v>2.26</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>26/08/2023 15:03</t>
+          <t>26/08/2023 15:29</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-werder-bremen/nBD9N6V9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-hoffenheim/MXsgFrwj/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>1.71</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>07/08/2023 12:56</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4.17</v>
+        <v>1.77</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>26/08/2023 15:29</t>
+          <t>26/08/2023 14:50</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.42</v>
+        <v>3.99</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>07/08/2023 12:56</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.42</v>
+        <v>4.1</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 14:50</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.15</v>
+        <v>4.99</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>07/08/2023 12:56</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.04</v>
+        <v>4.67</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:03</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-union-berlin/zyncE2hd/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-werder-bremen/nBD9N6V9/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>4.97</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:56</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5.62</v>
+        <v>4.17</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:27</t>
+          <t>26/08/2023 15:29</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4.68</v>
+        <v>3.42</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:56</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.72</v>
+        <v>3.42</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:29</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.61</v>
+        <v>2.15</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:56</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.57</v>
+        <v>2.04</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:26</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-dortmund/v9hlGONq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-union-berlin/zyncE2hd/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.33</v>
+        <v>4.97</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>07/08/2023 12:55</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.15</v>
+        <v>5.62</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:28</t>
+          <t>26/08/2023 15:27</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.58</v>
+        <v>4.68</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>07/08/2023 12:55</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.83</v>
+        <v>4.72</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:28</t>
+          <t>26/08/2023 15:29</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.1</v>
+        <v>1.61</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>07/08/2023 12:55</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.26</v>
+        <v>1.57</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:29</t>
+          <t>26/08/2023 15:26</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-hoffenheim/MXsgFrwj/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-dortmund/v9hlGONq/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3.02</v>
+        <v>1.82</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.73</v>
+        <v>2.35</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.61</v>
+        <v>3.92</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.51</v>
+        <v>3.64</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.23</v>
+        <v>3.94</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.7</v>
+        <v>3.11</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:23</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-mainz/0vVKTshq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.92</v>
+        <v>2.56</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.25</v>
+        <v>2.58</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:07</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.74</v>
+        <v>3.59</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.68</v>
+        <v>3.97</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:28</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.7</v>
+        <v>2.74</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.26</v>
+        <v>2.62</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:12</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-wolfsburg/fchhYNqS/</t>
         </is>
       </c>
     </row>
@@ -2505,30 +2505,30 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.4</v>
+        <v>3.02</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.22</v>
+        <v>2.73</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,15 +2536,15 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4.92</v>
+        <v>3.61</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>7.25</v>
+        <v>3.51</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2552,24 +2552,24 @@
         </is>
       </c>
       <c r="R23" t="n">
-        <v>6.76</v>
+        <v>2.23</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:23</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-darmstadt/8tjtyQa9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-mainz/0vVKTshq/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.56</v>
+        <v>1.92</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.58</v>
+        <v>2.25</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:07</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.59</v>
+        <v>3.74</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.97</v>
+        <v>3.68</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:28</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.74</v>
+        <v>3.7</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.62</v>
+        <v>3.26</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:12</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-wolfsburg/fchhYNqS/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,63 +2697,63 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.35</v>
+        <v>1.22</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.92</v>
+        <v>4.92</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.64</v>
+        <v>7.25</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.94</v>
+        <v>6.76</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.11</v>
+        <v>13</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-darmstadt/8tjtyQa9/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>4.05</v>
+        <v>2.6</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>4.91</v>
+        <v>2.56</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4.16</v>
+        <v>3.57</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.55</v>
+        <v>3.52</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:05</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>1.83</v>
+        <v>2.81</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>1.66</v>
+        <v>2.88</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>7</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Hoffenheim</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>2</v>
-      </c>
       <c r="J40" t="n">
-        <v>1.85</v>
+        <v>1.07</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.13</v>
+        <v>1.12</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.93</v>
+        <v>20.79</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.72</v>
+        <v>10.5</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:20</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.38</v>
+        <v>29.26</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.51</v>
+        <v>21</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:26</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.6</v>
+        <v>4.05</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.56</v>
+        <v>4.91</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.57</v>
+        <v>4.16</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.52</v>
+        <v>4.55</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.81</v>
+        <v>1.83</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.88</v>
+        <v>1.66</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.07</v>
+        <v>1.47</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.12</v>
+        <v>1.74</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:20</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>20.79</v>
+        <v>5.02</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>10.5</v>
+        <v>4.42</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>29.26</v>
+        <v>5.4</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>21</v>
+        <v>4.48</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.47</v>
+        <v>1.85</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,48 +4368,48 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.74</v>
+        <v>2.13</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
+          <t>23/09/2023 15:05</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
           <t>23/09/2023 15:20</t>
         </is>
       </c>
-      <c r="N43" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="O43" t="inlineStr">
+      <c r="R43" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="S43" t="inlineStr">
         <is>
           <t>05/09/2023 12:01</t>
         </is>
       </c>
-      <c r="P43" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:28</t>
-        </is>
-      </c>
-      <c r="R43" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>05/09/2023 12:01</t>
-        </is>
-      </c>
       <c r="T43" t="n">
-        <v>4.48</v>
+        <v>3.51</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:26</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Bayer Leverkusen</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>3</v>
-      </c>
       <c r="J48" t="n">
-        <v>3.49</v>
+        <v>2.04</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>5.25</v>
+        <v>2.21</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.67</v>
+        <v>3.76</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.52</v>
+        <v>3.5</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:22</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.1</v>
+        <v>3.59</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.63</v>
+        <v>3.52</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayer-leverkusen/p4vt2g4P/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>2.04</v>
+        <v>3.49</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.21</v>
+        <v>5.25</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:25</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.76</v>
+        <v>3.67</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.5</v>
+        <v>4.52</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:22</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.59</v>
+        <v>2.1</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.52</v>
+        <v>1.63</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayer-leverkusen/p4vt2g4P/</t>
         </is>
       </c>
     </row>
@@ -5633,46 +5633,46 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.8</v>
+        <v>1.31</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.85</v>
+        <v>1.26</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:01</t>
+          <t>07/10/2023 15:20</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.89</v>
+        <v>5.99</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.75</v>
+        <v>6.66</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.06</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.66</v>
+        <v>11.62</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:28</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>07/10/2023 15:25</t>
+          <t>07/10/2023 15:01</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.52</v>
+        <v>3.89</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.17</v>
+        <v>3.75</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>07/10/2023 15:27</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>6.35</v>
+        <v>4.06</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.97</v>
+        <v>4.66</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>07/10/2023 15:29</t>
+          <t>07/10/2023 15:28</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>23/09/2023 19:02</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.26</v>
+        <v>1.71</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>07/10/2023 15:20</t>
+          <t>07/10/2023 15:25</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>5.99</v>
+        <v>4.52</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>23/09/2023 19:02</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>6.66</v>
+        <v>4.17</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
+          <t>07/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
           <t>07/10/2023 15:29</t>
         </is>
       </c>
-      <c r="R59" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>23/09/2023 21:02</t>
-        </is>
-      </c>
-      <c r="T59" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>2.3</v>
+        <v>2.83</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.61</v>
+        <v>4.47</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:00</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.46</v>
+        <v>3.69</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.37</v>
+        <v>4.11</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>21/10/2023 15:28</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.34</v>
+        <v>2.52</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.92</v>
+        <v>1.79</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:00</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-vfb-stuttgart/plb35SAH/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayer-leverkusen/xdGA36uU/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>2.39</v>
+        <v>2.3</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,48 +6576,48 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.06</v>
+        <v>2.61</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
+          <t>21/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
           <t>21/10/2023 15:28</t>
         </is>
       </c>
-      <c r="N67" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="O67" t="inlineStr">
+      <c r="R67" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S67" t="inlineStr">
         <is>
           <t>01/10/2023 23:01</t>
         </is>
       </c>
-      <c r="P67" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:26</t>
-        </is>
-      </c>
-      <c r="R67" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>01/10/2023 23:01</t>
-        </is>
-      </c>
       <c r="T67" t="n">
-        <v>3.79</v>
+        <v>2.92</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>21/10/2023 15:28</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-eintracht-frankfurt/fDpPMTuh/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-vfb-stuttgart/plb35SAH/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>1</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Bayer Leverkusen</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
       <c r="J69" t="n">
-        <v>2.83</v>
+        <v>1.56</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>4.47</v>
+        <v>1.81</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:00</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.69</v>
+        <v>4.28</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.11</v>
+        <v>3.91</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.52</v>
+        <v>5.28</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1.79</v>
+        <v>4.61</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:00</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayer-leverkusen/xdGA36uU/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>1.56</v>
+        <v>2.39</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>4.28</v>
+        <v>3.56</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.91</v>
+        <v>3.65</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>5.28</v>
+        <v>2.98</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.61</v>
+        <v>3.79</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-eintracht-frankfurt/fDpPMTuh/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,38 +7297,38 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>28/10/2023 15:27</t>
+          <t>28/10/2023 15:28</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>4.11</v>
+        <v>3.9</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -7336,15 +7336,15 @@
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.38</v>
+        <v>3.55</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.84</v>
+        <v>4.7</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-hoffenheim/EuzDLv1F/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-heidenheim/j7lIacvd/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.72</v>
+        <v>1.07</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.54</v>
+        <v>1.06</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:16</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.62</v>
+        <v>12.93</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.62</v>
+        <v>17.61</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:29</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.44</v>
+        <v>19.15</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.8</v>
+        <v>32.15</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:29</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-darmstadt/p2wxKRPA/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.07</v>
+        <v>2.73</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.06</v>
+        <v>2.86</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:16</t>
+          <t>28/10/2023 15:01</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>12.93</v>
+        <v>3.33</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>17.61</v>
+        <v>3.53</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:29</t>
+          <t>28/10/2023 14:50</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>19.15</v>
+        <v>2.73</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>32.15</v>
+        <v>2.53</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:29</t>
+          <t>28/10/2023 15:01</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-darmstadt/p2wxKRPA/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-union-berlin/4AhMbHg2/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,38 +7573,38 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78" t="n">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:28</t>
+          <t>28/10/2023 15:27</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.9</v>
+        <v>4.11</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -7612,15 +7612,15 @@
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.55</v>
+        <v>4.38</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.7</v>
+        <v>4.84</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-heidenheim/j7lIacvd/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-hoffenheim/EuzDLv1F/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>2</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Union Berlin</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
       <c r="J79" t="n">
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.86</v>
+        <v>2.54</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:01</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.33</v>
+        <v>3.62</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.53</v>
+        <v>3.62</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/10/2023 14:50</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.73</v>
+        <v>2.44</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.53</v>
+        <v>2.8</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:01</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-union-berlin/4AhMbHg2/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>1.06</v>
+        <v>2.56</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.11</v>
+        <v>2.43</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>11/11/2023 14:58</t>
+          <t>11/11/2023 15:29</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>17.32</v>
+        <v>3.53</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>12</v>
+        <v>3.86</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>11/11/2023 14:58</t>
+          <t>11/11/2023 15:29</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>29.94</v>
+        <v>2.74</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>11/11/2023 14:58</t>
+          <t>11/11/2023 15:29</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-heidenheim/2PphIQBK/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-hoffenheim/0zeX8MY6/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>2.95</v>
+        <v>1.06</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>3.28</v>
+        <v>1.11</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>11/11/2023 15:29</t>
+          <t>11/11/2023 14:58</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.4</v>
+        <v>17.32</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.48</v>
+        <v>12</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>11/11/2023 15:29</t>
+          <t>11/11/2023 14:58</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.46</v>
+        <v>29.94</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.3</v>
+        <v>19</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>11/11/2023 15:29</t>
+          <t>11/11/2023 14:58</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-mainz/StmJWPQD/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-heidenheim/2PphIQBK/</t>
         </is>
       </c>
     </row>
@@ -9129,30 +9129,30 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.56</v>
+        <v>2.95</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.43</v>
+        <v>3.28</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -9160,15 +9160,15 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.53</v>
+        <v>3.4</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.86</v>
+        <v>3.48</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -9176,15 +9176,15 @@
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-hoffenheim/0zeX8MY6/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-mainz/StmJWPQD/</t>
         </is>
       </c>
     </row>
@@ -9378,6 +9378,282 @@
       <c r="V97" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-1-fc-koln/IB5S92J0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45242.64583333334</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>4</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:27</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-union-berlin/Wf3GC4Zs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45242.72916666666</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:29</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:10</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-eintracht-frankfurt/481OAr4f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45242.8125</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>3</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:47</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:29</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:29</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-freiburg/tGqdHpRQ/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>2.49</v>
+        <v>2.17</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.86</v>
+        <v>2.27</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.59</v>
+        <v>3.91</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.58</v>
+        <v>3.77</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.92</v>
+        <v>3.27</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.55</v>
+        <v>3.15</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:26</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>2.17</v>
+        <v>2.49</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.27</v>
+        <v>2.86</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.91</v>
+        <v>3.59</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.77</v>
+        <v>3.58</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.27</v>
+        <v>2.92</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.15</v>
+        <v>2.55</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:26</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
         </is>
       </c>
     </row>
@@ -5633,46 +5633,46 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.31</v>
+        <v>1.8</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.26</v>
+        <v>1.85</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:20</t>
+          <t>07/10/2023 15:01</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>5.99</v>
+        <v>3.89</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>6.66</v>
+        <v>3.75</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>9.130000000000001</v>
+        <v>4.06</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>11.62</v>
+        <v>4.66</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:29</t>
+          <t>07/10/2023 15:28</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 19:02</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>07/10/2023 15:01</t>
+          <t>07/10/2023 15:25</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.89</v>
+        <v>4.52</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 19:02</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.75</v>
+        <v>4.17</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
+          <t>07/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
           <t>07/10/2023 15:29</t>
         </is>
       </c>
-      <c r="R58" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>28/09/2023 14:20</t>
-        </is>
-      </c>
-      <c r="T58" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:28</t>
-        </is>
-      </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
         </is>
       </c>
     </row>
@@ -5817,62 +5817,62 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.52</v>
+        <v>1.31</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.71</v>
+        <v>1.26</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>07/10/2023 15:25</t>
+          <t>07/10/2023 15:20</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4.52</v>
+        <v>5.99</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.17</v>
+        <v>6.66</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>07/10/2023 15:27</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>6.35</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.97</v>
+        <v>11.62</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Bayer Leverkusen</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>2</v>
-      </c>
       <c r="J66" t="n">
-        <v>2.83</v>
+        <v>1.56</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4.47</v>
+        <v>1.81</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>21/10/2023 15:00</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.69</v>
+        <v>4.28</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.11</v>
+        <v>3.91</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.52</v>
+        <v>5.28</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>1.79</v>
+        <v>4.61</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>21/10/2023 15:00</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayer-leverkusen/xdGA36uU/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>2.3</v>
+        <v>2.39</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.61</v>
+        <v>2.06</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.46</v>
+        <v>3.56</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,32 +6592,32 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.37</v>
+        <v>3.65</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
+          <t>21/10/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
           <t>21/10/2023 15:28</t>
         </is>
       </c>
-      <c r="R67" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>01/10/2023 23:01</t>
-        </is>
-      </c>
-      <c r="T67" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:29</t>
-        </is>
-      </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-vfb-stuttgart/plb35SAH/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-eintracht-frankfurt/fDpPMTuh/</t>
         </is>
       </c>
     </row>
@@ -6645,30 +6645,30 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6.59</v>
+        <v>2.61</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>5.15</v>
+        <v>3.46</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>5.1</v>
+        <v>3.37</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
+          <t>21/10/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
           <t>21/10/2023 15:29</t>
         </is>
       </c>
-      <c r="R68" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>02/10/2023 08:32</t>
-        </is>
-      </c>
-      <c r="T68" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:28</t>
-        </is>
-      </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-vfb-stuttgart/plb35SAH/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>2</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Bochum</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
       <c r="J69" t="n">
-        <v>1.56</v>
+        <v>2.83</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.81</v>
+        <v>4.47</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:00</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.28</v>
+        <v>3.69</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.91</v>
+        <v>4.11</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>5.28</v>
+        <v>2.52</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.61</v>
+        <v>1.79</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:00</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayer-leverkusen/xdGA36uU/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,63 +6837,63 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>2.39</v>
+        <v>6.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.06</v>
+        <v>6.59</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
+          <t>21/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>02/10/2023 08:32</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>02/10/2023 08:32</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
           <t>21/10/2023 15:28</t>
         </is>
       </c>
-      <c r="N70" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>01/10/2023 23:01</t>
-        </is>
-      </c>
-      <c r="P70" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:26</t>
-        </is>
-      </c>
-      <c r="R70" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>01/10/2023 23:01</t>
-        </is>
-      </c>
-      <c r="T70" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:28</t>
-        </is>
-      </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-eintracht-frankfurt/fDpPMTuh/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>2</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Union Berlin</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
       <c r="J77" t="n">
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.86</v>
+        <v>2.54</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:01</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.33</v>
+        <v>3.62</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.53</v>
+        <v>3.62</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/10/2023 14:50</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.73</v>
+        <v>2.44</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.53</v>
+        <v>2.8</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:01</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-union-berlin/4AhMbHg2/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.72</v>
+        <v>2.73</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.54</v>
+        <v>2.86</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:01</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.62</v>
+        <v>3.33</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.62</v>
+        <v>3.53</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 14:50</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.44</v>
+        <v>2.73</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.8</v>
+        <v>2.53</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:01</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-union-berlin/4AhMbHg2/</t>
         </is>
       </c>
     </row>
@@ -9654,6 +9654,98 @@
       <c r="V100" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-freiburg/tGqdHpRQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45254.85416666666</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>FC Koln</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>24/11/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>24/11/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:30</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-bayern-munich/EwL6NLm0/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.82</v>
+        <v>3.02</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.35</v>
+        <v>2.73</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.92</v>
+        <v>3.61</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.64</v>
+        <v>3.51</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.94</v>
+        <v>2.23</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.11</v>
+        <v>2.7</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:23</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-mainz/0vVKTshq/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.02</v>
+        <v>1.82</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.73</v>
+        <v>2.35</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.61</v>
+        <v>3.92</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.51</v>
+        <v>3.64</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.23</v>
+        <v>3.94</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.7</v>
+        <v>3.11</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:23</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-mainz/0vVKTshq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Hoffenheim</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>3</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:17</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.86</v>
+        <v>3.35</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.68</v>
+        <v>3.33</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.19</v>
+        <v>3.63</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:20</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-union-berlin/fcENm3qF/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.62</v>
+        <v>1.2</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.97</v>
+        <v>1.27</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.92</v>
+        <v>7.5</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.82</v>
+        <v>6.75</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:19</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.9</v>
+        <v>13.58</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.36</v>
+        <v>10.25</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:28</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-augsburg/l0BFkPE2/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>1.2</v>
+        <v>3.62</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.27</v>
+        <v>2.97</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>7.5</v>
+        <v>3.92</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>6.75</v>
+        <v>3.82</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:19</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>13.58</v>
+        <v>1.9</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>10.25</v>
+        <v>2.36</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:28</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-augsburg/l0BFkPE2/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,48 +3540,48 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>16/09/2023 15:17</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>28/08/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
           <t>16/09/2023 15:27</t>
         </is>
       </c>
-      <c r="N34" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O34" t="inlineStr">
+      <c r="R34" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S34" t="inlineStr">
         <is>
           <t>28/08/2023 16:01</t>
         </is>
       </c>
-      <c r="P34" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:27</t>
-        </is>
-      </c>
-      <c r="R34" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>28/08/2023 16:01</t>
-        </is>
-      </c>
       <c r="T34" t="n">
-        <v>3.63</v>
+        <v>3.19</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:20</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-union-berlin/fcENm3qF/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.6</v>
+        <v>1.47</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.56</v>
+        <v>1.74</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:20</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.57</v>
+        <v>5.02</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.52</v>
+        <v>4.42</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.81</v>
+        <v>5.4</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.88</v>
+        <v>4.48</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.07</v>
+        <v>4.05</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.12</v>
+        <v>4.91</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>20.79</v>
+        <v>4.16</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>10.5</v>
+        <v>4.55</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>29.26</v>
+        <v>1.83</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>21</v>
+        <v>1.66</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>7</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>RB Leipzig</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
       <c r="J41" t="n">
-        <v>4.05</v>
+        <v>1.07</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4.91</v>
+        <v>1.12</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.16</v>
+        <v>20.79</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.55</v>
+        <v>10.5</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>1.83</v>
+        <v>29.26</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.66</v>
+        <v>21</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.47</v>
+        <v>1.85</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,48 +4276,48 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.74</v>
+        <v>2.13</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>23/09/2023 15:05</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
           <t>23/09/2023 15:20</t>
         </is>
       </c>
-      <c r="N42" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="O42" t="inlineStr">
+      <c r="R42" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="S42" t="inlineStr">
         <is>
           <t>05/09/2023 12:01</t>
         </is>
       </c>
-      <c r="P42" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:28</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>05/09/2023 12:01</t>
-        </is>
-      </c>
       <c r="T42" t="n">
-        <v>4.48</v>
+        <v>3.51</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:26</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,48 +4368,48 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.13</v>
+        <v>2.56</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
+          <t>23/09/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
           <t>23/09/2023 15:05</t>
         </is>
       </c>
-      <c r="N43" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="O43" t="inlineStr">
+      <c r="R43" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S43" t="inlineStr">
         <is>
           <t>05/09/2023 12:01</t>
         </is>
       </c>
-      <c r="P43" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:20</t>
-        </is>
-      </c>
-      <c r="R43" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>05/09/2023 12:01</t>
-        </is>
-      </c>
       <c r="T43" t="n">
-        <v>3.51</v>
+        <v>2.88</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:26</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>2</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Eintracht Frankfurt</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
       <c r="J48" t="n">
-        <v>2.04</v>
+        <v>2.49</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.21</v>
+        <v>2.86</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.76</v>
+        <v>3.59</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.5</v>
+        <v>3.58</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:22</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.59</v>
+        <v>2.92</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.52</v>
+        <v>2.55</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>3.49</v>
+        <v>2.17</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>5.25</v>
+        <v>2.27</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.67</v>
+        <v>3.91</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.52</v>
+        <v>3.77</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.1</v>
+        <v>3.27</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.63</v>
+        <v>3.15</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:26</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayer-leverkusen/p4vt2g4P/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>2.17</v>
+        <v>3.49</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.27</v>
+        <v>5.25</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:25</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.91</v>
+        <v>3.67</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.77</v>
+        <v>4.52</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.27</v>
+        <v>2.1</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.15</v>
+        <v>1.63</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:26</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayer-leverkusen/p4vt2g4P/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Stuttgart</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>2</v>
-      </c>
       <c r="J52" t="n">
-        <v>2.49</v>
+        <v>2.04</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,48 +5196,48 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.86</v>
+        <v>2.21</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N52" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:01</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
         <v>3.59</v>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>17/09/2023 09:01</t>
         </is>
       </c>
-      <c r="P52" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:20</t>
-        </is>
-      </c>
-      <c r="R52" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:01</t>
-        </is>
-      </c>
       <c r="T52" t="n">
-        <v>2.55</v>
+        <v>3.52</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,63 +7297,63 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.93</v>
+        <v>2.73</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.69</v>
+        <v>2.86</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>28/10/2023 15:28</t>
+          <t>28/10/2023 15:01</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.9</v>
+        <v>3.33</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4.44</v>
+        <v>3.53</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>28/10/2023 15:29</t>
+          <t>28/10/2023 14:50</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.55</v>
+        <v>2.73</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.7</v>
+        <v>2.53</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>28/10/2023 15:29</t>
+          <t>28/10/2023 15:01</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-heidenheim/j7lIacvd/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-union-berlin/4AhMbHg2/</t>
         </is>
       </c>
     </row>
@@ -7381,46 +7381,46 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>1.07</v>
+        <v>1.77</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.06</v>
+        <v>1.67</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/10/2023 15:16</t>
+          <t>28/10/2023 15:27</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>12.93</v>
+        <v>4.11</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>17.61</v>
+        <v>4.43</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,15 +7428,15 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>19.15</v>
+        <v>4.38</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>32.15</v>
+        <v>4.84</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-darmstadt/p2wxKRPA/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-hoffenheim/EuzDLv1F/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>2.72</v>
+        <v>1.93</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.54</v>
+        <v>1.69</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:28</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.62</v>
+        <v>3.9</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.62</v>
+        <v>4.44</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:29</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.44</v>
+        <v>3.55</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:29</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-heidenheim/j7lIacvd/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
         <v>2</v>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Hoffenheim</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>3</v>
-      </c>
       <c r="J78" t="n">
-        <v>1.77</v>
+        <v>2.72</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.67</v>
+        <v>2.54</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:27</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4.11</v>
+        <v>3.62</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.43</v>
+        <v>3.62</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:29</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.38</v>
+        <v>2.44</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.84</v>
+        <v>2.8</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:29</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-hoffenheim/EuzDLv1F/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.73</v>
+        <v>1.07</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.86</v>
+        <v>1.06</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:01</t>
+          <t>28/10/2023 15:16</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.33</v>
+        <v>12.93</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.53</v>
+        <v>17.61</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/10/2023 14:50</t>
+          <t>28/10/2023 15:29</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.73</v>
+        <v>19.15</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.53</v>
+        <v>32.15</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:01</t>
+          <t>28/10/2023 15:29</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-union-berlin/4AhMbHg2/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-darmstadt/p2wxKRPA/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.05</v>
+        <v>2.54</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:29</t>
+          <t>04/11/2023 15:28</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.73</v>
+        <v>3.39</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,11 +8156,11 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.89</v>
+        <v>3.26</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:29</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="R84" t="n">
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>3.52</v>
+        <v>3.06</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:29</t>
+          <t>04/11/2023 15:28</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-augsburg/CzIaCzO1/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-eintracht-frankfurt/ngYKJIVR/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.77</v>
+        <v>3.62</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.03</v>
+        <v>4.57</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:19</t>
+          <t>04/11/2023 15:28</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.99</v>
+        <v>3.78</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.85</v>
+        <v>4.04</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:19</t>
+          <t>04/11/2023 15:28</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.55</v>
+        <v>1.93</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.64</v>
+        <v>1.78</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:19</t>
+          <t>04/11/2023 15:28</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-b-monchengladbach/MoPnFxvq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-rb-leipzig/r1DeDG8e/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>3.62</v>
+        <v>1.77</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>4.57</v>
+        <v>2.03</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:28</t>
+          <t>04/11/2023 15:19</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.78</v>
+        <v>3.99</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>4.04</v>
+        <v>3.85</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:28</t>
+          <t>04/11/2023 15:19</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.93</v>
+        <v>4.55</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.78</v>
+        <v>3.64</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:28</t>
+          <t>04/11/2023 15:19</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-rb-leipzig/r1DeDG8e/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-b-monchengladbach/MoPnFxvq/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.54</v>
+        <v>2.05</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>04/11/2023 15:28</t>
+          <t>04/11/2023 15:29</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.39</v>
+        <v>3.73</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,11 +8524,11 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.26</v>
+        <v>3.89</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 15:29</t>
         </is>
       </c>
       <c r="R88" t="n">
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.06</v>
+        <v>3.52</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>04/11/2023 15:28</t>
+          <t>04/11/2023 15:29</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-eintracht-frankfurt/ngYKJIVR/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-augsburg/CzIaCzO1/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>2.56</v>
+        <v>2.71</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.43</v>
+        <v>2.49</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.53</v>
+        <v>3.67</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,32 +8984,32 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.86</v>
+        <v>3.84</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>11/11/2023 15:29</t>
+          <t>11/11/2023 15:26</t>
         </is>
       </c>
       <c r="R93" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
         <v>2.74</v>
       </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>29/10/2023 11:02</t>
-        </is>
-      </c>
-      <c r="T93" t="n">
-        <v>2.8</v>
-      </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>11/11/2023 15:29</t>
+          <t>11/11/2023 15:28</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-hoffenheim/0zeX8MY6/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-dortmund/vRgy8tlD/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.06</v>
+        <v>2.95</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.11</v>
+        <v>3.28</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>11/11/2023 14:58</t>
+          <t>11/11/2023 15:29</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>17.32</v>
+        <v>3.4</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>12</v>
+        <v>3.48</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>11/11/2023 14:58</t>
+          <t>11/11/2023 15:29</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>29.94</v>
+        <v>2.46</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>19</v>
+        <v>2.3</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>11/11/2023 14:58</t>
+          <t>11/11/2023 15:29</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-heidenheim/2PphIQBK/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-mainz/StmJWPQD/</t>
         </is>
       </c>
     </row>
@@ -9129,30 +9129,30 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>2.95</v>
+        <v>2.56</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>3.28</v>
+        <v>2.43</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -9160,15 +9160,15 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.4</v>
+        <v>3.53</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.48</v>
+        <v>3.86</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -9176,15 +9176,15 @@
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-mainz/StmJWPQD/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-hoffenheim/0zeX8MY6/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>4</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>2</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
       <c r="J96" t="n">
-        <v>2.71</v>
+        <v>1.06</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.49</v>
+        <v>1.11</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>11/11/2023 15:29</t>
+          <t>11/11/2023 14:58</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.67</v>
+        <v>17.32</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.84</v>
+        <v>12</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>11/11/2023 15:26</t>
+          <t>11/11/2023 14:58</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.51</v>
+        <v>29.94</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.74</v>
+        <v>19</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>11/11/2023 15:28</t>
+          <t>11/11/2023 14:58</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-dortmund/vRgy8tlD/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-heidenheim/2PphIQBK/</t>
         </is>
       </c>
     </row>
@@ -9746,6 +9746,742 @@
       <c r="V101" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-bayern-munich/EwL6NLm0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45255.64583333334</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>3</v>
+      </c>
+      <c r="J102" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>6</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:26</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:02</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-bayer-leverkusen/niJELaIC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45255.64583333334</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>4</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>B. Monchengladbach</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:49</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-b-monchengladbach/6XoNVqtK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45255.64583333334</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-darmstadt/OlSgQN3s/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45255.64583333334</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-augsburg/ldySU3eQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45255.64583333334</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:27</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-rb-leipzig/d2Q1O1Yg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45255.77083333334</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:04</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/eintracht-frankfurt-vfb-stuttgart/IBRcPsJm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45256.64583333334</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:27</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-bochum/0fNIKJXI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45256.72916666666</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:29</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-mainz/hUJAMu36/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:V110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.59</v>
+        <v>1.63</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:29</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.48</v>
+        <v>1.66</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19/08/2023 15:08</t>
+          <t>19/08/2023 15:14</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.38</v>
+        <v>4.13</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:29</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.63</v>
+        <v>4.42</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>19/08/2023 15:29</t>
+          <t>19/08/2023 15:25</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.68</v>
+        <v>4.88</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:29</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.98</v>
+        <v>5.16</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>19/08/2023 15:29</t>
+          <t>19/08/2023 14:58</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-rb-leipzig/QNLpbj2b/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-heidenheim/KMEgdUWA/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>01/07/2023 10:29</t>
+          <t>01/07/2023 10:27</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19/08/2023 15:14</t>
+          <t>19/08/2023 15:25</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.13</v>
+        <v>4.01</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>01/07/2023 10:29</t>
+          <t>01/07/2023 10:27</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4.42</v>
+        <v>4.16</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>19/08/2023 15:25</t>
+          <t>19/08/2023 15:26</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.88</v>
+        <v>4.61</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>01/07/2023 10:29</t>
+          <t>01/07/2023 10:27</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>5.16</v>
+        <v>4.52</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>19/08/2023 14:58</t>
+          <t>19/08/2023 15:28</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-heidenheim/KMEgdUWA/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-bochum/AB76gSGT/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.68</v>
+        <v>2.44</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>01/07/2023 10:27</t>
+          <t>01/07/2023 10:29</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19/08/2023 15:25</t>
+          <t>19/08/2023 15:29</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.01</v>
+        <v>3.48</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>01/07/2023 10:27</t>
+          <t>01/07/2023 10:29</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>4.16</v>
+        <v>3.74</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>19/08/2023 15:26</t>
+          <t>19/08/2023 15:22</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.61</v>
+        <v>2.8</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>01/07/2023 10:27</t>
+          <t>01/07/2023 10:29</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>4.52</v>
+        <v>3.32</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>19/08/2023 15:28</t>
+          <t>19/08/2023 15:29</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-bochum/AB76gSGT/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-freiburg/EqEcelnH/</t>
         </is>
       </c>
     </row>
@@ -941,62 +941,62 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.44</v>
+        <v>2.59</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>01/07/2023 10:29</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.2</v>
+        <v>2.48</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>19/08/2023 15:08</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>01/07/2023 10:31</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>19/08/2023 15:29</t>
         </is>
       </c>
-      <c r="N6" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>01/07/2023 10:29</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>19/08/2023 15:22</t>
-        </is>
-      </c>
       <c r="R6" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>01/07/2023 10:29</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.32</v>
+        <v>2.98</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-freiburg/EqEcelnH/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-rb-leipzig/QNLpbj2b/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3.33</v>
+        <v>1.71</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>07/08/2023 12:55</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3.15</v>
+        <v>1.77</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>26/08/2023 15:28</t>
+          <t>26/08/2023 14:50</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.58</v>
+        <v>3.99</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>07/08/2023 12:55</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.83</v>
+        <v>4.1</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>26/08/2023 15:28</t>
+          <t>26/08/2023 14:50</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.1</v>
+        <v>4.99</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>07/08/2023 12:55</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.26</v>
+        <v>4.67</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>26/08/2023 15:29</t>
+          <t>26/08/2023 15:03</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-hoffenheim/MXsgFrwj/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-werder-bremen/nBD9N6V9/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.71</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:56</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.77</v>
+        <v>4.17</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>26/08/2023 14:50</t>
+          <t>26/08/2023 15:29</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.99</v>
+        <v>3.42</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:56</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.1</v>
+        <v>3.42</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>26/08/2023 14:50</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.99</v>
+        <v>2.15</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:56</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>4.67</v>
+        <v>2.04</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>26/08/2023 15:03</t>
+          <t>26/08/2023 15:23</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-werder-bremen/nBD9N6V9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-union-berlin/zyncE2hd/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>4.97</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>07/08/2023 12:56</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4.17</v>
+        <v>5.62</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
+          <t>26/08/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>04/08/2023 16:02</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
           <t>26/08/2023 15:29</t>
         </is>
       </c>
-      <c r="N15" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>07/08/2023 12:56</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>26/08/2023 15:23</t>
-        </is>
-      </c>
       <c r="R15" t="n">
-        <v>2.15</v>
+        <v>1.61</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>07/08/2023 12:56</t>
+          <t>04/08/2023 16:02</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.04</v>
+        <v>1.57</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:23</t>
+          <t>26/08/2023 15:26</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-union-berlin/zyncE2hd/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-dortmund/v9hlGONq/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>4.97</v>
+        <v>3.33</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:55</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5.62</v>
+        <v>3.15</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>26/08/2023 15:27</t>
+          <t>26/08/2023 15:28</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>4.68</v>
+        <v>3.58</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>04/08/2023 16:02</t>
+          <t>07/08/2023 12:55</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4.72</v>
+        <v>3.83</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
+          <t>26/08/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>07/08/2023 12:55</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
           <t>26/08/2023 15:29</t>
         </is>
       </c>
-      <c r="R16" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>04/08/2023 16:02</t>
-        </is>
-      </c>
-      <c r="T16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>26/08/2023 15:26</t>
-        </is>
-      </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-dortmund/v9hlGONq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-hoffenheim/MXsgFrwj/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3.02</v>
+        <v>1.82</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.73</v>
+        <v>2.35</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.61</v>
+        <v>3.92</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.51</v>
+        <v>3.64</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.23</v>
+        <v>3.94</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.7</v>
+        <v>3.11</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:23</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-mainz/0vVKTshq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.56</v>
+        <v>1.92</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.58</v>
+        <v>2.25</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:07</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.59</v>
+        <v>3.74</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.97</v>
+        <v>3.68</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:28</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.74</v>
+        <v>3.7</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.62</v>
+        <v>3.26</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:12</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-wolfsburg/fchhYNqS/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,63 +2513,63 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.35</v>
+        <v>1.22</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.92</v>
+        <v>4.92</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.64</v>
+        <v>7.25</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.94</v>
+        <v>6.76</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.11</v>
+        <v>13</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-darmstadt/8tjtyQa9/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.92</v>
+        <v>2.56</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.25</v>
+        <v>2.58</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:07</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.74</v>
+        <v>3.59</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.68</v>
+        <v>3.97</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:28</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.7</v>
+        <v>2.74</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.26</v>
+        <v>2.62</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:12</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-wolfsburg/fchhYNqS/</t>
         </is>
       </c>
     </row>
@@ -2689,30 +2689,30 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.4</v>
+        <v>3.02</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.22</v>
+        <v>2.73</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2720,15 +2720,15 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>4.92</v>
+        <v>3.61</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>7.25</v>
+        <v>3.51</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2736,24 +2736,24 @@
         </is>
       </c>
       <c r="R25" t="n">
-        <v>6.76</v>
+        <v>2.23</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:23</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-darmstadt/8tjtyQa9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-mainz/0vVKTshq/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,48 +3172,48 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>16/09/2023 15:17</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>28/08/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
           <t>16/09/2023 15:27</t>
         </is>
       </c>
-      <c r="N30" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O30" t="inlineStr">
+      <c r="R30" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S30" t="inlineStr">
         <is>
           <t>28/08/2023 16:01</t>
         </is>
       </c>
-      <c r="P30" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:27</t>
-        </is>
-      </c>
-      <c r="R30" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>28/08/2023 16:01</t>
-        </is>
-      </c>
       <c r="T30" t="n">
-        <v>3.63</v>
+        <v>3.19</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:20</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-union-berlin/fcENm3qF/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>1.2</v>
+        <v>3.62</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.27</v>
+        <v>2.97</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>7.5</v>
+        <v>3.92</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>6.75</v>
+        <v>3.82</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:19</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>13.58</v>
+        <v>1.9</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>10.25</v>
+        <v>2.36</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:28</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-augsburg/l0BFkPE2/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3.62</v>
+        <v>1.2</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.97</v>
+        <v>1.27</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.92</v>
+        <v>7.5</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.82</v>
+        <v>6.75</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:19</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>1.9</v>
+        <v>13.58</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.36</v>
+        <v>10.25</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:28</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-augsburg/l0BFkPE2/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Hoffenheim</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
       <c r="J34" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>16/09/2023 15:17</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.86</v>
+        <v>3.35</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.68</v>
+        <v>3.33</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.19</v>
+        <v>3.63</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>16/09/2023 15:20</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-union-berlin/fcENm3qF/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>1.47</v>
+        <v>1.85</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,48 +4000,48 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.74</v>
+        <v>2.13</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
+          <t>23/09/2023 15:05</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
           <t>23/09/2023 15:20</t>
         </is>
       </c>
-      <c r="N39" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="O39" t="inlineStr">
+      <c r="R39" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="S39" t="inlineStr">
         <is>
           <t>05/09/2023 12:01</t>
         </is>
       </c>
-      <c r="P39" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:28</t>
-        </is>
-      </c>
-      <c r="R39" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>05/09/2023 12:01</t>
-        </is>
-      </c>
       <c r="T39" t="n">
-        <v>4.48</v>
+        <v>3.51</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:26</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>RB Leipzig</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
       <c r="J40" t="n">
-        <v>4.05</v>
+        <v>1.47</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,48 +4092,48 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4.91</v>
+        <v>1.74</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
+          <t>23/09/2023 15:20</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
           <t>23/09/2023 15:28</t>
         </is>
       </c>
-      <c r="N40" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="O40" t="inlineStr">
+      <c r="R40" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="S40" t="inlineStr">
         <is>
           <t>05/09/2023 12:01</t>
         </is>
       </c>
-      <c r="P40" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="Q40" t="inlineStr">
+      <c r="T40" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="U40" t="inlineStr">
         <is>
           <t>23/09/2023 15:28</t>
         </is>
       </c>
-      <c r="R40" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>05/09/2023 12:01</t>
-        </is>
-      </c>
-      <c r="T40" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:28</t>
-        </is>
-      </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.07</v>
+        <v>4.05</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.12</v>
+        <v>4.91</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>20.79</v>
+        <v>4.16</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>10.5</v>
+        <v>4.55</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>29.26</v>
+        <v>1.83</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>21</v>
+        <v>1.66</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,48 +4276,48 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.13</v>
+        <v>2.56</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>23/09/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
           <t>23/09/2023 15:05</t>
         </is>
       </c>
-      <c r="N42" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="O42" t="inlineStr">
+      <c r="R42" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S42" t="inlineStr">
         <is>
           <t>05/09/2023 12:01</t>
         </is>
       </c>
-      <c r="P42" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:20</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>05/09/2023 12:01</t>
-        </is>
-      </c>
       <c r="T42" t="n">
-        <v>3.51</v>
+        <v>2.88</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:26</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.6</v>
+        <v>1.07</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.56</v>
+        <v>1.12</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.57</v>
+        <v>20.79</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.52</v>
+        <v>10.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.81</v>
+        <v>29.26</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.88</v>
+        <v>21</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Stuttgart</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
       <c r="J48" t="n">
-        <v>2.49</v>
+        <v>2.04</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,48 +4828,48 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.86</v>
+        <v>2.21</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N48" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:01</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
         <v>3.59</v>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>17/09/2023 09:01</t>
         </is>
       </c>
-      <c r="P48" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:20</t>
-        </is>
-      </c>
-      <c r="R48" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:01</t>
-        </is>
-      </c>
       <c r="T48" t="n">
-        <v>2.55</v>
+        <v>3.52</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>2.17</v>
+        <v>2.49</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.27</v>
+        <v>2.86</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.91</v>
+        <v>3.59</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.77</v>
+        <v>3.58</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.27</v>
+        <v>2.92</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.15</v>
+        <v>2.55</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:26</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>3.34</v>
+        <v>2.17</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.18</v>
+        <v>2.27</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.52</v>
+        <v>3.91</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.53</v>
+        <v>3.77</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.12</v>
+        <v>3.27</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.33</v>
+        <v>3.15</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:15</t>
+          <t>30/09/2023 15:26</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-union-berlin/x2JKfBda/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
         </is>
       </c>
     </row>
@@ -5081,30 +5081,30 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Bayer Leverkusen</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>3</v>
-      </c>
       <c r="J51" t="n">
-        <v>3.49</v>
+        <v>3.34</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>5.25</v>
+        <v>3.18</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5112,15 +5112,15 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.67</v>
+        <v>3.52</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>4.52</v>
+        <v>3.53</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5128,24 +5128,24 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.63</v>
+        <v>2.33</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:15</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayer-leverkusen/p4vt2g4P/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-union-berlin/x2JKfBda/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>2.04</v>
+        <v>3.49</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.21</v>
+        <v>5.25</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:25</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.76</v>
+        <v>3.67</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.5</v>
+        <v>4.52</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:22</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.59</v>
+        <v>2.1</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.52</v>
+        <v>1.63</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayer-leverkusen/p4vt2g4P/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>2</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Bochum</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
       <c r="J66" t="n">
-        <v>1.56</v>
+        <v>2.83</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.81</v>
+        <v>4.47</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:00</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>4.28</v>
+        <v>3.69</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.91</v>
+        <v>4.11</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>5.28</v>
+        <v>2.52</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.61</v>
+        <v>1.79</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:00</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayer-leverkusen/xdGA36uU/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,63 +6745,63 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>2.83</v>
+        <v>6.5</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>4.47</v>
+        <v>6.59</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:00</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.69</v>
+        <v>5.15</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.11</v>
+        <v>5.1</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.52</v>
+        <v>1.4</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1.79</v>
+        <v>1.47</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:00</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayer-leverkusen/xdGA36uU/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
         <v>1</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>RB Leipzig</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
       <c r="J70" t="n">
-        <v>6.5</v>
+        <v>1.56</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>6.59</v>
+        <v>1.81</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>5.15</v>
+        <v>4.28</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>5.1</v>
+        <v>3.91</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>1.4</v>
+        <v>5.28</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1.47</v>
+        <v>4.61</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:28</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>2</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Hoffenheim</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>3</v>
-      </c>
       <c r="J76" t="n">
-        <v>1.77</v>
+        <v>2.72</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.67</v>
+        <v>2.54</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/10/2023 15:27</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>4.11</v>
+        <v>3.62</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4.43</v>
+        <v>3.62</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>28/10/2023 15:29</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.38</v>
+        <v>2.44</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>4.84</v>
+        <v>2.8</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>28/10/2023 15:29</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-hoffenheim/EuzDLv1F/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
         </is>
       </c>
     </row>
@@ -7473,46 +7473,46 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.93</v>
+        <v>1.07</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.69</v>
+        <v>1.06</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:28</t>
+          <t>28/10/2023 15:16</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.9</v>
+        <v>12.93</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.44</v>
+        <v>17.61</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,15 +7520,15 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.55</v>
+        <v>19.15</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>4.7</v>
+        <v>32.15</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-heidenheim/j7lIacvd/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-darmstadt/p2wxKRPA/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.72</v>
+        <v>1.93</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.54</v>
+        <v>1.69</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:28</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.62</v>
+        <v>3.9</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.62</v>
+        <v>4.44</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:29</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.44</v>
+        <v>3.55</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:29</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-heidenheim/j7lIacvd/</t>
         </is>
       </c>
     </row>
@@ -7657,46 +7657,46 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>1.07</v>
+        <v>1.77</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.06</v>
+        <v>1.67</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:16</t>
+          <t>28/10/2023 15:27</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>12.93</v>
+        <v>4.11</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>17.61</v>
+        <v>4.43</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -7704,15 +7704,15 @@
         </is>
       </c>
       <c r="R79" t="n">
-        <v>19.15</v>
+        <v>4.38</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>32.15</v>
+        <v>4.84</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-darmstadt/p2wxKRPA/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-hoffenheim/EuzDLv1F/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.54</v>
+        <v>2.05</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:28</t>
+          <t>04/11/2023 15:29</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.39</v>
+        <v>3.73</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,11 +8156,11 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.26</v>
+        <v>3.89</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 15:29</t>
         </is>
       </c>
       <c r="R84" t="n">
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>3.06</v>
+        <v>3.52</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:28</t>
+          <t>04/11/2023 15:29</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-eintracht-frankfurt/ngYKJIVR/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-augsburg/CzIaCzO1/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>3.62</v>
+        <v>1.77</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>4.57</v>
+        <v>2.03</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:28</t>
+          <t>04/11/2023 15:19</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.78</v>
+        <v>3.99</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.04</v>
+        <v>3.85</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:28</t>
+          <t>04/11/2023 15:19</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.93</v>
+        <v>4.55</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1.78</v>
+        <v>3.64</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:28</t>
+          <t>04/11/2023 15:19</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-rb-leipzig/r1DeDG8e/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-b-monchengladbach/MoPnFxvq/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.77</v>
+        <v>3.62</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.03</v>
+        <v>4.57</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:19</t>
+          <t>04/11/2023 15:28</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.99</v>
+        <v>3.78</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.85</v>
+        <v>4.04</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:19</t>
+          <t>04/11/2023 15:28</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.55</v>
+        <v>1.93</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.64</v>
+        <v>1.78</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:19</t>
+          <t>04/11/2023 15:28</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-b-monchengladbach/MoPnFxvq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-rb-leipzig/r1DeDG8e/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J88" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.05</v>
+        <v>2.54</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>04/11/2023 15:29</t>
+          <t>04/11/2023 15:28</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.73</v>
+        <v>3.39</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,11 +8524,11 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.89</v>
+        <v>3.26</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>04/11/2023 15:29</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="R88" t="n">
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.52</v>
+        <v>3.06</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>04/11/2023 15:29</t>
+          <t>04/11/2023 15:28</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-augsburg/CzIaCzO1/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-eintracht-frankfurt/ngYKJIVR/</t>
         </is>
       </c>
     </row>
@@ -8945,30 +8945,30 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2.71</v>
+        <v>2.95</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.49</v>
+        <v>3.28</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -8976,40 +8976,40 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.67</v>
+        <v>3.4</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.84</v>
+        <v>3.48</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>11/11/2023 15:26</t>
+          <t>11/11/2023 15:29</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.51</v>
+        <v>2.46</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.74</v>
+        <v>2.3</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>11/11/2023 15:28</t>
+          <t>11/11/2023 15:29</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-dortmund/vRgy8tlD/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-mainz/StmJWPQD/</t>
         </is>
       </c>
     </row>
@@ -9037,30 +9037,30 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.95</v>
+        <v>2.71</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>3.28</v>
+        <v>2.49</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
@@ -9068,40 +9068,40 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.4</v>
+        <v>3.67</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.48</v>
+        <v>3.84</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>11/11/2023 15:29</t>
+          <t>11/11/2023 15:26</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.46</v>
+        <v>2.51</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.3</v>
+        <v>2.74</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>11/11/2023 15:29</t>
+          <t>11/11/2023 15:28</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-mainz/StmJWPQD/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-dortmund/vRgy8tlD/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>5.02</v>
+        <v>3.09</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>6</v>
+        <v>3.74</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>25/11/2023 15:26</t>
+          <t>25/11/2023 15:27</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>4.42</v>
+        <v>3.65</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>5.11</v>
+        <v>4.01</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>25/11/2023 15:26</t>
+          <t>25/11/2023 14:57</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>1.62</v>
+        <v>2.26</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>1.47</v>
+        <v>1.95</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>25/11/2023 13:02</t>
+          <t>25/11/2023 15:27</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-bayer-leverkusen/niJELaIC/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-rb-leipzig/d2Q1O1Yg/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>3.09</v>
+        <v>5.02</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.74</v>
+        <v>6</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>25/11/2023 15:27</t>
+          <t>25/11/2023 15:26</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.65</v>
+        <v>4.42</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>4.01</v>
+        <v>5.11</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>25/11/2023 14:57</t>
+          <t>25/11/2023 15:26</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.26</v>
+        <v>1.62</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>1.95</v>
+        <v>1.47</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>25/11/2023 15:27</t>
+          <t>25/11/2023 13:02</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-rb-leipzig/d2Q1O1Yg/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-bayer-leverkusen/niJELaIC/</t>
         </is>
       </c>
     </row>
@@ -10482,6 +10482,98 @@
       <c r="V109" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-mainz/hUJAMu36/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45261.85416666666</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>FC Koln</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>01/12/2023 20:27</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>01/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>01/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-1-fc-koln/xtYdYx2I/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V110"/>
+  <dimension ref="A1:V114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.63</v>
+        <v>3.03</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.66</v>
+        <v>2.92</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19/08/2023 15:14</t>
+          <t>19/08/2023 15:19</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4.13</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>4.42</v>
+        <v>3.72</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>19/08/2023 15:25</t>
+          <t>19/08/2023 14:37</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.88</v>
+        <v>2.23</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>5.16</v>
+        <v>2.43</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>19/08/2023 14:58</t>
+          <t>19/08/2023 15:28</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-heidenheim/KMEgdUWA/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-b-monchengladbach/hzD1f81N/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.68</v>
+        <v>2.59</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>01/07/2023 10:27</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.78</v>
+        <v>2.48</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19/08/2023 15:25</t>
+          <t>19/08/2023 15:08</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.01</v>
+        <v>3.38</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>01/07/2023 10:27</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4.16</v>
+        <v>3.63</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>19/08/2023 15:26</t>
+          <t>19/08/2023 15:29</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.61</v>
+        <v>2.68</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>01/07/2023 10:27</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>4.52</v>
+        <v>2.98</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>19/08/2023 15:28</t>
+          <t>19/08/2023 15:29</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-bochum/AB76gSGT/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-rb-leipzig/QNLpbj2b/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.59</v>
+        <v>1.68</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:27</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.48</v>
+        <v>1.78</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>19/08/2023 15:08</t>
+          <t>19/08/2023 15:25</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.38</v>
+        <v>4.01</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:27</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.63</v>
+        <v>4.16</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>19/08/2023 15:29</t>
+          <t>19/08/2023 15:26</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.68</v>
+        <v>4.61</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:27</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.98</v>
+        <v>4.52</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>19/08/2023 15:29</t>
+          <t>19/08/2023 15:28</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-rb-leipzig/QNLpbj2b/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-bochum/AB76gSGT/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.03</v>
+        <v>1.63</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.92</v>
+        <v>1.66</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>19/08/2023 15:19</t>
+          <t>19/08/2023 15:14</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.6</v>
+        <v>4.13</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.72</v>
+        <v>4.42</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>19/08/2023 14:37</t>
+          <t>19/08/2023 15:25</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.23</v>
+        <v>4.88</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.43</v>
+        <v>5.16</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>19/08/2023 15:28</t>
+          <t>19/08/2023 14:58</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-b-monchengladbach/hzD1f81N/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-heidenheim/KMEgdUWA/</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1593,14 +1593,14 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.71</v>
+        <v>4.97</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.77</v>
+        <v>5.62</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>26/08/2023 14:50</t>
+          <t>26/08/2023 15:27</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.99</v>
+        <v>4.68</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.1</v>
+        <v>4.72</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>26/08/2023 14:50</t>
+          <t>26/08/2023 15:29</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.99</v>
+        <v>1.61</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>4.67</v>
+        <v>1.57</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>26/08/2023 15:03</t>
+          <t>26/08/2023 15:26</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-werder-bremen/nBD9N6V9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-dortmund/v9hlGONq/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>4.97</v>
+        <v>1.71</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5.62</v>
+        <v>1.77</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:27</t>
+          <t>26/08/2023 14:50</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4.68</v>
+        <v>3.99</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.72</v>
+        <v>4.1</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:29</t>
+          <t>26/08/2023 14:50</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.61</v>
+        <v>4.99</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.57</v>
+        <v>4.67</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:26</t>
+          <t>26/08/2023 15:03</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-dortmund/v9hlGONq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-werder-bremen/nBD9N6V9/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.92</v>
+        <v>3.74</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.64</v>
+        <v>3.68</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.94</v>
+        <v>3.7</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.11</v>
+        <v>3.26</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.92</v>
+        <v>1.4</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.25</v>
+        <v>1.22</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.74</v>
+        <v>4.92</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.68</v>
+        <v>7.25</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.7</v>
+        <v>6.76</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.26</v>
+        <v>13</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-darmstadt/8tjtyQa9/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.4</v>
+        <v>2.56</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.22</v>
+        <v>2.58</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:07</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4.92</v>
+        <v>3.59</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>7.25</v>
+        <v>3.97</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:28</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>6.76</v>
+        <v>2.74</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>13</v>
+        <v>2.62</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:12</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-darmstadt/8tjtyQa9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-wolfsburg/fchhYNqS/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.56</v>
+        <v>1.82</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.58</v>
+        <v>2.35</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:07</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.59</v>
+        <v>3.92</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.97</v>
+        <v>3.64</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:28</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.74</v>
+        <v>3.94</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.62</v>
+        <v>3.11</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:12</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-wolfsburg/fchhYNqS/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>1</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Wolfsburg</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
       <c r="J40" t="n">
-        <v>1.47</v>
+        <v>4.05</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.74</v>
+        <v>4.91</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:20</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>5.02</v>
+        <v>4.16</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.42</v>
+        <v>4.55</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>5.4</v>
+        <v>1.83</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.48</v>
+        <v>1.66</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>7</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>RB Leipzig</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
       <c r="J41" t="n">
-        <v>4.05</v>
+        <v>1.07</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4.91</v>
+        <v>1.12</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.16</v>
+        <v>20.79</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.55</v>
+        <v>10.5</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>1.83</v>
+        <v>29.26</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.66</v>
+        <v>21</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.6</v>
+        <v>1.47</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.56</v>
+        <v>1.74</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:20</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.57</v>
+        <v>5.02</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.52</v>
+        <v>4.42</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.81</v>
+        <v>5.4</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.88</v>
+        <v>4.48</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.07</v>
+        <v>2.6</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.12</v>
+        <v>2.56</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>20.79</v>
+        <v>3.57</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>10.5</v>
+        <v>3.52</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 15:05</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>29.26</v>
+        <v>2.81</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>21</v>
+        <v>2.88</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>2.04</v>
+        <v>3.49</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.21</v>
+        <v>5.25</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:25</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.76</v>
+        <v>3.67</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.5</v>
+        <v>4.52</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:22</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.59</v>
+        <v>2.1</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.52</v>
+        <v>1.63</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayer-leverkusen/p4vt2g4P/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Stuttgart</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>2</v>
-      </c>
       <c r="J49" t="n">
-        <v>2.49</v>
+        <v>2.04</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,48 +4920,48 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.86</v>
+        <v>2.21</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N49" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:01</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
         <v>3.59</v>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>17/09/2023 09:01</t>
         </is>
       </c>
-      <c r="P49" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:20</t>
-        </is>
-      </c>
-      <c r="R49" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:01</t>
-        </is>
-      </c>
       <c r="T49" t="n">
-        <v>2.55</v>
+        <v>3.52</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.17</v>
+        <v>2.49</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.27</v>
+        <v>2.86</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.91</v>
+        <v>3.59</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.77</v>
+        <v>3.58</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.27</v>
+        <v>2.92</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.15</v>
+        <v>2.55</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:26</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,63 +5089,63 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>3.34</v>
+        <v>2.17</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.18</v>
+        <v>2.27</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.52</v>
+        <v>3.91</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.53</v>
+        <v>3.77</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.12</v>
+        <v>3.27</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.33</v>
+        <v>3.15</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:15</t>
+          <t>30/09/2023 15:26</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-union-berlin/x2JKfBda/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
         </is>
       </c>
     </row>
@@ -5173,30 +5173,30 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Bayer Leverkusen</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>3</v>
-      </c>
       <c r="J52" t="n">
-        <v>3.49</v>
+        <v>3.34</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>5.25</v>
+        <v>3.18</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -5204,15 +5204,15 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.67</v>
+        <v>3.52</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.52</v>
+        <v>3.53</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -5220,24 +5220,24 @@
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>1.63</v>
+        <v>2.33</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:15</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayer-leverkusen/p4vt2g4P/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-union-berlin/x2JKfBda/</t>
         </is>
       </c>
     </row>
@@ -5633,46 +5633,46 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>1</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Darmstadt</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>2</v>
-      </c>
       <c r="J57" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:01</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.89</v>
+        <v>3.8</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.75</v>
+        <v>3.97</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.06</v>
+        <v>3.8</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.66</v>
+        <v>4.16</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:28</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
         </is>
       </c>
     </row>
@@ -5725,62 +5725,62 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.52</v>
+        <v>1.31</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.71</v>
+        <v>1.26</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>07/10/2023 15:25</t>
+          <t>07/10/2023 15:20</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.52</v>
+        <v>5.99</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.17</v>
+        <v>6.66</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>07/10/2023 15:27</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>6.35</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.97</v>
+        <v>11.62</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>23/09/2023 19:02</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.26</v>
+        <v>1.71</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>07/10/2023 15:20</t>
+          <t>07/10/2023 15:25</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>5.99</v>
+        <v>4.52</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>23/09/2023 19:02</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>6.66</v>
+        <v>4.17</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
+          <t>07/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
           <t>07/10/2023 15:29</t>
         </is>
       </c>
-      <c r="R59" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>23/09/2023 21:02</t>
-        </is>
-      </c>
-      <c r="T59" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
+          <t>07/10/2023 15:01</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>28/09/2023 14:20</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
           <t>07/10/2023 15:29</t>
         </is>
       </c>
-      <c r="N60" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>23/09/2023 21:02</t>
-        </is>
-      </c>
-      <c r="P60" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
       <c r="R60" t="n">
-        <v>3.8</v>
+        <v>4.06</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.16</v>
+        <v>4.66</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>07/10/2023 15:29</t>
+          <t>07/10/2023 15:28</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,63 +6469,63 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>2.83</v>
+        <v>6.5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4.47</v>
+        <v>6.59</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>21/10/2023 15:00</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.69</v>
+        <v>5.15</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.11</v>
+        <v>5.1</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.52</v>
+        <v>1.4</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>1.79</v>
+        <v>1.47</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>21/10/2023 15:00</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayer-leverkusen/xdGA36uU/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
         </is>
       </c>
     </row>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>1</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Eintracht Frankfurt</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>3</v>
-      </c>
       <c r="J67" t="n">
-        <v>2.39</v>
+        <v>1.56</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>21/10/2023 15:28</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.56</v>
+        <v>4.28</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.65</v>
+        <v>3.91</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
+          <t>21/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
           <t>21/10/2023 15:26</t>
         </is>
       </c>
-      <c r="R67" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>01/10/2023 23:01</t>
-        </is>
-      </c>
-      <c r="T67" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:28</t>
-        </is>
-      </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-eintracht-frankfurt/fDpPMTuh/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>2.3</v>
+        <v>2.39</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.61</v>
+        <v>2.06</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.46</v>
+        <v>3.56</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,32 +6684,32 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.37</v>
+        <v>3.65</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
+          <t>21/10/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
           <t>21/10/2023 15:28</t>
         </is>
       </c>
-      <c r="R68" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>01/10/2023 23:01</t>
-        </is>
-      </c>
-      <c r="T68" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:29</t>
-        </is>
-      </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-vfb-stuttgart/plb35SAH/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-eintracht-frankfurt/fDpPMTuh/</t>
         </is>
       </c>
     </row>
@@ -6737,30 +6737,30 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>6.59</v>
+        <v>2.61</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6768,40 +6768,40 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>5.15</v>
+        <v>3.46</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>5.1</v>
+        <v>3.37</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
+          <t>21/10/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
           <t>21/10/2023 15:29</t>
         </is>
       </c>
-      <c r="R69" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>02/10/2023 08:32</t>
-        </is>
-      </c>
-      <c r="T69" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:28</t>
-        </is>
-      </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-vfb-stuttgart/plb35SAH/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
         <v>2</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Bochum</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
       <c r="J70" t="n">
-        <v>1.56</v>
+        <v>2.83</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.81</v>
+        <v>4.47</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:00</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>4.28</v>
+        <v>3.69</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.91</v>
+        <v>4.11</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>5.28</v>
+        <v>2.52</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.61</v>
+        <v>1.79</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:00</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayer-leverkusen/xdGA36uU/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>2</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Union Berlin</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
       <c r="J75" t="n">
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.86</v>
+        <v>2.54</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>28/10/2023 15:01</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.33</v>
+        <v>3.62</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.53</v>
+        <v>3.62</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>28/10/2023 14:50</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.73</v>
+        <v>2.44</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.53</v>
+        <v>2.8</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>28/10/2023 15:01</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-union-berlin/4AhMbHg2/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.72</v>
+        <v>1.07</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.54</v>
+        <v>1.06</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:16</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.62</v>
+        <v>12.93</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.62</v>
+        <v>17.61</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:29</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.44</v>
+        <v>19.15</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.8</v>
+        <v>32.15</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:29</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-darmstadt/p2wxKRPA/</t>
         </is>
       </c>
     </row>
@@ -7473,46 +7473,46 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.07</v>
+        <v>1.93</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.06</v>
+        <v>1.69</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 15:16</t>
+          <t>28/10/2023 15:28</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>12.93</v>
+        <v>3.9</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>17.61</v>
+        <v>4.44</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,15 +7520,15 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>19.15</v>
+        <v>3.55</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:28</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>32.15</v>
+        <v>4.7</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-darmstadt/p2wxKRPA/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-heidenheim/j7lIacvd/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,38 +7573,38 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78" t="n">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:28</t>
+          <t>28/10/2023 15:27</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.9</v>
+        <v>4.11</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -7612,15 +7612,15 @@
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.55</v>
+        <v>4.38</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:28</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.7</v>
+        <v>4.84</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-heidenheim/j7lIacvd/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-hoffenheim/EuzDLv1F/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.77</v>
+        <v>2.73</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.67</v>
+        <v>2.86</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:27</t>
+          <t>28/10/2023 15:01</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.11</v>
+        <v>3.33</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4.43</v>
+        <v>3.53</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:29</t>
+          <t>28/10/2023 14:50</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>4.38</v>
+        <v>2.73</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>4.84</v>
+        <v>2.53</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:29</t>
+          <t>28/10/2023 15:01</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-hoffenheim/EuzDLv1F/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-union-berlin/4AhMbHg2/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.05</v>
+        <v>2.54</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:29</t>
+          <t>04/11/2023 15:28</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.73</v>
+        <v>3.39</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,11 +8156,11 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.89</v>
+        <v>3.26</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:29</t>
+          <t>04/11/2023 15:23</t>
         </is>
       </c>
       <c r="R84" t="n">
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>3.52</v>
+        <v>3.06</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>04/11/2023 15:29</t>
+          <t>04/11/2023 15:28</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-augsburg/CzIaCzO1/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-eintracht-frankfurt/ngYKJIVR/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.77</v>
+        <v>3.62</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.03</v>
+        <v>4.57</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:19</t>
+          <t>04/11/2023 15:28</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.99</v>
+        <v>3.78</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.85</v>
+        <v>4.04</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:19</t>
+          <t>04/11/2023 15:28</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.55</v>
+        <v>1.93</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.64</v>
+        <v>1.78</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:19</t>
+          <t>04/11/2023 15:28</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-b-monchengladbach/MoPnFxvq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-rb-leipzig/r1DeDG8e/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>3.62</v>
+        <v>1.9</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>4.57</v>
+        <v>2.05</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:28</t>
+          <t>04/11/2023 15:29</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.78</v>
+        <v>3.73</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>4.04</v>
+        <v>3.89</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:28</t>
+          <t>04/11/2023 15:29</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.93</v>
+        <v>3.8</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.78</v>
+        <v>3.52</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:28</t>
+          <t>04/11/2023 15:29</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-rb-leipzig/r1DeDG8e/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-augsburg/CzIaCzO1/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>3</v>
       </c>
       <c r="J88" t="n">
-        <v>2.1</v>
+        <v>1.77</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.54</v>
+        <v>2.03</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>04/11/2023 15:28</t>
+          <t>04/11/2023 15:19</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.39</v>
+        <v>3.99</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.26</v>
+        <v>3.85</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>04/11/2023 15:23</t>
+          <t>04/11/2023 15:19</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.8</v>
+        <v>4.55</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.06</v>
+        <v>3.64</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>04/11/2023 15:28</t>
+          <t>04/11/2023 15:19</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-eintracht-frankfurt/ngYKJIVR/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-b-monchengladbach/MoPnFxvq/</t>
         </is>
       </c>
     </row>
@@ -8945,30 +8945,30 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>2.95</v>
+        <v>2.56</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.28</v>
+        <v>2.43</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -8976,15 +8976,15 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.4</v>
+        <v>3.53</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.48</v>
+        <v>3.86</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -8992,15 +8992,15 @@
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-mainz/StmJWPQD/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-hoffenheim/0zeX8MY6/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>4</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>2</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
       <c r="J94" t="n">
-        <v>2.71</v>
+        <v>1.06</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.49</v>
+        <v>1.11</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>11/11/2023 15:29</t>
+          <t>11/11/2023 14:58</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.67</v>
+        <v>17.32</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.84</v>
+        <v>12</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>11/11/2023 15:26</t>
+          <t>11/11/2023 14:58</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.51</v>
+        <v>29.94</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.74</v>
+        <v>19</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>11/11/2023 15:28</t>
+          <t>11/11/2023 14:58</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-dortmund/vRgy8tlD/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-heidenheim/2PphIQBK/</t>
         </is>
       </c>
     </row>
@@ -9129,30 +9129,30 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.56</v>
+        <v>2.95</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.43</v>
+        <v>3.28</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -9160,15 +9160,15 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.53</v>
+        <v>3.4</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.86</v>
+        <v>3.48</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -9176,15 +9176,15 @@
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-hoffenheim/0zeX8MY6/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-mainz/StmJWPQD/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.06</v>
+        <v>2.71</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.11</v>
+        <v>2.49</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>11/11/2023 14:58</t>
+          <t>11/11/2023 15:29</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>17.32</v>
+        <v>3.67</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>12</v>
+        <v>3.84</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>11/11/2023 14:58</t>
+          <t>11/11/2023 15:26</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>29.94</v>
+        <v>2.51</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>19</v>
+        <v>2.74</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>11/11/2023 14:58</t>
+          <t>11/11/2023 15:28</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-heidenheim/2PphIQBK/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-dortmund/vRgy8tlD/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G102" t="n">
+        <v>4</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>B. Monchengladbach</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
         <v>2</v>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>RB Leipzig</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
       <c r="J102" t="n">
-        <v>3.09</v>
+        <v>1.35</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,48 +9796,48 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.74</v>
+        <v>1.51</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
+          <t>25/11/2023 14:49</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
           <t>25/11/2023 15:27</t>
         </is>
       </c>
-      <c r="N102" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O102" t="inlineStr">
+      <c r="R102" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="S102" t="inlineStr">
         <is>
           <t>05/11/2023 11:03</t>
         </is>
       </c>
-      <c r="P102" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>25/11/2023 14:57</t>
-        </is>
-      </c>
-      <c r="R102" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>05/11/2023 11:03</t>
-        </is>
-      </c>
       <c r="T102" t="n">
-        <v>1.95</v>
+        <v>5.53</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>25/11/2023 15:27</t>
+          <t>25/11/2023 15:28</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-rb-leipzig/d2Q1O1Yg/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-b-monchengladbach/6XoNVqtK/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>25/11/2023 14:49</t>
+          <t>25/11/2023 15:28</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>5.88</v>
+        <v>4.43</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>5.24</v>
+        <v>4.55</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>25/11/2023 15:27</t>
+          <t>25/11/2023 15:28</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>7.58</v>
+        <v>6.12</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>5.53</v>
+        <v>6.28</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-b-monchengladbach/6XoNVqtK/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-darmstadt/OlSgQN3s/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,14 +9965,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.53</v>
+        <v>1.99</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>4.43</v>
+        <v>3.96</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,32 +9996,32 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>4.55</v>
+        <v>3.59</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
+          <t>25/11/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
           <t>25/11/2023 15:28</t>
         </is>
       </c>
-      <c r="R104" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>05/11/2023 11:03</t>
-        </is>
-      </c>
-      <c r="T104" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>25/11/2023 15:28</t>
-        </is>
-      </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-darmstadt/OlSgQN3s/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-augsburg/ldySU3eQ/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J105" t="n">
-        <v>1.65</v>
+        <v>5.02</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.99</v>
+        <v>6</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>25/11/2023 15:28</t>
+          <t>25/11/2023 15:26</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.96</v>
+        <v>4.42</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.59</v>
+        <v>5.11</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>25/11/2023 15:27</t>
+          <t>25/11/2023 15:26</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>5.46</v>
+        <v>1.62</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>4.02</v>
+        <v>1.47</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>25/11/2023 15:28</t>
+          <t>25/11/2023 13:02</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-augsburg/ldySU3eQ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-bayer-leverkusen/niJELaIC/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>5.02</v>
+        <v>3.09</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>6</v>
+        <v>3.74</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>25/11/2023 15:26</t>
+          <t>25/11/2023 15:27</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>4.42</v>
+        <v>3.65</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>5.11</v>
+        <v>4.01</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>25/11/2023 15:26</t>
+          <t>25/11/2023 14:57</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>1.62</v>
+        <v>2.26</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>1.47</v>
+        <v>1.95</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>25/11/2023 13:02</t>
+          <t>25/11/2023 15:27</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-bayer-leverkusen/niJELaIC/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-rb-leipzig/d2Q1O1Yg/</t>
         </is>
       </c>
     </row>
@@ -10574,6 +10574,374 @@
       <c r="V110" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-1-fc-koln/xtYdYx2I/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45262.64583333334</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>3</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:27</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-wolfsburg/niupyuIa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45262.64583333334</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-heidenheim/tj05rNPP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45262.64583333334</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>B. Monchengladbach</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-hoffenheim/YmytxL2g/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45262.77083333334</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>2</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-werder-bremen/K4whZInC/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V114"/>
+  <dimension ref="A1:V135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.03</v>
+        <v>1.63</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.92</v>
+        <v>1.66</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19/08/2023 15:19</t>
+          <t>19/08/2023 15:14</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>4.13</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.72</v>
+        <v>4.42</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>19/08/2023 14:37</t>
+          <t>19/08/2023 15:25</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.23</v>
+        <v>4.88</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.43</v>
+        <v>5.16</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>19/08/2023 15:28</t>
+          <t>19/08/2023 14:58</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-b-monchengladbach/hzD1f81N/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-heidenheim/KMEgdUWA/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.59</v>
+        <v>1.68</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:27</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.48</v>
+        <v>1.78</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19/08/2023 15:08</t>
+          <t>19/08/2023 15:25</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.38</v>
+        <v>4.01</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:27</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.63</v>
+        <v>4.16</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>19/08/2023 15:29</t>
+          <t>19/08/2023 15:26</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.68</v>
+        <v>4.61</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>01/07/2023 10:31</t>
+          <t>01/07/2023 10:27</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.98</v>
+        <v>4.52</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>19/08/2023 15:29</t>
+          <t>19/08/2023 15:28</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-rb-leipzig/QNLpbj2b/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-bochum/AB76gSGT/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.68</v>
+        <v>2.59</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>01/07/2023 10:27</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.78</v>
+        <v>2.48</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>19/08/2023 15:25</t>
+          <t>19/08/2023 15:08</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.01</v>
+        <v>3.38</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>01/07/2023 10:27</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.16</v>
+        <v>3.63</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>19/08/2023 15:26</t>
+          <t>19/08/2023 15:29</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.61</v>
+        <v>2.68</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>01/07/2023 10:27</t>
+          <t>01/07/2023 10:31</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>4.52</v>
+        <v>2.98</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>19/08/2023 15:28</t>
+          <t>19/08/2023 15:29</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-bochum/AB76gSGT/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-rb-leipzig/QNLpbj2b/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.63</v>
+        <v>3.03</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.66</v>
+        <v>2.92</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>19/08/2023 15:14</t>
+          <t>19/08/2023 15:19</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.13</v>
+        <v>3.6</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>4.42</v>
+        <v>3.72</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>19/08/2023 15:25</t>
+          <t>19/08/2023 14:37</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.88</v>
+        <v>2.23</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>5.16</v>
+        <v>2.43</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>19/08/2023 14:58</t>
+          <t>19/08/2023 15:28</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-heidenheim/KMEgdUWA/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-b-monchengladbach/hzD1f81N/</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1593,14 +1593,14 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4.97</v>
+        <v>1.71</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5.62</v>
+        <v>1.77</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>26/08/2023 15:27</t>
+          <t>26/08/2023 14:50</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.68</v>
+        <v>3.99</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.72</v>
+        <v>4.1</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>26/08/2023 15:29</t>
+          <t>26/08/2023 14:50</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.61</v>
+        <v>4.99</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>1.57</v>
+        <v>4.67</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>26/08/2023 15:26</t>
+          <t>26/08/2023 15:03</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-dortmund/v9hlGONq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-werder-bremen/nBD9N6V9/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.71</v>
+        <v>4.97</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.77</v>
+        <v>5.62</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>26/08/2023 14:50</t>
+          <t>26/08/2023 15:27</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.99</v>
+        <v>4.68</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.1</v>
+        <v>4.72</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>26/08/2023 14:50</t>
+          <t>26/08/2023 15:29</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.99</v>
+        <v>1.61</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.67</v>
+        <v>1.57</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>26/08/2023 15:03</t>
+          <t>26/08/2023 15:26</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-werder-bremen/nBD9N6V9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-dortmund/v9hlGONq/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.92</v>
+        <v>3.02</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.25</v>
+        <v>2.73</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.74</v>
+        <v>3.61</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.68</v>
+        <v>3.51</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.7</v>
+        <v>2.23</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.26</v>
+        <v>2.7</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:23</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-mainz/0vVKTshq/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.22</v>
+        <v>2.35</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>4.92</v>
+        <v>3.92</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>7.25</v>
+        <v>3.64</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>6.76</v>
+        <v>3.94</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>13</v>
+        <v>3.11</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-darmstadt/8tjtyQa9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.56</v>
+        <v>1.4</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.58</v>
+        <v>1.22</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:07</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.59</v>
+        <v>4.92</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.97</v>
+        <v>7.25</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:28</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.74</v>
+        <v>6.76</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.62</v>
+        <v>13</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:12</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-wolfsburg/fchhYNqS/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-darmstadt/8tjtyQa9/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.92</v>
+        <v>3.74</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.64</v>
+        <v>3.68</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.94</v>
+        <v>3.7</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.11</v>
+        <v>3.26</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.02</v>
+        <v>2.56</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:07</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.61</v>
+        <v>3.59</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.51</v>
+        <v>3.97</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:28</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.23</v>
+        <v>2.74</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:23</t>
+          <t>02/09/2023 15:12</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-mainz/0vVKTshq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-wolfsburg/fchhYNqS/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.03</v>
+        <v>1.2</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.22</v>
+        <v>1.27</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:17</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.7</v>
+        <v>7.5</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.86</v>
+        <v>6.75</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:19</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.68</v>
+        <v>13.58</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.19</v>
+        <v>10.25</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:20</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-augsburg/l0BFkPE2/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>3.62</v>
+        <v>2.62</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.97</v>
+        <v>2.71</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.92</v>
+        <v>3.4</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.82</v>
+        <v>3.54</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.9</v>
+        <v>2.79</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.36</v>
+        <v>2.71</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:28</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-vfb-stuttgart/WMyiWzEs/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Stuttgart</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>3</v>
-      </c>
       <c r="J32" t="n">
-        <v>2.62</v>
+        <v>2.19</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.71</v>
+        <v>2.23</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.54</v>
+        <v>3.35</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.79</v>
+        <v>3.33</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.71</v>
+        <v>3.63</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-vfb-stuttgart/WMyiWzEs/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-union-berlin/fcENm3qF/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>1.2</v>
+        <v>3.62</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.27</v>
+        <v>2.97</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>7.5</v>
+        <v>3.92</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>6.75</v>
+        <v>3.82</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:19</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>13.58</v>
+        <v>1.9</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>10.25</v>
+        <v>2.36</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:28</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-augsburg/l0BFkPE2/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,48 +3540,48 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>16/09/2023 15:17</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>28/08/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
           <t>16/09/2023 15:27</t>
         </is>
       </c>
-      <c r="N34" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O34" t="inlineStr">
+      <c r="R34" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S34" t="inlineStr">
         <is>
           <t>28/08/2023 16:01</t>
         </is>
       </c>
-      <c r="P34" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:27</t>
-        </is>
-      </c>
-      <c r="R34" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>28/08/2023 16:01</t>
-        </is>
-      </c>
       <c r="T34" t="n">
-        <v>3.63</v>
+        <v>3.19</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:20</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-union-berlin/fcENm3qF/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>7</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Hoffenheim</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
       <c r="J39" t="n">
-        <v>1.85</v>
+        <v>1.07</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.13</v>
+        <v>1.12</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.93</v>
+        <v>20.79</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.72</v>
+        <v>10.5</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:20</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.38</v>
+        <v>29.26</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.51</v>
+        <v>21</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:26</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.07</v>
+        <v>1.47</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.12</v>
+        <v>1.74</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:20</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>20.79</v>
+        <v>5.02</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>10.5</v>
+        <v>4.42</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>29.26</v>
+        <v>5.4</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>21</v>
+        <v>4.48</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.47</v>
+        <v>1.85</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,48 +4276,48 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.74</v>
+        <v>2.13</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>23/09/2023 15:05</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
           <t>23/09/2023 15:20</t>
         </is>
       </c>
-      <c r="N42" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="O42" t="inlineStr">
+      <c r="R42" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="S42" t="inlineStr">
         <is>
           <t>05/09/2023 12:01</t>
         </is>
       </c>
-      <c r="P42" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:28</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>05/09/2023 12:01</t>
-        </is>
-      </c>
       <c r="T42" t="n">
-        <v>4.48</v>
+        <v>3.51</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:26</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
         </is>
       </c>
     </row>
@@ -4805,30 +4805,30 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Bayer Leverkusen</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>3</v>
-      </c>
       <c r="J48" t="n">
-        <v>3.49</v>
+        <v>3.34</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>5.25</v>
+        <v>3.18</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4836,15 +4836,15 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.67</v>
+        <v>3.52</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.52</v>
+        <v>3.53</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4852,24 +4852,24 @@
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.63</v>
+        <v>2.33</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:15</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayer-leverkusen/p4vt2g4P/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-union-berlin/x2JKfBda/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>2.49</v>
+        <v>3.49</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.86</v>
+        <v>5.25</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:25</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.59</v>
+        <v>3.67</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.58</v>
+        <v>4.52</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.92</v>
+        <v>2.1</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.55</v>
+        <v>1.63</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayer-leverkusen/p4vt2g4P/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>3.34</v>
+        <v>2.49</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.18</v>
+        <v>2.86</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.52</v>
+        <v>3.59</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.53</v>
+        <v>3.58</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.12</v>
+        <v>2.92</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.33</v>
+        <v>2.55</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:15</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-union-berlin/x2JKfBda/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
+          <t>07/10/2023 15:01</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>28/09/2023 14:20</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
           <t>07/10/2023 15:29</t>
         </is>
       </c>
-      <c r="N57" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>23/09/2023 21:02</t>
-        </is>
-      </c>
-      <c r="P57" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
       <c r="R57" t="n">
-        <v>3.8</v>
+        <v>4.06</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>28/09/2023 14:20</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.16</v>
+        <v>4.66</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>07/10/2023 15:29</t>
+          <t>07/10/2023 15:28</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>23/09/2023 19:02</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.26</v>
+        <v>1.71</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>07/10/2023 15:20</t>
+          <t>07/10/2023 15:25</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>5.99</v>
+        <v>4.52</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>23/09/2023 21:02</t>
+          <t>23/09/2023 19:02</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>6.66</v>
+        <v>4.17</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
+          <t>07/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:02</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
           <t>07/10/2023 15:29</t>
         </is>
       </c>
-      <c r="R58" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>23/09/2023 21:02</t>
-        </is>
-      </c>
-      <c r="T58" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:29</t>
-        </is>
-      </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
         </is>
       </c>
     </row>
@@ -5817,62 +5817,62 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.52</v>
+        <v>1.31</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.71</v>
+        <v>1.26</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>07/10/2023 15:25</t>
+          <t>07/10/2023 15:20</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4.52</v>
+        <v>5.99</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.17</v>
+        <v>6.66</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>07/10/2023 15:27</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>6.35</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>23/09/2023 19:02</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.97</v>
+        <v>11.62</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-union-berlin/OILWi9tI/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-bochum/4UxUjTeO/</t>
         </is>
       </c>
     </row>
@@ -5909,46 +5909,46 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
         <v>1</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Darmstadt</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
       <c r="J60" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>07/10/2023 15:01</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.89</v>
+        <v>3.8</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.75</v>
+        <v>3.97</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5956,24 +5956,24 @@
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.06</v>
+        <v>3.8</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>28/09/2023 14:20</t>
+          <t>23/09/2023 21:02</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.66</v>
+        <v>4.16</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>07/10/2023 15:28</t>
+          <t>07/10/2023 15:29</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-darmstadt/fa5j8UQb/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-wolfsburg/OY9f7lt5/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,63 +6469,63 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>6.5</v>
+        <v>2.83</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>6.59</v>
+        <v>4.47</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:00</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>5.15</v>
+        <v>3.69</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>5.1</v>
+        <v>4.11</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>1.4</v>
+        <v>2.52</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>1.47</v>
+        <v>1.79</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>21/10/2023 15:28</t>
+          <t>21/10/2023 15:00</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayer-leverkusen/xdGA36uU/</t>
         </is>
       </c>
     </row>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>1.56</v>
+        <v>2.3</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.81</v>
+        <v>2.61</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>4.28</v>
+        <v>3.46</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.91</v>
+        <v>3.37</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>5.28</v>
+        <v>3.34</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.61</v>
+        <v>2.92</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-vfb-stuttgart/plb35SAH/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.3</v>
+        <v>1.56</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.61</v>
+        <v>1.81</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.46</v>
+        <v>4.28</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.37</v>
+        <v>3.91</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:28</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.34</v>
+        <v>5.28</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.92</v>
+        <v>4.61</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-vfb-stuttgart/plb35SAH/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,63 +6837,63 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>2.83</v>
+        <v>6.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4.47</v>
+        <v>6.59</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:00</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.69</v>
+        <v>5.15</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4.11</v>
+        <v>5.1</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.52</v>
+        <v>1.4</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1.79</v>
+        <v>1.47</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:00</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayer-leverkusen/xdGA36uU/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.72</v>
+        <v>2.73</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.54</v>
+        <v>2.86</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:01</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.62</v>
+        <v>3.33</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.62</v>
+        <v>3.53</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 14:50</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.44</v>
+        <v>2.73</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.8</v>
+        <v>2.53</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:01</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-union-berlin/4AhMbHg2/</t>
         </is>
       </c>
     </row>
@@ -7381,46 +7381,46 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>1.07</v>
+        <v>1.77</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.06</v>
+        <v>1.67</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/10/2023 15:16</t>
+          <t>28/10/2023 15:27</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>12.93</v>
+        <v>4.11</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>17.61</v>
+        <v>4.43</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,15 +7428,15 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>19.15</v>
+        <v>4.38</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>32.15</v>
+        <v>4.84</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-darmstadt/p2wxKRPA/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-hoffenheim/EuzDLv1F/</t>
         </is>
       </c>
     </row>
@@ -7565,46 +7565,46 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.77</v>
+        <v>1.07</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.67</v>
+        <v>1.06</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:27</t>
+          <t>28/10/2023 15:16</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4.11</v>
+        <v>12.93</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.43</v>
+        <v>17.61</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -7612,15 +7612,15 @@
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.38</v>
+        <v>19.15</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.84</v>
+        <v>32.15</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-hoffenheim/EuzDLv1F/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-darmstadt/p2wxKRPA/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>2</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Union Berlin</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
       <c r="J79" t="n">
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.86</v>
+        <v>2.54</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:01</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.33</v>
+        <v>3.62</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.53</v>
+        <v>3.62</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/10/2023 14:50</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.73</v>
+        <v>2.44</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.53</v>
+        <v>2.8</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/10/2023 15:01</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-union-berlin/4AhMbHg2/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>3.62</v>
+        <v>3.85</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>4.57</v>
+        <v>5.53</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:28</t>
+          <t>04/11/2023 15:29</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.78</v>
+        <v>4.05</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.04</v>
+        <v>5.01</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:28</t>
+          <t>04/11/2023 15:27</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>04/11/2023 15:28</t>
+          <t>04/11/2023 15:29</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-rb-leipzig/r1DeDG8e/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-bayer-leverkusen/jRG3Bfw8/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>3.85</v>
+        <v>3.62</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>5.53</v>
+        <v>4.57</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>04/11/2023 15:29</t>
+          <t>04/11/2023 15:28</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>4.05</v>
+        <v>3.78</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>5.01</v>
+        <v>4.04</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>04/11/2023 15:27</t>
+          <t>04/11/2023 15:28</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>04/11/2023 15:29</t>
+          <t>04/11/2023 15:28</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-bayer-leverkusen/jRG3Bfw8/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-rb-leipzig/r1DeDG8e/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:29</t>
+          <t>04/11/2023 15:19</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.73</v>
+        <v>3.99</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.89</v>
+        <v>3.85</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:29</t>
+          <t>04/11/2023 15:19</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.8</v>
+        <v>4.55</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.52</v>
+        <v>3.64</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:29</t>
+          <t>04/11/2023 15:19</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-augsburg/CzIaCzO1/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-b-monchengladbach/MoPnFxvq/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>04/11/2023 15:19</t>
+          <t>04/11/2023 15:29</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.99</v>
+        <v>3.73</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.85</v>
+        <v>3.89</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>04/11/2023 15:19</t>
+          <t>04/11/2023 15:29</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.55</v>
+        <v>3.8</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.64</v>
+        <v>3.52</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>04/11/2023 15:19</t>
+          <t>04/11/2023 15:29</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-b-monchengladbach/MoPnFxvq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-augsburg/CzIaCzO1/</t>
         </is>
       </c>
     </row>
@@ -8945,30 +8945,30 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2.56</v>
+        <v>2.95</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.43</v>
+        <v>3.28</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -8976,15 +8976,15 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.53</v>
+        <v>3.4</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.86</v>
+        <v>3.48</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -8992,15 +8992,15 @@
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-hoffenheim/0zeX8MY6/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-mainz/StmJWPQD/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>1.06</v>
+        <v>2.71</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.11</v>
+        <v>2.49</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>11/11/2023 14:58</t>
+          <t>11/11/2023 15:29</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>17.32</v>
+        <v>3.67</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>12</v>
+        <v>3.84</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>11/11/2023 14:58</t>
+          <t>11/11/2023 15:26</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>29.94</v>
+        <v>2.51</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>19</v>
+        <v>2.74</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>11/11/2023 14:58</t>
+          <t>11/11/2023 15:28</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-heidenheim/2PphIQBK/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-dortmund/vRgy8tlD/</t>
         </is>
       </c>
     </row>
@@ -9129,30 +9129,30 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>2.95</v>
+        <v>2.56</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>3.28</v>
+        <v>2.43</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -9160,15 +9160,15 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.4</v>
+        <v>3.53</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.48</v>
+        <v>3.86</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -9176,15 +9176,15 @@
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-mainz/StmJWPQD/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-hoffenheim/0zeX8MY6/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>4</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>2</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
       <c r="J96" t="n">
-        <v>2.71</v>
+        <v>1.06</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.49</v>
+        <v>1.11</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>11/11/2023 15:29</t>
+          <t>11/11/2023 14:58</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.67</v>
+        <v>17.32</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.84</v>
+        <v>12</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>11/11/2023 15:26</t>
+          <t>11/11/2023 14:58</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.51</v>
+        <v>29.94</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.74</v>
+        <v>19</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>11/11/2023 15:28</t>
+          <t>11/11/2023 14:58</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-dortmund/vRgy8tlD/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-heidenheim/2PphIQBK/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>25/11/2023 14:49</t>
+          <t>25/11/2023 15:28</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>5.88</v>
+        <v>4.43</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>5.24</v>
+        <v>4.55</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>25/11/2023 15:27</t>
+          <t>25/11/2023 15:28</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>7.58</v>
+        <v>6.12</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>5.53</v>
+        <v>6.28</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-b-monchengladbach/6XoNVqtK/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-darmstadt/OlSgQN3s/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>1.53</v>
+        <v>3.09</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.53</v>
+        <v>3.74</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>25/11/2023 15:28</t>
+          <t>25/11/2023 15:27</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>4.43</v>
+        <v>3.65</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>4.55</v>
+        <v>4.01</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>25/11/2023 15:28</t>
+          <t>25/11/2023 14:57</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>6.12</v>
+        <v>2.26</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>6.28</v>
+        <v>1.95</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>25/11/2023 15:28</t>
+          <t>25/11/2023 15:27</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-darmstadt/OlSgQN3s/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-rb-leipzig/d2Q1O1Yg/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J104" t="n">
-        <v>1.65</v>
+        <v>5.02</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.99</v>
+        <v>6</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>25/11/2023 15:28</t>
+          <t>25/11/2023 15:26</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.96</v>
+        <v>4.42</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.59</v>
+        <v>5.11</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>25/11/2023 15:27</t>
+          <t>25/11/2023 15:26</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>5.46</v>
+        <v>1.62</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>4.02</v>
+        <v>1.47</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>25/11/2023 15:28</t>
+          <t>25/11/2023 13:02</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-augsburg/ldySU3eQ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-bayer-leverkusen/niJELaIC/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>5.02</v>
+        <v>1.35</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>6</v>
+        <v>1.51</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>25/11/2023 15:26</t>
+          <t>25/11/2023 14:49</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>4.42</v>
+        <v>5.88</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>5.11</v>
+        <v>5.24</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>25/11/2023 15:26</t>
+          <t>25/11/2023 15:27</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>1.62</v>
+        <v>7.58</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>1.47</v>
+        <v>5.53</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>25/11/2023 13:02</t>
+          <t>25/11/2023 15:28</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-bayer-leverkusen/niJELaIC/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-b-monchengladbach/6XoNVqtK/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I106" t="n">
         <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>3.09</v>
+        <v>1.65</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,48 +10164,48 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.74</v>
+        <v>1.99</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
+          <t>25/11/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
           <t>25/11/2023 15:27</t>
         </is>
       </c>
-      <c r="N106" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O106" t="inlineStr">
+      <c r="R106" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="S106" t="inlineStr">
         <is>
           <t>05/11/2023 11:03</t>
         </is>
       </c>
-      <c r="P106" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="Q106" t="inlineStr">
-        <is>
-          <t>25/11/2023 14:57</t>
-        </is>
-      </c>
-      <c r="R106" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t>05/11/2023 11:03</t>
-        </is>
-      </c>
       <c r="T106" t="n">
-        <v>1.95</v>
+        <v>4.02</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>25/11/2023 15:27</t>
+          <t>25/11/2023 15:28</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-rb-leipzig/d2Q1O1Yg/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-augsburg/ldySU3eQ/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>2.71</v>
+        <v>2.02</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,48 +10624,48 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.63</v>
+        <v>2.16</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
+          <t>02/12/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
           <t>02/12/2023 15:29</t>
         </is>
       </c>
-      <c r="N111" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="O111" t="inlineStr">
+      <c r="R111" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S111" t="inlineStr">
         <is>
           <t>15/11/2023 16:01</t>
         </is>
       </c>
-      <c r="P111" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>02/12/2023 15:26</t>
-        </is>
-      </c>
-      <c r="R111" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>15/11/2023 16:01</t>
-        </is>
-      </c>
       <c r="T111" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>02/12/2023 15:27</t>
+          <t>02/12/2023 15:29</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-wolfsburg/niupyuIa/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-hoffenheim/YmytxL2g/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1.17</v>
+        <v>2.71</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.2</v>
+        <v>2.63</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>02/12/2023 15:25</t>
+          <t>02/12/2023 15:29</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>7.76</v>
+        <v>3.51</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>7.77</v>
+        <v>3.52</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>02/12/2023 15:29</t>
+          <t>02/12/2023 15:26</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>11.47</v>
+        <v>2.46</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>13.33</v>
+        <v>2.75</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>02/12/2023 15:29</t>
+          <t>02/12/2023 15:27</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-heidenheim/tj05rNPP/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-wolfsburg/niupyuIa/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,14 +10793,14 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I113" t="n">
         <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>2.02</v>
+        <v>1.17</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.16</v>
+        <v>1.2</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.91</v>
+        <v>7.76</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>4.23</v>
+        <v>7.77</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.21</v>
+        <v>11.47</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.05</v>
+        <v>13.33</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-hoffenheim/YmytxL2g/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-heidenheim/tj05rNPP/</t>
         </is>
       </c>
     </row>
@@ -10942,6 +10942,1938 @@
       <c r="V114" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-werder-bremen/K4whZInC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45263.64583333334</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-freiburg/jPoyw1mm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45263.72916666666</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:27</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-dortmund/CYnXwsYt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45263.8125</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:29</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:29</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>15/11/2023 16:01</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:29</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-eintracht-frankfurt/tEvlzaX5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45268.85416666666</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>3</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-bochum/GreOyC8A/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45269.64583333334</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>3</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>B. Monchengladbach</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-b-monchengladbach/S8q8uf9o/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45269.64583333334</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-freiburg/8IiGwYwb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45269.64583333334</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>5</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:27</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/eintracht-frankfurt-bayern-munich/Qg2BvEOi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45269.64583333334</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>3</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>2</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-darmstadt/j1myZ9hT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45269.64583333334</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>2</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-augsburg/fZgSzWNG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45269.77083333334</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>2</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>3</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-rb-leipzig/E5eQGAWp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45270.64583333334</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-bayer-leverkusen/xbqXZkwN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45270.72916666666</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>FC Koln</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:29</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:19</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-mainz/n9jKxhg4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45275.85416666666</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>B. Monchengladbach</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>2</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>2</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:23</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>4</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:23</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-werder-bremen/YusfkVxA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45276.64583333334</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-wolfsburg/OUZ6nTMS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45276.64583333334</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>3</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-union-berlin/G4WblkhG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45276.64583333334</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:04</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:02</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>2</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:03</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-dortmund/feV2m97M/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45276.64583333334</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-heidenheim/KxwjjBN3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45276.77083333334</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>3</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:07</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-hoffenheim/nXY6TmGj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45277.64583333334</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>2</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>FC Koln</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-1-fc-koln/nPvrhXhi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45277.72916666666</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>3</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>17/12/2023 17:15</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>17/12/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>17/12/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-eintracht-frankfurt/QFwnii8c/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45277.8125</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>3</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>02/12/2023 22:01</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:27</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>02/12/2023 22:01</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:27</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>02/12/2023 22:01</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:29</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-vfb-stuttgart/8tz3UT0p/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V135"/>
+  <dimension ref="A1:V138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>2.83</v>
+        <v>2.3</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4.47</v>
+        <v>2.61</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>21/10/2023 15:00</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.69</v>
+        <v>3.46</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.11</v>
+        <v>3.37</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.52</v>
+        <v>3.34</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>1.79</v>
+        <v>2.92</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>21/10/2023 15:00</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayer-leverkusen/xdGA36uU/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-vfb-stuttgart/plb35SAH/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>2.3</v>
+        <v>2.39</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.61</v>
+        <v>2.06</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.46</v>
+        <v>3.56</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,32 +6592,32 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.37</v>
+        <v>3.65</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
+          <t>21/10/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
           <t>21/10/2023 15:28</t>
         </is>
       </c>
-      <c r="R67" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>01/10/2023 23:01</t>
-        </is>
-      </c>
-      <c r="T67" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:29</t>
-        </is>
-      </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-vfb-stuttgart/plb35SAH/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-eintracht-frankfurt/fDpPMTuh/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>2.39</v>
+        <v>2.83</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.06</v>
+        <v>4.47</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>21/10/2023 15:28</t>
+          <t>21/10/2023 15:00</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.56</v>
+        <v>3.69</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.65</v>
+        <v>4.11</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.98</v>
+        <v>2.52</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.79</v>
+        <v>1.79</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>21/10/2023 15:28</t>
+          <t>21/10/2023 15:00</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-eintracht-frankfurt/fDpPMTuh/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayer-leverkusen/xdGA36uU/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>1.56</v>
+        <v>6.5</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.81</v>
+        <v>6.59</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.28</v>
+        <v>5.15</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.91</v>
+        <v>5.1</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>5.28</v>
+        <v>1.4</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.61</v>
+        <v>1.47</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
         <v>1</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>RB Leipzig</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
       <c r="J70" t="n">
-        <v>6.5</v>
+        <v>1.56</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>6.59</v>
+        <v>1.81</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>5.15</v>
+        <v>4.28</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>5.1</v>
+        <v>3.91</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:27</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>1.4</v>
+        <v>5.28</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1.47</v>
+        <v>4.61</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:28</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.53</v>
+        <v>1.99</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>4.43</v>
+        <v>3.96</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,32 +9812,32 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>4.55</v>
+        <v>3.59</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
+          <t>25/11/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
           <t>25/11/2023 15:28</t>
         </is>
       </c>
-      <c r="R102" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>05/11/2023 11:03</t>
-        </is>
-      </c>
-      <c r="T102" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>25/11/2023 15:28</t>
-        </is>
-      </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-darmstadt/OlSgQN3s/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-augsburg/ldySU3eQ/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>5.02</v>
+        <v>1.35</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>6</v>
+        <v>1.51</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>25/11/2023 15:26</t>
+          <t>25/11/2023 14:49</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>4.42</v>
+        <v>5.88</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>5.11</v>
+        <v>5.24</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>25/11/2023 15:26</t>
+          <t>25/11/2023 15:27</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>1.62</v>
+        <v>7.58</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>1.47</v>
+        <v>5.53</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>25/11/2023 13:02</t>
+          <t>25/11/2023 15:28</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-bayer-leverkusen/niJELaIC/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-b-monchengladbach/6XoNVqtK/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>25/11/2023 14:49</t>
+          <t>25/11/2023 15:28</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>5.88</v>
+        <v>4.43</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>5.24</v>
+        <v>4.55</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>25/11/2023 15:27</t>
+          <t>25/11/2023 15:28</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>7.58</v>
+        <v>6.12</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,7 +10104,7 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>5.53</v>
+        <v>6.28</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-b-monchengladbach/6XoNVqtK/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-darmstadt/OlSgQN3s/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>1.65</v>
+        <v>5.02</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.99</v>
+        <v>6</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>25/11/2023 15:28</t>
+          <t>25/11/2023 15:26</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.96</v>
+        <v>4.42</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.59</v>
+        <v>5.11</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>25/11/2023 15:27</t>
+          <t>25/11/2023 15:26</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>5.46</v>
+        <v>1.62</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>4.02</v>
+        <v>1.47</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>25/11/2023 15:28</t>
+          <t>25/11/2023 13:02</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-augsburg/ldySU3eQ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-bayer-leverkusen/niJELaIC/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.09</v>
+        <v>2.21</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>09/12/2023 15:28</t>
+          <t>09/12/2023 15:29</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.86</v>
+        <v>3.83</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.54</v>
+        <v>3.73</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>09/12/2023 15:28</t>
+          <t>09/12/2023 15:29</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>3.74</v>
+        <v>3.25</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>09/12/2023 15:28</t>
+          <t>09/12/2023 15:29</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-b-monchengladbach/S8q8uf9o/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-augsburg/fZgSzWNG/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.22</v>
+        <v>2.09</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>09/12/2023 15:29</t>
+          <t>09/12/2023 15:28</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.84</v>
+        <v>3.86</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11472,11 +11472,11 @@
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>09/12/2023 15:29</t>
+          <t>09/12/2023 15:28</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>3.45</v>
+        <v>4.25</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>3.39</v>
+        <v>3.74</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>09/12/2023 15:29</t>
+          <t>09/12/2023 15:28</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-freiburg/8IiGwYwb/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-b-monchengladbach/S8q8uf9o/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I121" t="n">
         <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>5.86</v>
+        <v>1.95</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>8.949999999999999</v>
+        <v>2.22</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>5.08</v>
+        <v>3.84</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>6.12</v>
+        <v>3.54</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         </is>
       </c>
       <c r="R121" t="n">
-        <v>1.48</v>
+        <v>3.45</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>1.32</v>
+        <v>3.39</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>09/12/2023 15:27</t>
+          <t>09/12/2023 15:29</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/eintracht-frankfurt-bayern-munich/Qg2BvEOi/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-freiburg/8IiGwYwb/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>1.99</v>
+        <v>5.86</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,48 +11636,48 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1.82</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
+          <t>09/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>25/11/2023 22:02</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
           <t>09/12/2023 15:27</t>
         </is>
       </c>
-      <c r="N122" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>25/11/2023 22:02</t>
-        </is>
-      </c>
-      <c r="P122" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="Q122" t="inlineStr">
-        <is>
-          <t>09/12/2023 15:28</t>
-        </is>
-      </c>
-      <c r="R122" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="S122" t="inlineStr">
-        <is>
-          <t>25/11/2023 22:02</t>
-        </is>
-      </c>
-      <c r="T122" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="U122" t="inlineStr">
-        <is>
-          <t>09/12/2023 15:28</t>
-        </is>
-      </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-darmstadt/j1myZ9hT/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/eintracht-frankfurt-bayern-munich/Qg2BvEOi/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="G123" t="n">
+        <v>3</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
         <v>2</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Augsburg</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
       <c r="J123" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,11 +11728,11 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>2.21</v>
+        <v>1.82</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>09/12/2023 15:29</t>
+          <t>09/12/2023 15:27</t>
         </is>
       </c>
       <c r="N123" t="n">
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.73</v>
+        <v>3.96</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>09/12/2023 15:29</t>
+          <t>09/12/2023 15:28</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>3.5</v>
+        <v>3.36</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>09/12/2023 15:29</t>
+          <t>09/12/2023 15:28</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-augsburg/fZgSzWNG/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-darmstadt/j1myZ9hT/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,14 +12173,14 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>3.05</v>
+        <v>1.65</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.97</v>
+        <v>1.72</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>16/12/2023 15:26</t>
+          <t>16/12/2023 15:29</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.58</v>
+        <v>4.07</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.86</v>
+        <v>4.14</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>16/12/2023 15:26</t>
+          <t>16/12/2023 15:29</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.19</v>
+        <v>4.58</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>1.93</v>
+        <v>4.82</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>16/12/2023 15:26</t>
+          <t>16/12/2023 15:29</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-wolfsburg/OUZ6nTMS/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-heidenheim/KxwjjBN3/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>2.62</v>
+        <v>3.97</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>16/12/2023 15:29</t>
+          <t>16/12/2023 15:26</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.25</v>
+        <v>3.58</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.36</v>
+        <v>3.86</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>16/12/2023 15:29</t>
+          <t>16/12/2023 15:26</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>2.63</v>
+        <v>2.19</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>2.88</v>
+        <v>1.93</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>16/12/2023 15:29</t>
+          <t>16/12/2023 15:26</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-union-berlin/G4WblkhG/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-wolfsburg/OUZ6nTMS/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G131" t="n">
+        <v>3</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Heidenheim</t>
-        </is>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
       <c r="J131" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>1.72</v>
+        <v>2.62</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         </is>
       </c>
       <c r="N131" t="n">
-        <v>4.07</v>
+        <v>3.25</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>4.14</v>
+        <v>3.36</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         </is>
       </c>
       <c r="R131" t="n">
-        <v>4.58</v>
+        <v>2.63</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>4.82</v>
+        <v>2.88</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-heidenheim/KxwjjBN3/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-union-berlin/G4WblkhG/</t>
         </is>
       </c>
     </row>
@@ -12874,6 +12874,282 @@
       <c r="V135" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-vfb-stuttgart/8tz3UT0p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45279.77083333334</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-rb-leipzig/8bex28MF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45279.85416666666</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>3</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>3</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>19/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>19/12/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>19/12/2023 20:28</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-darmstadt/U7dY2l79/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45279.85416666666</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>19/12/2023 20:08</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>19/12/2023 20:08</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>19/12/2023 20:08</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-mainz/QwMYsmVq/</t>
         </is>
       </c>
     </row>

--- a/2023/germany_bundesliga_2023-2024.xlsx
+++ b/2023/germany_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V138"/>
+  <dimension ref="A1:V143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.02</v>
+        <v>1.92</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.73</v>
+        <v>2.25</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.61</v>
+        <v>3.74</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.51</v>
+        <v>3.68</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.23</v>
+        <v>3.7</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.7</v>
+        <v>3.26</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/09/2023 15:23</t>
+          <t>02/09/2023 15:16</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-mainz/0vVKTshq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.35</v>
+        <v>1.22</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.92</v>
+        <v>4.92</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.64</v>
+        <v>7.25</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.94</v>
+        <v>6.76</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>21/08/2023 06:14</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.11</v>
+        <v>13</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:29</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-darmstadt/8tjtyQa9/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.4</v>
+        <v>2.56</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.22</v>
+        <v>2.58</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:07</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4.92</v>
+        <v>3.59</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>7.25</v>
+        <v>3.97</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:28</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>6.76</v>
+        <v>2.74</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>21/08/2023 06:14</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>13</v>
+        <v>2.62</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:24</t>
+          <t>02/09/2023 15:12</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-darmstadt/8tjtyQa9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-wolfsburg/fchhYNqS/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.74</v>
+        <v>3.92</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.68</v>
+        <v>3.64</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.7</v>
+        <v>3.94</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.26</v>
+        <v>3.11</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:16</t>
+          <t>02/09/2023 15:29</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-bochum/vVTOS17k/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-freiburg/84YSRLMe/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.56</v>
+        <v>3.02</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.58</v>
+        <v>2.73</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:07</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.59</v>
+        <v>3.61</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.97</v>
+        <v>3.51</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:28</t>
+          <t>02/09/2023 15:24</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.74</v>
+        <v>2.23</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:12</t>
+          <t>02/09/2023 15:23</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-wolfsburg/fchhYNqS/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-mainz/0vVKTshq/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>3</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Augsburg</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>1.2</v>
+        <v>2.03</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.27</v>
+        <v>2.22</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:17</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>7.5</v>
+        <v>3.7</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>6.75</v>
+        <v>3.86</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:19</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>13.58</v>
+        <v>3.68</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>10.25</v>
+        <v>3.19</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:20</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-augsburg/l0BFkPE2/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>2.62</v>
+        <v>3.62</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.71</v>
+        <v>2.97</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.4</v>
+        <v>3.92</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.54</v>
+        <v>3.82</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.79</v>
+        <v>1.9</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.71</v>
+        <v>2.36</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:28</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-vfb-stuttgart/WMyiWzEs/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>2.19</v>
+        <v>2.62</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,48 +3356,48 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.23</v>
+        <v>2.71</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
+          <t>16/09/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>28/08/2023 16:01</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
           <t>16/09/2023 15:27</t>
         </is>
       </c>
-      <c r="N32" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O32" t="inlineStr">
+      <c r="R32" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S32" t="inlineStr">
         <is>
           <t>28/08/2023 16:01</t>
         </is>
       </c>
-      <c r="P32" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q32" t="inlineStr">
+      <c r="T32" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U32" t="inlineStr">
         <is>
           <t>16/09/2023 15:27</t>
         </is>
       </c>
-      <c r="R32" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>28/08/2023 16:01</t>
-        </is>
-      </c>
-      <c r="T32" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:29</t>
-        </is>
-      </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-union-berlin/fcENm3qF/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-vfb-stuttgart/WMyiWzEs/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3.62</v>
+        <v>1.2</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.97</v>
+        <v>1.27</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:29</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.92</v>
+        <v>7.5</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.82</v>
+        <v>6.75</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:27</t>
+          <t>16/09/2023 15:19</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>1.9</v>
+        <v>13.58</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.36</v>
+        <v>10.25</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>16/09/2023 15:28</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-dortmund/0zFJlqU8/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/rb-leipzig-augsburg/l0BFkPE2/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Hoffenheim</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
       <c r="J34" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>16/09/2023 15:17</t>
+          <t>16/09/2023 15:27</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.86</v>
+        <v>3.35</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.68</v>
+        <v>3.33</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.19</v>
+        <v>3.63</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>16/09/2023 15:20</t>
+          <t>16/09/2023 15:29</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-hoffenheim/lbWeVfTm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-union-berlin/fcENm3qF/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.07</v>
+        <v>2.6</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.12</v>
+        <v>2.56</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>20.79</v>
+        <v>3.57</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>10.5</v>
+        <v>3.52</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>23/09/2023 14:59</t>
+          <t>23/09/2023 15:05</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>29.26</v>
+        <v>2.81</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>21</v>
+        <v>2.88</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:25</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>7</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>RB Leipzig</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
       <c r="J40" t="n">
-        <v>4.05</v>
+        <v>1.07</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4.91</v>
+        <v>1.12</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.16</v>
+        <v>20.79</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.55</v>
+        <v>10.5</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 14:59</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>1.83</v>
+        <v>29.26</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1.66</v>
+        <v>21</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:28</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-bochum/IwOCRCSC/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>1</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Wolfsburg</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
       <c r="J41" t="n">
-        <v>1.47</v>
+        <v>4.05</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.74</v>
+        <v>4.91</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:20</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>5.02</v>
+        <v>4.16</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.42</v>
+        <v>4.55</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>5.4</v>
+        <v>1.83</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.48</v>
+        <v>1.66</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/b-monchengladbach-rb-leipzig/8M5YrEcm/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Hoffenheim</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.85</v>
+        <v>1.47</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.13</v>
+        <v>1.74</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 15:20</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.93</v>
+        <v>5.02</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.72</v>
+        <v>4.42</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:20</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.38</v>
+        <v>5.4</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.51</v>
+        <v>4.48</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 15:26</t>
+          <t>23/09/2023 15:28</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-wolfsburg/dUMGQWsJ/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>2</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Mainz</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
       <c r="J43" t="n">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.56</v>
+        <v>2.13</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:05</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.57</v>
+        <v>3.93</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.52</v>
+        <v>3.72</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:05</t>
+          <t>23/09/2023 15:20</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.81</v>
+        <v>4.38</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.88</v>
+        <v>3.51</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 15:25</t>
+          <t>23/09/2023 15:26</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-mainz/tz4tshSa/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-hoffenheim/AoQckGKJ/</t>
         </is>
       </c>
     </row>
@@ -4805,30 +4805,30 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>3.34</v>
+        <v>3.49</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.18</v>
+        <v>5.25</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4836,15 +4836,15 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.52</v>
+        <v>3.67</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.53</v>
+        <v>4.52</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4852,24 +4852,24 @@
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>23/09/2023 17:45</t>
+          <t>17/09/2023 09:01</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.33</v>
+        <v>1.63</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>30/09/2023 15:15</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-union-berlin/x2JKfBda/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayer-leverkusen/p4vt2g4P/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.04</v>
+        <v>3.34</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.21</v>
+        <v>3.18</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:25</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.76</v>
+        <v>3.52</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:22</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.59</v>
+        <v>2.12</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>17/09/2023 09:01</t>
+          <t>23/09/2023 17:45</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.52</v>
+        <v>2.33</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:15</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-union-berlin/x2JKfBda/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Bayer Leverkusen</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
       <c r="J50" t="n">
-        <v>3.49</v>
+        <v>2.04</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>5.25</v>
+        <v>2.21</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.67</v>
+        <v>3.76</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.52</v>
+        <v>3.5</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:22</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.1</v>
+        <v>3.59</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.63</v>
+        <v>3.52</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/mainz-bayer-leverkusen/p4vt2g4P/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-eintracht-frankfurt/ra0cwARO/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>2.17</v>
+        <v>2.49</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.27</v>
+        <v>2.86</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.91</v>
+        <v>3.59</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.77</v>
+        <v>3.58</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:27</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.27</v>
+        <v>2.92</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.15</v>
+        <v>2.55</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 15:26</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>2.49</v>
+        <v>2.17</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.86</v>
+        <v>2.27</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.59</v>
+        <v>3.91</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.58</v>
+        <v>3.77</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:27</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.92</v>
+        <v>3.27</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.55</v>
+        <v>3.15</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:26</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-vfb-stuttgart/nDQ7cDCt/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bochum-b-monchengladbach/fwUFeisg/</t>
         </is>
       </c>
     </row>
@@ -6461,30 +6461,30 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.61</v>
+        <v>6.59</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6492,40 +6492,40 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.46</v>
+        <v>5.15</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>02/10/2023 08:32</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.37</v>
+        <v>5.1</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
+          <t>21/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>02/10/2023 08:32</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
           <t>21/10/2023 15:28</t>
         </is>
       </c>
-      <c r="R66" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>01/10/2023 23:01</t>
-        </is>
-      </c>
-      <c r="T66" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:29</t>
-        </is>
-      </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-vfb-stuttgart/plb35SAH/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
         </is>
       </c>
     </row>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>1</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Eintracht Frankfurt</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>3</v>
-      </c>
       <c r="J67" t="n">
-        <v>2.39</v>
+        <v>1.56</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>21/10/2023 15:28</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.56</v>
+        <v>4.28</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>01/10/2023 23:01</t>
+          <t>01/10/2023 23:02</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.65</v>
+        <v>3.91</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
+          <t>21/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:02</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
           <t>21/10/2023 15:26</t>
         </is>
       </c>
-      <c r="R67" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>01/10/2023 23:01</t>
-        </is>
-      </c>
-      <c r="T67" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:28</t>
-        </is>
-      </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-eintracht-frankfurt/fDpPMTuh/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>2.83</v>
+        <v>2.39</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4.47</v>
+        <v>2.06</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>21/10/2023 15:00</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.69</v>
+        <v>3.56</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.11</v>
+        <v>3.65</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 15:26</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.52</v>
+        <v>2.98</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.79</v>
+        <v>3.79</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>21/10/2023 15:00</t>
+          <t>21/10/2023 15:28</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayer-leverkusen/xdGA36uU/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-eintracht-frankfurt/fDpPMTuh/</t>
         </is>
       </c>
     </row>
@@ -6737,30 +6737,30 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>6.59</v>
+        <v>2.61</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6768,40 +6768,40 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>5.15</v>
+        <v>3.46</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>02/10/2023 08:32</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>5.1</v>
+        <v>3.37</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
+          <t>21/10/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>01/10/2023 23:01</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
           <t>21/10/2023 15:29</t>
         </is>
       </c>
-      <c r="R69" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>02/10/2023 08:32</t>
-        </is>
-      </c>
-      <c r="T69" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:28</t>
-        </is>
-      </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-rb-leipzig/2wlXK7A4/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-vfb-stuttgart/plb35SAH/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
         <v>2</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Bochum</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
       <c r="J70" t="n">
-        <v>1.56</v>
+        <v>2.83</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.81</v>
+        <v>4.47</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:00</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>4.28</v>
+        <v>3.69</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.91</v>
+        <v>4.11</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:27</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>5.28</v>
+        <v>2.52</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>01/10/2023 23:02</t>
+          <t>01/10/2023 23:01</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.61</v>
+        <v>1.79</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>21/10/2023 15:26</t>
+          <t>21/10/2023 15:00</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-bochum/rZG64nQN/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayer-leverkusen/xdGA36uU/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>2</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Union Berlin</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
       <c r="J75" t="n">
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.86</v>
+        <v>2.54</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>28/10/2023 15:01</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.33</v>
+        <v>3.62</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.53</v>
+        <v>3.62</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>28/10/2023 14:50</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.73</v>
+        <v>2.44</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.53</v>
+        <v>2.8</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>28/10/2023 15:01</t>
+          <t>28/10/2023 14:56</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-union-berlin/4AhMbHg2/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
         </is>
       </c>
     </row>
@@ -7381,46 +7381,46 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.77</v>
+        <v>1.07</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.67</v>
+        <v>1.06</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/10/2023 15:27</t>
+          <t>28/10/2023 15:16</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>4.11</v>
+        <v>12.93</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4.43</v>
+        <v>17.61</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,15 +7428,15 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.38</v>
+        <v>19.15</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>10/10/2023 14:02</t>
+          <t>10/10/2023 14:25</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>4.84</v>
+        <v>32.15</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-hoffenheim/EuzDLv1F/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-darmstadt/p2wxKRPA/</t>
         </is>
       </c>
     </row>
@@ -7565,46 +7565,46 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J78" t="n">
-        <v>1.07</v>
+        <v>1.77</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.06</v>
+        <v>1.67</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/10/2023 15:16</t>
+          <t>28/10/2023 15:27</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>12.93</v>
+        <v>4.11</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>17.61</v>
+        <v>4.43</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -7612,15 +7612,15 @@
         </is>
       </c>
       <c r="R78" t="n">
-        <v>19.15</v>
+        <v>4.38</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>10/10/2023 14:25</t>
+          <t>10/10/2023 14:02</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>32.15</v>
+        <v>4.84</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-darmstadt/p2wxKRPA/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-hoffenheim/EuzDLv1F/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.72</v>
+        <v>2.73</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.54</v>
+        <v>2.86</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:01</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.62</v>
+        <v>3.33</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.62</v>
+        <v>3.53</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 14:50</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.44</v>
+        <v>2.73</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.8</v>
+        <v>2.53</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/10/2023 14:56</t>
+          <t>28/10/2023 15:01</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-wolfsburg/d4u8MKo9/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-union-berlin/4AhMbHg2/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:19</t>
+          <t>04/11/2023 15:29</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.99</v>
+        <v>3.73</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.85</v>
+        <v>3.89</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:19</t>
+          <t>04/11/2023 15:29</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.55</v>
+        <v>3.8</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.64</v>
+        <v>3.52</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>04/11/2023 15:19</t>
+          <t>04/11/2023 15:29</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-b-monchengladbach/MoPnFxvq/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-augsburg/CzIaCzO1/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J88" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>04/11/2023 15:29</t>
+          <t>04/11/2023 15:19</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.73</v>
+        <v>3.99</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.89</v>
+        <v>3.85</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>04/11/2023 15:29</t>
+          <t>04/11/2023 15:19</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.8</v>
+        <v>4.55</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.52</v>
+        <v>3.64</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>04/11/2023 15:29</t>
+          <t>04/11/2023 15:19</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/1-fc-koln-augsburg/CzIaCzO1/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-b-monchengladbach/MoPnFxvq/</t>
         </is>
       </c>
     </row>
@@ -8945,30 +8945,30 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>2.95</v>
+        <v>2.71</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.28</v>
+        <v>2.49</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -8976,40 +8976,40 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.4</v>
+        <v>3.67</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.48</v>
+        <v>3.84</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>11/11/2023 15:29</t>
+          <t>11/11/2023 15:26</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.46</v>
+        <v>2.51</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:21</t>
+          <t>29/10/2023 11:02</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.3</v>
+        <v>2.74</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>11/11/2023 15:29</t>
+          <t>11/11/2023 15:28</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-mainz/StmJWPQD/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-dortmund/vRgy8tlD/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.49</v>
+        <v>2.43</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.67</v>
+        <v>3.53</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.84</v>
+        <v>3.86</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>11/11/2023 15:26</t>
+          <t>11/11/2023 15:29</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.51</v>
+        <v>2.74</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>11/11/2023 15:28</t>
+          <t>11/11/2023 15:29</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-dortmund/vRgy8tlD/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-hoffenheim/0zeX8MY6/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>2.56</v>
+        <v>1.06</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.43</v>
+        <v>1.11</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>11/11/2023 15:29</t>
+          <t>11/11/2023 14:58</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.53</v>
+        <v>17.32</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.86</v>
+        <v>12</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>11/11/2023 15:29</t>
+          <t>11/11/2023 14:58</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.74</v>
+        <v>29.94</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>29/10/2023 11:02</t>
+          <t>29/10/2023 11:21</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>11/11/2023 15:29</t>
+          <t>11/11/2023 14:58</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/augsburg-hoffenheim/0zeX8MY6/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-heidenheim/2PphIQBK/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.06</v>
+        <v>2.95</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.11</v>
+        <v>3.28</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>11/11/2023 14:58</t>
+          <t>11/11/2023 15:29</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>17.32</v>
+        <v>3.4</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>12</v>
+        <v>3.48</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>11/11/2023 14:58</t>
+          <t>11/11/2023 15:29</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>29.94</v>
+        <v>2.46</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>19</v>
+        <v>2.3</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>11/11/2023 14:58</t>
+          <t>11/11/2023 15:29</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/bayern-munich-heidenheim/2PphIQBK/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/darmstadt-mainz/StmJWPQD/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>1.65</v>
+        <v>3.09</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.99</v>
+        <v>3.74</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>25/11/2023 15:28</t>
+          <t>25/11/2023 15:27</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.96</v>
+        <v>3.65</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,32 +9812,32 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.59</v>
+        <v>4.01</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
+          <t>25/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
           <t>25/11/2023 15:27</t>
         </is>
       </c>
-      <c r="R102" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>05/11/2023 11:03</t>
-        </is>
-      </c>
-      <c r="T102" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>25/11/2023 15:28</t>
-        </is>
-      </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-augsburg/ldySU3eQ/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-rb-leipzig/d2Q1O1Yg/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>3.09</v>
+        <v>1.65</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,48 +9888,48 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>3.74</v>
+        <v>1.99</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
+          <t>25/11/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
           <t>25/11/2023 15:27</t>
         </is>
       </c>
-      <c r="N103" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O103" t="inlineStr">
+      <c r="R103" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="S103" t="inlineStr">
         <is>
           <t>05/11/2023 11:03</t>
         </is>
       </c>
-      <c r="P103" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="Q103" t="inlineStr">
-        <is>
-          <t>25/11/2023 14:57</t>
-        </is>
-      </c>
-      <c r="R103" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>05/11/2023 11:03</t>
-        </is>
-      </c>
       <c r="T103" t="n">
-        <v>1.95</v>
+        <v>4.02</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>25/11/2023 15:27</t>
+          <t>25/11/2023 15:28</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-rb-leipzig/d2Q1O1Yg/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/union-berlin-augsburg/ldySU3eQ/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>25/11/2023 14:49</t>
+          <t>25/11/2023 15:28</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>5.88</v>
+        <v>4.43</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>5.24</v>
+        <v>4.55</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>25/11/2023 15:27</t>
+          <t>25/11/2023 15:28</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>7.58</v>
+        <v>6.12</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>5.53</v>
+        <v>6.28</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-b-monchengladbach/6XoNVqtK/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-darmstadt/OlSgQN3s/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J105" t="n">
-        <v>1.53</v>
+        <v>5.02</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.53</v>
+        <v>6</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>25/11/2023 15:28</t>
+          <t>25/11/2023 15:26</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>4.43</v>
+        <v>4.42</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>4.55</v>
+        <v>5.11</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>25/11/2023 15:28</t>
+          <t>25/11/2023 15:26</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>6.12</v>
+        <v>1.62</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>6.28</v>
+        <v>1.47</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>25/11/2023 15:28</t>
+          <t>25/11/2023 13:02</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/freiburg-darmstadt/OlSgQN3s/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-bayer-leverkusen/niJELaIC/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J106" t="n">
-        <v>5.02</v>
+        <v>1.35</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>6</v>
+        <v>1.51</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>25/11/2023 15:26</t>
+          <t>25/11/2023 14:49</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>4.42</v>
+        <v>5.88</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>5.11</v>
+        <v>5.24</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>25/11/2023 15:26</t>
+          <t>25/11/2023 15:27</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>1.62</v>
+        <v>7.58</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>1.47</v>
+        <v>5.53</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>25/11/2023 13:02</t>
+          <t>25/11/2023 15:28</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/werder-bremen-bayer-leverkusen/niJELaIC/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-b-monchengladbach/6XoNVqtK/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>1.54</v>
+        <v>1.34</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>19/12/2023 20:02</t>
+          <t>19/12/2023 20:08</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>4.46</v>
+        <v>5.47</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>4.74</v>
+        <v>4.63</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>19/12/2023 20:28</t>
+          <t>19/12/2023 20:08</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>4.99</v>
+        <v>6.8</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>6.42</v>
+        <v>5.73</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>19/12/2023 20:28</t>
+          <t>19/12/2023 20:08</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-darmstadt/U7dY2l79/</t>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-mainz/QwMYsmVq/</t>
         </is>
       </c>
     </row>
@@ -13085,71 +13085,531 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G138" t="n">
+        <v>3</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>3</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>19/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>19/12/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>19/12/2023 20:28</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/hoffenheim-darmstadt/U7dY2l79/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45280.85416666666</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>3</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/vfb-stuttgart-augsburg/2Lft1SyM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45280.85416666666</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>4</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:12</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:28</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/bayer-leverkusen-bochum/KxFstRad/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45280.85416666666</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>2</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>B. Monchengladbach</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
         <v>1</v>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Mainz</t>
-        </is>
-      </c>
-      <c r="I138" t="n">
+      <c r="J141" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:28</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/eintracht-frankfurt-b-monchengladbach/Yu3P4Axc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45280.85416666666</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>3</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>2</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:28</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:03</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:28</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/heidenheim-freiburg/GObp0niS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45280.85416666666</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
         <v>1</v>
       </c>
-      <c r="J138" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="K138" t="inlineStr">
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>2</v>
+      </c>
+      <c r="J143" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K143" t="inlineStr">
         <is>
           <t>09/12/2023 20:03</t>
         </is>
       </c>
-      <c r="L138" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>19/12/2023 20:08</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="O138" t="inlineStr">
+      <c r="L143" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="O143" t="inlineStr">
         <is>
           <t>09/12/2023 20:03</t>
         </is>
       </c>
-      <c r="P138" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="Q138" t="inlineStr">
-        <is>
-          <t>19/12/2023 20:08</t>
-        </is>
-      </c>
-      <c r="R138" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="S138" t="inlineStr">
+      <c r="P143" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S143" t="inlineStr">
         <is>
           <t>09/12/2023 20:03</t>
         </is>
       </c>
-      <c r="T138" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="U138" t="inlineStr">
-        <is>
-          <t>19/12/2023 20:08</t>
-        </is>
-      </c>
-      <c r="V138" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/germany/bundesliga/dortmund-mainz/QwMYsmVq/</t>
+      <c r="T143" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/germany/bundesliga/wolfsburg-bayern-munich/CW1T3Ui3/</t>
         </is>
       </c>
     </row>
